--- a/2023_트윈스_상주리그정리.xlsx
+++ b/2023_트윈스_상주리그정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="345" windowWidth="20175" windowHeight="11550"/>
+    <workbookView xWindow="600" yWindow="345" windowWidth="20175" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상주리그_개인전종합" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="160">
   <si>
     <t>userTeamName</t>
   </si>
@@ -481,82 +481,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>핸디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권태은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양종호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안효민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안호철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최정원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박장호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박신호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J08</t>
+  </si>
+  <si>
+    <t>에버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클럽명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남/여여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>총점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>핸디</t>
+    <t>게임수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업데이트날짜</t>
+    <t>상위6게임총점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권태은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양종호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안효민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안호철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최정원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박장호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박신호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정승우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김 일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진해진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J08</t>
-  </si>
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클럽명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남/여여부</t>
+    <t>상위6게임에버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,19 +580,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위6게임총점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위6게임에버</t>
+    <t>SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -666,13 +670,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,9 +735,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,11 +750,74 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1030,25 +1107,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A3:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="14"/>
-    <col min="6" max="6" width="9" style="17"/>
+    <col min="6" max="6" width="9" style="16"/>
     <col min="7" max="7" width="11.125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1063,21 +1139,21 @@
       <c r="E2" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <f>RANK(F3,$F$3:$F$100,0)</f>
         <v>1</v>
       </c>
@@ -1096,7 +1172,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C3,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>698</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>AVERAGE(E3/G3)</f>
         <v>232.66666666666666</v>
       </c>
@@ -1104,11 +1180,11 @@
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C3) * 3</f>
         <v>3</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" hidden="1">
-      <c r="A4" s="19">
+    <row r="4" spans="1:9">
+      <c r="A4" s="18">
         <f>RANK(F4,$F$3:$F$100,0)</f>
         <v>2</v>
       </c>
@@ -1127,7 +1203,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C4,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3355</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <f>AVERAGE(E4/G4)</f>
         <v>223.66666666666666</v>
       </c>
@@ -1139,7 +1215,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <f>RANK(F5,$F$3:$F$100,0)</f>
         <v>3</v>
       </c>
@@ -1148,7 +1224,7 @@
         <v>트윈스</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IF(VLOOKUP(C5,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1158,7 +1234,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C5,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3288</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <f>AVERAGE(E5/G5)</f>
         <v>219.2</v>
       </c>
@@ -1170,7 +1246,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <f>RANK(F6,$F$3:$F$100,0)</f>
         <v>4</v>
       </c>
@@ -1179,7 +1255,7 @@
         <v>락</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(VLOOKUP(C6,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1189,7 +1265,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C6,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1961</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f>AVERAGE(E6/G6)</f>
         <v>217.88888888888889</v>
       </c>
@@ -1201,7 +1277,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <f>RANK(F7,$F$3:$F$100,0)</f>
         <v>5</v>
       </c>
@@ -1210,7 +1286,7 @@
         <v>포인트</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IF(VLOOKUP(C7,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1220,7 +1296,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C7,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3268</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f>AVERAGE(E7/G7)</f>
         <v>217.86666666666667</v>
       </c>
@@ -1231,8 +1307,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" hidden="1">
-      <c r="A8" s="19">
+    <row r="8" spans="1:9">
+      <c r="A8" s="18">
         <f>RANK(F8,$F$3:$F$100,0)</f>
         <v>6</v>
       </c>
@@ -1251,7 +1327,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C8,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1299</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <f>AVERAGE(E8/G8)</f>
         <v>216.5</v>
       </c>
@@ -1263,7 +1339,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <f>RANK(F9,$F$3:$F$100,0)</f>
         <v>7</v>
       </c>
@@ -1282,7 +1358,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C9,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1913</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <f>AVERAGE(E9/G9)</f>
         <v>212.55555555555554</v>
       </c>
@@ -1294,7 +1370,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <f>RANK(F10,$F$3:$F$100,0)</f>
         <v>8</v>
       </c>
@@ -1313,7 +1389,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C10,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3172</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <f>AVERAGE(E10/G10)</f>
         <v>211.46666666666667</v>
       </c>
@@ -1325,7 +1401,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <f>RANK(F11,$F$3:$F$100,0)</f>
         <v>9</v>
       </c>
@@ -1344,7 +1420,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C11,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3148</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <f>AVERAGE(E11/G11)</f>
         <v>209.86666666666667</v>
       </c>
@@ -1356,7 +1432,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <f>RANK(F12,$F$3:$F$100,0)</f>
         <v>10</v>
       </c>
@@ -1375,7 +1451,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C12,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3127</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <f>AVERAGE(E12/G12)</f>
         <v>208.46666666666667</v>
       </c>
@@ -1387,7 +1463,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <f>RANK(F13,$F$3:$F$100,0)</f>
         <v>11</v>
       </c>
@@ -1396,7 +1472,7 @@
         <v>락</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IF(VLOOKUP(C13,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1406,7 +1482,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C13,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3106</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <f>AVERAGE(E13/G13)</f>
         <v>207.06666666666666</v>
       </c>
@@ -1418,7 +1494,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <f>RANK(F14,$F$3:$F$100,0)</f>
         <v>12</v>
       </c>
@@ -1437,7 +1513,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C14,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>620</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <f>AVERAGE(E14/G14)</f>
         <v>206.66666666666666</v>
       </c>
@@ -1448,8 +1524,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" hidden="1">
-      <c r="A15" s="19">
+    <row r="15" spans="1:9">
+      <c r="A15" s="18">
         <f>RANK(F15,$F$3:$F$100,0)</f>
         <v>13</v>
       </c>
@@ -1468,7 +1544,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C15,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>619</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <f>AVERAGE(E15/G15)</f>
         <v>206.33333333333334</v>
       </c>
@@ -1479,8 +1555,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" hidden="1">
-      <c r="A16" s="19">
+    <row r="16" spans="1:9">
+      <c r="A16" s="18">
         <f>RANK(F16,$F$3:$F$100,0)</f>
         <v>14</v>
       </c>
@@ -1489,7 +1565,7 @@
         <v>락</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(VLOOKUP(C16,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1499,7 +1575,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C16,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1846</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <f>AVERAGE(E16/G16)</f>
         <v>205.11111111111111</v>
       </c>
@@ -1511,7 +1587,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <f>RANK(F17,$F$3:$F$100,0)</f>
         <v>15</v>
       </c>
@@ -1520,7 +1596,7 @@
         <v>볼칠래</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IF(VLOOKUP(C17,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1530,7 +1606,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C17,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>612</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <f>AVERAGE(E17/G17)</f>
         <v>204</v>
       </c>
@@ -1542,7 +1618,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <f>RANK(F18,$F$3:$F$100,0)</f>
         <v>16</v>
       </c>
@@ -1561,7 +1637,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C18,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3051</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <f>AVERAGE(E18/G18)</f>
         <v>203.4</v>
       </c>
@@ -1573,7 +1649,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <f>RANK(F19,$F$3:$F$100,0)</f>
         <v>17</v>
       </c>
@@ -1592,7 +1668,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C19,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2438</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <f>AVERAGE(E19/G19)</f>
         <v>203.16666666666666</v>
       </c>
@@ -1604,7 +1680,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <f>RANK(F20,$F$3:$F$100,0)</f>
         <v>18</v>
       </c>
@@ -1613,7 +1689,7 @@
         <v>포인트</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IF(VLOOKUP(C20,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1623,7 +1699,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C20,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3041</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <f>AVERAGE(E20/G20)</f>
         <v>202.73333333333332</v>
       </c>
@@ -1635,7 +1711,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <f>RANK(F21,$F$3:$F$100,0)</f>
         <v>19</v>
       </c>
@@ -1654,7 +1730,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C21,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>607</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <f>AVERAGE(E21/G21)</f>
         <v>202.33333333333334</v>
       </c>
@@ -1666,7 +1742,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <f>RANK(F22,$F$3:$F$100,0)</f>
         <v>20</v>
       </c>
@@ -1675,7 +1751,7 @@
         <v>샷스핀</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>IF(VLOOKUP(C22,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1685,7 +1761,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C22,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>3019</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f>AVERAGE(E22/G22)</f>
         <v>201.26666666666668</v>
       </c>
@@ -1697,7 +1773,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <f>RANK(F23,$F$3:$F$100,0)</f>
         <v>21</v>
       </c>
@@ -1716,7 +1792,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C23,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1206</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f>AVERAGE(E23/G23)</f>
         <v>201</v>
       </c>
@@ -1728,7 +1804,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <f>RANK(F24,$F$3:$F$100,0)</f>
         <v>22</v>
       </c>
@@ -1747,7 +1823,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C24,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1201</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <f>AVERAGE(E24/G24)</f>
         <v>200.16666666666666</v>
       </c>
@@ -1759,7 +1835,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <f>RANK(F25,$F$3:$F$100,0)</f>
         <v>23</v>
       </c>
@@ -1778,7 +1854,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C25,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1782</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <f>AVERAGE(E25/G25)</f>
         <v>198</v>
       </c>
@@ -1790,7 +1866,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <f>RANK(F26,$F$3:$F$100,0)</f>
         <v>24</v>
       </c>
@@ -1809,7 +1885,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C26,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1777</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <f>AVERAGE(E26/G26)</f>
         <v>197.44444444444446</v>
       </c>
@@ -1821,7 +1897,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <f>RANK(F27,$F$3:$F$100,0)</f>
         <v>25</v>
       </c>
@@ -1830,7 +1906,7 @@
         <v>트윈스</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>IF(VLOOKUP(C27,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1840,7 +1916,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C27,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2949</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <f>AVERAGE(E27/G27)</f>
         <v>196.6</v>
       </c>
@@ -1852,7 +1928,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <f>RANK(F28,$F$3:$F$100,0)</f>
         <v>26</v>
       </c>
@@ -1871,7 +1947,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C28,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1178</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <f>AVERAGE(E28/G28)</f>
         <v>196.33333333333334</v>
       </c>
@@ -1883,7 +1959,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <f>RANK(F29,$F$3:$F$100,0)</f>
         <v>27</v>
       </c>
@@ -1902,7 +1978,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C29,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1761</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <f>AVERAGE(E29/G29)</f>
         <v>195.66666666666666</v>
       </c>
@@ -1913,8 +1989,8 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" hidden="1">
-      <c r="A30" s="19">
+    <row r="30" spans="1:9">
+      <c r="A30" s="18">
         <f>RANK(F30,$F$3:$F$100,0)</f>
         <v>28</v>
       </c>
@@ -1933,7 +2009,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C30,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2347</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <f>AVERAGE(E30/G30)</f>
         <v>195.58333333333334</v>
       </c>
@@ -1944,8 +2020,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" hidden="1">
-      <c r="A31" s="19">
+    <row r="31" spans="1:9">
+      <c r="A31" s="18">
         <f>RANK(F31,$F$3:$F$100,0)</f>
         <v>29</v>
       </c>
@@ -1954,7 +2030,7 @@
         <v>포인트</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>IF(VLOOKUP(C31,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1964,7 +2040,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C31,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2922</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <f>AVERAGE(E31/G31)</f>
         <v>194.8</v>
       </c>
@@ -1976,7 +2052,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <f>RANK(F32,$F$3:$F$100,0)</f>
         <v>30</v>
       </c>
@@ -1995,7 +2071,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C32,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>579</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <f>AVERAGE(E32/G32)</f>
         <v>193</v>
       </c>
@@ -2007,7 +2083,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <f>RANK(F33,$F$3:$F$100,0)</f>
         <v>31</v>
       </c>
@@ -2026,7 +2102,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C33,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>577</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <f>AVERAGE(E33/G33)</f>
         <v>192.33333333333334</v>
       </c>
@@ -2037,8 +2113,8 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
-      <c r="A34" s="19">
+    <row r="34" spans="1:9">
+      <c r="A34" s="18">
         <f>RANK(F34,$F$3:$F$100,0)</f>
         <v>32</v>
       </c>
@@ -2057,7 +2133,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C34,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>561</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <f>AVERAGE(E34/G34)</f>
         <v>187</v>
       </c>
@@ -2069,7 +2145,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <f>RANK(F35,$F$3:$F$100,0)</f>
         <v>33</v>
       </c>
@@ -2088,7 +2164,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C35,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1678</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <f>AVERAGE(E35/G35)</f>
         <v>186.44444444444446</v>
       </c>
@@ -2099,8 +2175,8 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
-      <c r="A36" s="19">
+    <row r="36" spans="1:9">
+      <c r="A36" s="18">
         <f>RANK(F36,$F$3:$F$100,0)</f>
         <v>33</v>
       </c>
@@ -2119,7 +2195,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C36,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1678</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <f>AVERAGE(E36/G36)</f>
         <v>186.44444444444446</v>
       </c>
@@ -2130,8 +2206,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
-      <c r="A37" s="19">
+    <row r="37" spans="1:9">
+      <c r="A37" s="18">
         <f>RANK(F37,$F$3:$F$100,0)</f>
         <v>35</v>
       </c>
@@ -2140,7 +2216,7 @@
         <v>트윈스</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="2" t="str">
         <f>IF(VLOOKUP(C37,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2150,7 +2226,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C37,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2795</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <f>AVERAGE(E37/G37)</f>
         <v>186.33333333333334</v>
       </c>
@@ -2162,7 +2238,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <f>RANK(F38,$F$3:$F$100,0)</f>
         <v>36</v>
       </c>
@@ -2181,7 +2257,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C38,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>550</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <f>AVERAGE(E38/G38)</f>
         <v>183.33333333333334</v>
       </c>
@@ -2193,7 +2269,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <f>RANK(F39,$F$3:$F$100,0)</f>
         <v>37</v>
       </c>
@@ -2212,7 +2288,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C39,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2744</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="15">
         <f>AVERAGE(E39/G39)</f>
         <v>182.93333333333334</v>
       </c>
@@ -2224,7 +2300,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <f>RANK(F40,$F$3:$F$100,0)</f>
         <v>38</v>
       </c>
@@ -2243,7 +2319,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C40,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1638</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <f>AVERAGE(E40/G40)</f>
         <v>182</v>
       </c>
@@ -2255,7 +2331,7 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <f>RANK(F41,$F$3:$F$100,0)</f>
         <v>38</v>
       </c>
@@ -2274,7 +2350,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C41,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>546</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <f>AVERAGE(E41/G41)</f>
         <v>182</v>
       </c>
@@ -2286,7 +2362,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
+      <c r="A42" s="18">
         <f>RANK(F42,$F$3:$F$100,0)</f>
         <v>40</v>
       </c>
@@ -2305,7 +2381,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C42,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1061</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="15">
         <f>AVERAGE(E42/G42)</f>
         <v>176.83333333333334</v>
       </c>
@@ -2317,7 +2393,7 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <f>RANK(F43,$F$3:$F$100,0)</f>
         <v>41</v>
       </c>
@@ -2336,7 +2412,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C43,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1551</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <f>AVERAGE(E43/G43)</f>
         <v>172.33333333333334</v>
       </c>
@@ -2348,7 +2424,7 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <f>RANK(F44,$F$3:$F$100,0)</f>
         <v>42</v>
       </c>
@@ -2367,7 +2443,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C44,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>2067</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <f>AVERAGE(E44/G44)</f>
         <v>172.25</v>
       </c>
@@ -2379,7 +2455,7 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <f>RANK(F45,$F$3:$F$100,0)</f>
         <v>43</v>
       </c>
@@ -2398,7 +2474,7 @@
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C45,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1550</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="15">
         <f>AVERAGE(E45/G45)</f>
         <v>172.22222222222223</v>
       </c>
@@ -2411,26 +2487,26 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I45">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="남"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A3:I45">
-      <sortCondition ref="A2"/>
+      <sortCondition descending="1" ref="F2:F45"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1 F3:F1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>199.99999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2447,9 +2523,10 @@
     <col min="10" max="10" width="6" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.125" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
@@ -2478,16 +2555,19 @@
         <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -2521,20 +2601,23 @@
       <c r="K2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="6">
         <v>44997</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>VLOOKUP(C3,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G01</v>
+        <v>A01</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2">
         <v>2023</v>
@@ -2546,36 +2629,39 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H3" s="2">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="I3" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J3" s="2">
         <f>SUM(G3:I3)</f>
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(VLOOKUP(C3,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6">
         <v>44997</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>VLOOKUP(C4,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G02</v>
+        <v>A02</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2">
         <v>2023</v>
@@ -2587,36 +2673,39 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="H4" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I4" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J67" si="0">SUM(G4:I4)</f>
-        <v>640</v>
+        <f>SUM(G4:I4)</f>
+        <v>557</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>IF(VLOOKUP(C4,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6">
         <v>44997</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP(C5,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G03</v>
+        <v>A03</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2">
         <v>2023</v>
@@ -2628,33 +2717,36 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H5" s="2">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="I5" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="0"/>
-        <v>621</v>
+        <f>SUM(G5:I5)</f>
+        <v>564</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>IF(VLOOKUP(C5,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>44997</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP(C6,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B02</v>
+        <v>B01</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>138</v>
@@ -2669,36 +2761,39 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H6" s="2">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="I6" s="2">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
-        <v>630</v>
+        <f>SUM(G6:I6)</f>
+        <v>631</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>IF(VLOOKUP(C6,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6">
         <v>44997</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP(C7,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B01</v>
+        <v>B02</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2">
         <v>2023</v>
@@ -2710,27 +2805,30 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H7" s="2">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="I7" s="2">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="0"/>
-        <v>631</v>
+        <f>SUM(G7:I7)</f>
+        <v>630</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>IF(VLOOKUP(C7,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
+        <v>15</v>
+      </c>
+      <c r="L7" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="6">
         <v>44997</v>
       </c>
@@ -2739,7 +2837,7 @@
         <v>B03</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2">
         <v>2023</v>
@@ -2760,27 +2858,30 @@
         <v>182</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G8:I8)</f>
         <v>631</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>IF(VLOOKUP(C8,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="6">
         <v>44997</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP(C9,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J01</v>
+        <v>C01</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2">
         <v>2023</v>
@@ -2792,36 +2893,39 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H9" s="2">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="I9" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
-        <v>565</v>
+        <f>SUM(G9:I9)</f>
+        <v>676</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>IF(VLOOKUP(C9,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="6">
         <v>44997</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP(C10,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J02</v>
+        <v>C02</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2">
         <v>2023</v>
@@ -2833,36 +2937,39 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="H10" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="I10" s="2">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="0"/>
-        <v>605</v>
+        <f>SUM(G10:I10)</f>
+        <v>576</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>IF(VLOOKUP(C10,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="6">
         <v>44997</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>VLOOKUP(C11,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J04</v>
+        <v>C03</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2">
         <v>2023</v>
@@ -2874,27 +2981,30 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="H11" s="2">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="I11" s="2">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="0"/>
-        <v>568</v>
+        <f>SUM(G11:I11)</f>
+        <v>522</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(VLOOKUP(C11,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="6">
         <v>44997</v>
       </c>
@@ -2924,18 +3034,21 @@
         <v>158</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G12:I12)</f>
         <v>536</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(VLOOKUP(C12,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="6">
         <v>44997</v>
       </c>
@@ -2965,18 +3078,21 @@
         <v>169</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G13:I13)</f>
         <v>528</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>IF(VLOOKUP(C13,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="6">
         <v>44997</v>
       </c>
@@ -3006,24 +3122,27 @@
         <v>170</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G14:I14)</f>
         <v>544</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IF(VLOOKUP(C14,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="6">
         <v>44997</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>VLOOKUP(C15,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C01</v>
+        <v>F01</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>140</v>
@@ -3038,36 +3157,39 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H15" s="2">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="I15" s="2">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>676</v>
+        <f>SUM(G15:I15)</f>
+        <v>577</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(VLOOKUP(C15,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="6">
         <v>44997</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>VLOOKUP(C16,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C02</v>
+        <v>F02</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2">
         <v>2023</v>
@@ -3079,36 +3201,39 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H16" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="I16" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>576</v>
+        <f>SUM(G16:I16)</f>
+        <v>518</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(VLOOKUP(C16,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="6">
         <v>44997</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>VLOOKUP(C17,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C03</v>
+        <v>F03</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2">
         <v>2023</v>
@@ -3120,36 +3245,39 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="H17" s="2">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="I17" s="2">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="0"/>
-        <v>522</v>
+        <f>SUM(G17:I17)</f>
+        <v>696</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>IF(VLOOKUP(C17,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="6">
         <v>44997</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>VLOOKUP(C18,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H01</v>
+        <v>G01</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2">
         <v>2023</v>
@@ -3161,36 +3289,39 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="H18" s="2">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="I18" s="2">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="0"/>
-        <v>679</v>
+        <f>SUM(G18:I18)</f>
+        <v>637</v>
       </c>
       <c r="K18" s="2" t="str">
         <f>IF(VLOOKUP(C18,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="6">
         <v>44997</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>VLOOKUP(C19,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H02</v>
+        <v>G02</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2">
         <v>2023</v>
@@ -3202,36 +3333,39 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="H19" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="I19" s="2">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="0"/>
-        <v>556</v>
+        <f>SUM(G19:I19)</f>
+        <v>640</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(VLOOKUP(C19,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="6">
         <v>44997</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>VLOOKUP(C20,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H03</v>
+        <v>G03</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>2023</v>
@@ -3243,36 +3377,39 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H20" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="I20" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="0"/>
-        <v>651</v>
+        <f>SUM(G20:I20)</f>
+        <v>621</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>IF(VLOOKUP(C20,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="6">
         <v>44997</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>VLOOKUP(C21,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F01</v>
+        <v>H01</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2">
         <v>2023</v>
@@ -3284,36 +3421,39 @@
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H21" s="2">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="I21" s="2">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
-        <v>577</v>
+        <f>SUM(G21:I21)</f>
+        <v>679</v>
       </c>
       <c r="K21" s="2" t="str">
         <f>IF(VLOOKUP(C21,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="6">
         <v>44997</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>VLOOKUP(C22,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F02</v>
+        <v>H02</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2">
         <v>2023</v>
@@ -3325,36 +3465,39 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H22" s="2">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="I22" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="0"/>
-        <v>518</v>
+        <f>SUM(G22:I22)</f>
+        <v>556</v>
       </c>
       <c r="K22" s="2" t="str">
         <f>IF(VLOOKUP(C22,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="6">
         <v>44997</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>VLOOKUP(C23,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F03</v>
+        <v>H03</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2">
         <v>2023</v>
@@ -3366,27 +3509,30 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="H23" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="I23" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
-        <v>696</v>
+        <f>SUM(G23:I23)</f>
+        <v>651</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(VLOOKUP(C23,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="6">
         <v>44997</v>
       </c>
@@ -3416,18 +3562,21 @@
         <v>203</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G24:I24)</f>
         <v>563</v>
       </c>
       <c r="K24" s="2" t="str">
         <f>IF(VLOOKUP(C24,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="6">
         <v>44997</v>
       </c>
@@ -3457,18 +3606,21 @@
         <v>222</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G25:I25)</f>
         <v>660</v>
       </c>
       <c r="K25" s="2" t="str">
         <f>IF(VLOOKUP(C25,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="6">
         <v>44997</v>
       </c>
@@ -3498,27 +3650,30 @@
         <v>202</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(G26:I26)</f>
         <v>596</v>
       </c>
       <c r="K26" s="2" t="str">
         <f>IF(VLOOKUP(C26,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="6">
         <v>44997</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>VLOOKUP(C27,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A03</v>
+        <v>J01</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2">
         <v>2023</v>
@@ -3530,36 +3685,39 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="H27" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I27" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="0"/>
-        <v>564</v>
+        <f>SUM(G27:I27)</f>
+        <v>565</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(VLOOKUP(C27,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="6">
         <v>44997</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>VLOOKUP(C28,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A01</v>
+        <v>J02</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D28" s="2">
         <v>2023</v>
@@ -3571,36 +3729,39 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="H28" s="2">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="I28" s="2">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="0"/>
-        <v>647</v>
+        <f>SUM(G28:I28)</f>
+        <v>605</v>
       </c>
       <c r="K28" s="2" t="str">
         <f>IF(VLOOKUP(C28,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
+        <v>15</v>
+      </c>
+      <c r="L28" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="6">
         <v>44997</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>VLOOKUP(C29,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A02</v>
+        <v>J04</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2">
         <v>2023</v>
@@ -3612,36 +3773,39 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="H29" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I29" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="0"/>
-        <v>557</v>
+        <f>SUM(G29:I29)</f>
+        <v>568</v>
       </c>
       <c r="K29" s="2" t="str">
         <f>IF(VLOOKUP(C29,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="21">
         <v>44997</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="6">
         <v>45004</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>VLOOKUP(C30,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F01</v>
+        <v>A01</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D30" s="3">
         <v>2023</v>
@@ -3653,36 +3817,39 @@
         <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H30" s="2">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="I30" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="0"/>
-        <v>624</v>
+        <f>SUM(G30:I30)</f>
+        <v>604</v>
       </c>
       <c r="K30" s="2" t="str">
         <f>IF(VLOOKUP(C30,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="6">
         <v>45004</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>VLOOKUP(C31,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F02</v>
+        <v>A02</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="D31" s="3">
         <v>2023</v>
@@ -3694,36 +3861,39 @@
         <v>2</v>
       </c>
       <c r="G31" s="2">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="H31" s="2">
+        <v>172</v>
+      </c>
+      <c r="I31" s="2">
         <v>177</v>
       </c>
-      <c r="I31" s="2">
-        <v>174</v>
-      </c>
       <c r="J31" s="2">
-        <f t="shared" si="0"/>
-        <v>574</v>
+        <f>SUM(G31:I31)</f>
+        <v>509</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(VLOOKUP(C31,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="6">
         <v>45004</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>VLOOKUP(C32,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F03</v>
+        <v>A04</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D32" s="3">
         <v>2023</v>
@@ -3735,36 +3905,39 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="H32" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="I32" s="2">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
-        <v>634</v>
+        <f>SUM(G32:I32)</f>
+        <v>633</v>
       </c>
       <c r="K32" s="2" t="str">
         <f>IF(VLOOKUP(C32,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
+        <v>15</v>
+      </c>
+      <c r="L32" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="6">
         <v>45004</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>VLOOKUP(C33,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J01</v>
+        <v>B01</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D33" s="3">
         <v>2023</v>
@@ -3776,36 +3949,39 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="H33" s="2">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="I33" s="2">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="0"/>
-        <v>605</v>
+        <f>SUM(G33:I33)</f>
+        <v>617</v>
       </c>
       <c r="K33" s="2" t="str">
         <f>IF(VLOOKUP(C33,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="6">
         <v>45004</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>VLOOKUP(C34,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J02</v>
+        <v>B02</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D34" s="3">
         <v>2023</v>
@@ -3817,36 +3993,39 @@
         <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="H34" s="2">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="I34" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="0"/>
-        <v>539</v>
+        <f>SUM(G34:I34)</f>
+        <v>563</v>
       </c>
       <c r="K34" s="2" t="str">
         <f>IF(VLOOKUP(C34,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="6">
         <v>45004</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>VLOOKUP(C35,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J05</v>
+        <v>B03</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D35" s="3">
         <v>2023</v>
@@ -3858,36 +4037,39 @@
         <v>2</v>
       </c>
       <c r="G35" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="H35" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="I35" s="2">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="0"/>
-        <v>698</v>
+        <f>SUM(G35:I35)</f>
+        <v>721</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(VLOOKUP(C35,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="6">
         <v>45004</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>VLOOKUP(C36,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G04</v>
+        <v>C01</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="D36" s="3">
         <v>2023</v>
@@ -3899,36 +4081,39 @@
         <v>2</v>
       </c>
       <c r="G36" s="2">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H36" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I36" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="0"/>
-        <v>577</v>
+        <f>SUM(G36:I36)</f>
+        <v>539</v>
       </c>
       <c r="K36" s="2" t="str">
         <f>IF(VLOOKUP(C36,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="6">
         <v>45004</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>VLOOKUP(C37,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G05</v>
+        <v>C02</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3">
         <v>2023</v>
@@ -3940,36 +4125,39 @@
         <v>2</v>
       </c>
       <c r="G37" s="2">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="H37" s="2">
+        <v>155</v>
+      </c>
+      <c r="I37" s="2">
         <v>183</v>
       </c>
-      <c r="I37" s="2">
-        <v>206</v>
-      </c>
       <c r="J37" s="2">
-        <f t="shared" si="0"/>
-        <v>561</v>
+        <f>SUM(G37:I37)</f>
+        <v>555</v>
       </c>
       <c r="K37" s="2" t="str">
         <f>IF(VLOOKUP(C37,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="6">
         <v>45004</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>VLOOKUP(C38,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G03</v>
+        <v>C03</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3">
         <v>2023</v>
@@ -3981,36 +4169,39 @@
         <v>2</v>
       </c>
       <c r="G38" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="H38" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I38" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="0"/>
-        <v>610</v>
+        <f>SUM(G38:I38)</f>
+        <v>573</v>
       </c>
       <c r="K38" s="2" t="str">
         <f>IF(VLOOKUP(C38,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="6">
         <v>45004</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>VLOOKUP(C39,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H01</v>
+        <v>D01</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3">
         <v>2023</v>
@@ -4022,36 +4213,39 @@
         <v>2</v>
       </c>
       <c r="G39" s="2">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="H39" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="I39" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="0"/>
-        <v>573</v>
+        <f>SUM(G39:I39)</f>
+        <v>519</v>
       </c>
       <c r="K39" s="2" t="str">
         <f>IF(VLOOKUP(C39,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="6">
         <v>45004</v>
       </c>
       <c r="B40" s="2" t="str">
         <f>VLOOKUP(C40,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H02</v>
+        <v>D02</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3">
         <v>2023</v>
@@ -4063,36 +4257,39 @@
         <v>2</v>
       </c>
       <c r="G40" s="2">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="H40" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I40" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="0"/>
-        <v>638</v>
+        <f>SUM(G40:I40)</f>
+        <v>555</v>
       </c>
       <c r="K40" s="2" t="str">
         <f>IF(VLOOKUP(C40,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="6">
         <v>45004</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>VLOOKUP(C41,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H03</v>
+        <v>D04</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3">
         <v>2023</v>
@@ -4104,36 +4301,39 @@
         <v>2</v>
       </c>
       <c r="G41" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H41" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I41" s="2">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="0"/>
-        <v>646</v>
+        <f>SUM(G41:I41)</f>
+        <v>586</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>IF(VLOOKUP(C41,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="6">
         <v>45004</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>VLOOKUP(C42,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B02</v>
+        <v>F01</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3">
         <v>2023</v>
@@ -4145,36 +4345,39 @@
         <v>2</v>
       </c>
       <c r="G42" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H42" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="I42" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="0"/>
-        <v>563</v>
+        <f>SUM(G42:I42)</f>
+        <v>624</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>IF(VLOOKUP(C42,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="6">
         <v>45004</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>VLOOKUP(C43,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B01</v>
+        <v>F02</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D43" s="3">
         <v>2023</v>
@@ -4186,36 +4389,39 @@
         <v>2</v>
       </c>
       <c r="G43" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H43" s="2">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="I43" s="2">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="0"/>
-        <v>617</v>
+        <f>SUM(G43:I43)</f>
+        <v>574</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(VLOOKUP(C43,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
+        <v>15</v>
+      </c>
+      <c r="L43" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="6">
         <v>45004</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>VLOOKUP(C44,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B03</v>
+        <v>F03</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3">
         <v>2023</v>
@@ -4227,36 +4433,39 @@
         <v>2</v>
       </c>
       <c r="G44" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="H44" s="2">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="I44" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="0"/>
-        <v>721</v>
+        <f>SUM(G44:I44)</f>
+        <v>634</v>
       </c>
       <c r="K44" s="2" t="str">
         <f>IF(VLOOKUP(C44,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="6">
         <v>45004</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>VLOOKUP(C45,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I01</v>
+        <v>G03</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3">
         <v>2023</v>
@@ -4268,36 +4477,39 @@
         <v>2</v>
       </c>
       <c r="G45" s="2">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="H45" s="2">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="I45" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="0"/>
-        <v>601</v>
+        <f>SUM(G45:I45)</f>
+        <v>610</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>IF(VLOOKUP(C45,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="6">
         <v>45004</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>VLOOKUP(C46,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I02</v>
+        <v>G04</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D46" s="3">
         <v>2023</v>
@@ -4309,36 +4521,39 @@
         <v>2</v>
       </c>
       <c r="G46" s="2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="H46" s="2">
+        <v>172</v>
+      </c>
+      <c r="I46" s="2">
         <v>202</v>
       </c>
-      <c r="I46" s="2">
-        <v>194</v>
-      </c>
       <c r="J46" s="2">
-        <f t="shared" si="0"/>
-        <v>645</v>
+        <f>SUM(G46:I46)</f>
+        <v>577</v>
       </c>
       <c r="K46" s="2" t="str">
         <f>IF(VLOOKUP(C46,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="6">
         <v>45004</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>VLOOKUP(C47,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I03</v>
+        <v>G05</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D47" s="3">
         <v>2023</v>
@@ -4350,36 +4565,39 @@
         <v>2</v>
       </c>
       <c r="G47" s="2">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="H47" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I47" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="0"/>
-        <v>593</v>
+        <f>SUM(G47:I47)</f>
+        <v>561</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(VLOOKUP(C47,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
+        <v>15</v>
+      </c>
+      <c r="L47" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="6">
         <v>45004</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>VLOOKUP(C48,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C01</v>
+        <v>H01</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="D48" s="3">
         <v>2023</v>
@@ -4391,36 +4609,39 @@
         <v>2</v>
       </c>
       <c r="G48" s="2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H48" s="2">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="I48" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" si="0"/>
-        <v>539</v>
+        <f>SUM(G48:I48)</f>
+        <v>573</v>
       </c>
       <c r="K48" s="2" t="str">
         <f>IF(VLOOKUP(C48,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="6">
         <v>45004</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>VLOOKUP(C49,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C02</v>
+        <v>H02</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D49" s="3">
         <v>2023</v>
@@ -4432,36 +4653,39 @@
         <v>2</v>
       </c>
       <c r="G49" s="2">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="H49" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I49" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="0"/>
-        <v>555</v>
+        <f>SUM(G49:I49)</f>
+        <v>638</v>
       </c>
       <c r="K49" s="2" t="str">
         <f>IF(VLOOKUP(C49,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="6">
         <v>45004</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>VLOOKUP(C50,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C03</v>
+        <v>H03</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D50" s="3">
         <v>2023</v>
@@ -4473,36 +4697,39 @@
         <v>2</v>
       </c>
       <c r="G50" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="H50" s="2">
+        <v>209</v>
+      </c>
+      <c r="I50" s="2">
         <v>231</v>
       </c>
-      <c r="I50" s="2">
-        <v>171</v>
-      </c>
       <c r="J50" s="2">
-        <f t="shared" si="0"/>
-        <v>573</v>
+        <f>SUM(G50:I50)</f>
+        <v>646</v>
       </c>
       <c r="K50" s="2" t="str">
         <f>IF(VLOOKUP(C50,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="6">
         <v>45004</v>
       </c>
       <c r="B51" s="2" t="str">
         <f>VLOOKUP(C51,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A04</v>
+        <v>I01</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="D51" s="3">
         <v>2023</v>
@@ -4514,36 +4741,39 @@
         <v>2</v>
       </c>
       <c r="G51" s="2">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="H51" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="I51" s="2">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="0"/>
-        <v>633</v>
+        <f>SUM(G51:I51)</f>
+        <v>601</v>
       </c>
       <c r="K51" s="2" t="str">
         <f>IF(VLOOKUP(C51,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="6">
         <v>45004</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>VLOOKUP(C52,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A01</v>
+        <v>I02</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D52" s="3">
         <v>2023</v>
@@ -4555,36 +4785,39 @@
         <v>2</v>
       </c>
       <c r="G52" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H52" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="I52" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="0"/>
-        <v>604</v>
+        <f>SUM(G52:I52)</f>
+        <v>645</v>
       </c>
       <c r="K52" s="2" t="str">
         <f>IF(VLOOKUP(C52,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
+        <v>15</v>
+      </c>
+      <c r="L52" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="6">
         <v>45004</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>VLOOKUP(C53,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A02</v>
+        <v>I03</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D53" s="3">
         <v>2023</v>
@@ -4596,36 +4829,39 @@
         <v>2</v>
       </c>
       <c r="G53" s="2">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="H53" s="2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I53" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="0"/>
-        <v>509</v>
+        <f>SUM(G53:I53)</f>
+        <v>593</v>
       </c>
       <c r="K53" s="2" t="str">
         <f>IF(VLOOKUP(C53,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="6">
         <v>45004</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>VLOOKUP(C54,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D01</v>
+        <v>J01</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D54" s="3">
         <v>2023</v>
@@ -4637,36 +4873,39 @@
         <v>2</v>
       </c>
       <c r="G54" s="2">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="H54" s="2">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="I54" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="0"/>
-        <v>519</v>
+        <f>SUM(G54:I54)</f>
+        <v>605</v>
       </c>
       <c r="K54" s="2" t="str">
         <f>IF(VLOOKUP(C54,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="6">
         <v>45004</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>VLOOKUP(C55,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D02</v>
+        <v>J02</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D55" s="3">
         <v>2023</v>
@@ -4681,33 +4920,36 @@
         <v>171</v>
       </c>
       <c r="H55" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I55" s="2">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="J55" s="2">
-        <f t="shared" si="0"/>
-        <v>555</v>
+        <f>SUM(G55:I55)</f>
+        <v>539</v>
       </c>
       <c r="K55" s="2" t="str">
         <f>IF(VLOOKUP(C55,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
+        <v>15</v>
+      </c>
+      <c r="L55" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="6">
         <v>45004</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>VLOOKUP(C56,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D04</v>
+        <v>J05</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D56" s="3">
         <v>2023</v>
@@ -4719,36 +4961,39 @@
         <v>2</v>
       </c>
       <c r="G56" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="H56" s="2">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="I56" s="2">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="J56" s="2">
-        <f t="shared" si="0"/>
-        <v>586</v>
+        <f>SUM(G56:I56)</f>
+        <v>698</v>
       </c>
       <c r="K56" s="2" t="str">
         <f>IF(VLOOKUP(C56,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="21">
         <v>45004</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="6">
         <v>45018</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>VLOOKUP(C57,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D02</v>
+        <v>A01</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D57" s="3">
         <v>2023</v>
@@ -4760,36 +5005,39 @@
         <v>3</v>
       </c>
       <c r="G57" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="H57" s="2">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="I57" s="2">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="0"/>
-        <v>496</v>
+        <f>SUM(G57:I57)</f>
+        <v>643</v>
       </c>
       <c r="K57" s="2" t="str">
         <f>IF(VLOOKUP(C57,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="6">
         <v>45018</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>VLOOKUP(C58,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D03</v>
+        <v>A03</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D58" s="3">
         <v>2023</v>
@@ -4801,36 +5049,39 @@
         <v>3</v>
       </c>
       <c r="G58" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="H58" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="I58" s="2">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="0"/>
-        <v>515</v>
+        <f>SUM(G58:I58)</f>
+        <v>619</v>
       </c>
       <c r="K58" s="2" t="str">
         <f>IF(VLOOKUP(C58,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="6">
         <v>45018</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>VLOOKUP(C59,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D04</v>
+        <v>A04</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="D59" s="3">
         <v>2023</v>
@@ -4845,33 +5096,36 @@
         <v>194</v>
       </c>
       <c r="H59" s="2">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="I59" s="2">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="0"/>
-        <v>512</v>
+        <f>SUM(G59:I59)</f>
+        <v>598</v>
       </c>
       <c r="K59" s="2" t="str">
         <f>IF(VLOOKUP(C59,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="6">
+        <v>15</v>
+      </c>
+      <c r="L59" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="6">
         <v>45018</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>VLOOKUP(C60,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C01</v>
+        <v>B01</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="3">
         <v>2023</v>
@@ -4883,36 +5137,39 @@
         <v>3</v>
       </c>
       <c r="G60" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H60" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I60" s="2">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="0"/>
-        <v>581</v>
+        <f>SUM(G60:I60)</f>
+        <v>558</v>
       </c>
       <c r="K60" s="2" t="str">
         <f>IF(VLOOKUP(C60,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="6">
         <v>45018</v>
       </c>
       <c r="B61" s="2" t="str">
         <f>VLOOKUP(C61,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C02</v>
+        <v>B02</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="D61" s="3">
         <v>2023</v>
@@ -4924,36 +5181,39 @@
         <v>3</v>
       </c>
       <c r="G61" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H61" s="2">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="I61" s="2">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="0"/>
-        <v>582</v>
+        <f>SUM(G61:I61)</f>
+        <v>573</v>
       </c>
       <c r="K61" s="2" t="str">
         <f>IF(VLOOKUP(C61,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="6">
         <v>45018</v>
       </c>
       <c r="B62" s="2" t="str">
         <f>VLOOKUP(C62,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C04</v>
+        <v>B03</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="D62" s="3">
         <v>2023</v>
@@ -4965,36 +5225,39 @@
         <v>3</v>
       </c>
       <c r="G62" s="2">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="H62" s="2">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="I62" s="2">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="0"/>
-        <v>547</v>
+        <f>SUM(G62:I62)</f>
+        <v>608</v>
       </c>
       <c r="K62" s="2" t="str">
         <f>IF(VLOOKUP(C62,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="6">
         <v>45018</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>VLOOKUP(C63,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I01</v>
+        <v>C01</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D63" s="3">
         <v>2023</v>
@@ -5006,36 +5269,39 @@
         <v>3</v>
       </c>
       <c r="G63" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H63" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I63" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="0"/>
-        <v>603</v>
+        <f>SUM(G63:I63)</f>
+        <v>581</v>
       </c>
       <c r="K63" s="2" t="str">
         <f>IF(VLOOKUP(C63,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="6">
         <v>45018</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>VLOOKUP(C64,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I02</v>
+        <v>C02</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D64" s="3">
         <v>2023</v>
@@ -5047,36 +5313,39 @@
         <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="H64" s="2">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="I64" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="0"/>
-        <v>667</v>
+        <f>SUM(G64:I64)</f>
+        <v>582</v>
       </c>
       <c r="K64" s="2" t="str">
         <f>IF(VLOOKUP(C64,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="6">
         <v>45018</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(C65,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I03</v>
+        <v>C04</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D65" s="3">
         <v>2023</v>
@@ -5088,36 +5357,39 @@
         <v>3</v>
       </c>
       <c r="G65" s="2">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="H65" s="2">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="I65" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="0"/>
-        <v>703</v>
+        <f>SUM(G65:I65)</f>
+        <v>547</v>
       </c>
       <c r="K65" s="2" t="str">
         <f>IF(VLOOKUP(C65,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="6">
         <v>45018</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>VLOOKUP(C66,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A04</v>
+        <v>D02</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D66" s="3">
         <v>2023</v>
@@ -5129,36 +5401,39 @@
         <v>3</v>
       </c>
       <c r="G66" s="2">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="H66" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="I66" s="2">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="0"/>
-        <v>598</v>
+        <f>SUM(G66:I66)</f>
+        <v>496</v>
       </c>
       <c r="K66" s="2" t="str">
         <f>IF(VLOOKUP(C66,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="6">
         <v>45018</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>VLOOKUP(C67,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A01</v>
+        <v>D03</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="D67" s="3">
         <v>2023</v>
@@ -5170,36 +5445,39 @@
         <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H67" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="I67" s="2">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="0"/>
-        <v>643</v>
+        <f>SUM(G67:I67)</f>
+        <v>515</v>
       </c>
       <c r="K67" s="2" t="str">
         <f>IF(VLOOKUP(C67,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="6">
         <v>45018</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>VLOOKUP(C68,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A03</v>
+        <v>D04</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D68" s="3">
         <v>2023</v>
@@ -5214,33 +5492,36 @@
         <v>194</v>
       </c>
       <c r="H68" s="2">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="I68" s="2">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:J131" si="1">SUM(G68:I68)</f>
-        <v>619</v>
+        <f>SUM(G68:I68)</f>
+        <v>512</v>
       </c>
       <c r="K68" s="2" t="str">
         <f>IF(VLOOKUP(C68,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="6">
         <v>45018</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>VLOOKUP(C69,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G01</v>
+        <v>F01</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D69" s="3">
         <v>2023</v>
@@ -5252,36 +5533,39 @@
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="H69" s="2">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="I69" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="1"/>
-        <v>644</v>
+        <f>SUM(G69:I69)</f>
+        <v>559</v>
       </c>
       <c r="K69" s="2" t="str">
         <f>IF(VLOOKUP(C69,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="6">
         <v>45018</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>VLOOKUP(C70,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G02</v>
+        <v>F02</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D70" s="3">
         <v>2023</v>
@@ -5296,33 +5580,36 @@
         <v>206</v>
       </c>
       <c r="H70" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I70" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="1"/>
-        <v>596</v>
+        <f>SUM(G70:I70)</f>
+        <v>592</v>
       </c>
       <c r="K70" s="2" t="str">
         <f>IF(VLOOKUP(C70,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="6">
+        <v>15</v>
+      </c>
+      <c r="L70" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="6">
         <v>45018</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>VLOOKUP(C71,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G03</v>
+        <v>F03</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D71" s="3">
         <v>2023</v>
@@ -5334,36 +5621,39 @@
         <v>3</v>
       </c>
       <c r="G71" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="H71" s="2">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="I71" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="1"/>
-        <v>659</v>
+        <f>SUM(G71:I71)</f>
+        <v>587</v>
       </c>
       <c r="K71" s="2" t="str">
         <f>IF(VLOOKUP(C71,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="6">
         <v>45018</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>VLOOKUP(C72,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J06</v>
+        <v>G01</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D72" s="3">
         <v>2023</v>
@@ -5375,36 +5665,39 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="H72" s="2">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="I72" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="1"/>
-        <v>594</v>
+        <f>SUM(G72:I72)</f>
+        <v>644</v>
       </c>
       <c r="K72" s="2" t="str">
         <f>IF(VLOOKUP(C72,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="6">
         <v>45018</v>
       </c>
       <c r="B73" s="2" t="str">
         <f>VLOOKUP(C73,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J07</v>
+        <v>G02</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D73" s="3">
         <v>2023</v>
@@ -5416,36 +5709,39 @@
         <v>3</v>
       </c>
       <c r="G73" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H73" s="2">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I73" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="1"/>
-        <v>662</v>
+        <f>SUM(G73:I73)</f>
+        <v>596</v>
       </c>
       <c r="K73" s="2" t="str">
         <f>IF(VLOOKUP(C73,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="6">
         <v>45018</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>VLOOKUP(C74,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J03</v>
+        <v>G03</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="D74" s="3">
         <v>2023</v>
@@ -5457,36 +5753,39 @@
         <v>3</v>
       </c>
       <c r="G74" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="H74" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I74" s="2">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="1"/>
-        <v>612</v>
+        <f>SUM(G74:I74)</f>
+        <v>659</v>
       </c>
       <c r="K74" s="2" t="str">
         <f>IF(VLOOKUP(C74,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="6">
         <v>45018</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>VLOOKUP(C75,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B02</v>
+        <v>H03</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D75" s="3">
         <v>2023</v>
@@ -5498,36 +5797,39 @@
         <v>3</v>
       </c>
       <c r="G75" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H75" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="I75" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="1"/>
-        <v>573</v>
+        <f>SUM(G75:I75)</f>
+        <v>620</v>
       </c>
       <c r="K75" s="2" t="str">
         <f>IF(VLOOKUP(C75,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="6">
         <v>45018</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>VLOOKUP(C76,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B01</v>
+        <v>H04</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D76" s="3">
         <v>2023</v>
@@ -5539,36 +5841,39 @@
         <v>3</v>
       </c>
       <c r="G76" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H76" s="2">
+        <v>190</v>
+      </c>
+      <c r="I76" s="2">
         <v>171</v>
       </c>
-      <c r="I76" s="2">
-        <v>195</v>
-      </c>
       <c r="J76" s="2">
-        <f t="shared" si="1"/>
-        <v>558</v>
+        <f>SUM(G76:I76)</f>
+        <v>575</v>
       </c>
       <c r="K76" s="2" t="str">
         <f>IF(VLOOKUP(C76,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="6">
         <v>45018</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>VLOOKUP(C77,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B03</v>
+        <v>H05</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="D77" s="3">
         <v>2023</v>
@@ -5580,36 +5885,39 @@
         <v>3</v>
       </c>
       <c r="G77" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H77" s="2">
+        <v>214</v>
+      </c>
+      <c r="I77" s="2">
         <v>193</v>
       </c>
-      <c r="I77" s="2">
-        <v>195</v>
-      </c>
       <c r="J77" s="2">
-        <f t="shared" si="1"/>
-        <v>608</v>
+        <f>SUM(G77:I77)</f>
+        <v>607</v>
       </c>
       <c r="K77" s="2" t="str">
         <f>IF(VLOOKUP(C77,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="6">
         <v>45018</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>VLOOKUP(C78,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H04</v>
+        <v>I01</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D78" s="3">
         <v>2023</v>
@@ -5621,36 +5929,39 @@
         <v>3</v>
       </c>
       <c r="G78" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="H78" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I78" s="2">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="1"/>
-        <v>575</v>
+        <f>SUM(G78:I78)</f>
+        <v>603</v>
       </c>
       <c r="K78" s="2" t="str">
         <f>IF(VLOOKUP(C78,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="6">
         <v>45018</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>VLOOKUP(C79,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H05</v>
+        <v>I02</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D79" s="3">
         <v>2023</v>
@@ -5662,36 +5973,39 @@
         <v>3</v>
       </c>
       <c r="G79" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H79" s="2">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="I79" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="1"/>
-        <v>607</v>
+        <f>SUM(G79:I79)</f>
+        <v>667</v>
       </c>
       <c r="K79" s="2" t="str">
         <f>IF(VLOOKUP(C79,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
+        <v>15</v>
+      </c>
+      <c r="L79" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="6">
         <v>45018</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>VLOOKUP(C80,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H03</v>
+        <v>I03</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D80" s="3">
         <v>2023</v>
@@ -5703,36 +6017,39 @@
         <v>3</v>
       </c>
       <c r="G80" s="2">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="H80" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="I80" s="2">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="1"/>
-        <v>620</v>
+        <f>SUM(G80:I80)</f>
+        <v>703</v>
       </c>
       <c r="K80" s="2" t="str">
         <f>IF(VLOOKUP(C80,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="6">
         <v>45018</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>VLOOKUP(C81,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F01</v>
+        <v>J03</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D81" s="3">
         <v>2023</v>
@@ -5744,36 +6061,39 @@
         <v>3</v>
       </c>
       <c r="G81" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H81" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="I81" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="1"/>
-        <v>559</v>
+        <f>SUM(G81:I81)</f>
+        <v>612</v>
       </c>
       <c r="K81" s="2" t="str">
         <f>IF(VLOOKUP(C81,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="6">
         <v>45018</v>
       </c>
       <c r="B82" s="2" t="str">
         <f>VLOOKUP(C82,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F02</v>
+        <v>J06</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D82" s="3">
         <v>2023</v>
@@ -5785,36 +6105,39 @@
         <v>3</v>
       </c>
       <c r="G82" s="2">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="H82" s="2">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="I82" s="2">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="1"/>
-        <v>592</v>
+        <f>SUM(G82:I82)</f>
+        <v>594</v>
       </c>
       <c r="K82" s="2" t="str">
         <f>IF(VLOOKUP(C82,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="6">
         <v>45018</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>VLOOKUP(C83,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F03</v>
+        <v>J07</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D83" s="3">
         <v>2023</v>
@@ -5826,36 +6149,39 @@
         <v>3</v>
       </c>
       <c r="G83" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H83" s="2">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="I83" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="1"/>
-        <v>587</v>
+        <f>SUM(G83:I83)</f>
+        <v>662</v>
       </c>
       <c r="K83" s="2" t="str">
         <f>IF(VLOOKUP(C83,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="6">
+        <v>15</v>
+      </c>
+      <c r="L83" s="21">
         <v>45018</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="6">
         <v>45025</v>
       </c>
       <c r="B84" s="2" t="str">
         <f>VLOOKUP(C84,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I01</v>
+        <v>A01</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D84" s="3">
         <v>2023</v>
@@ -5867,36 +6193,39 @@
         <v>4</v>
       </c>
       <c r="G84" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H84" s="2">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="I84" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="1"/>
-        <v>674</v>
+        <f>SUM(G84:I84)</f>
+        <v>608</v>
       </c>
       <c r="K84" s="2" t="str">
         <f>IF(VLOOKUP(C84,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L84" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="6">
         <v>45025</v>
       </c>
       <c r="B85" s="2" t="str">
         <f>VLOOKUP(C85,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I02</v>
+        <v>A02</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D85" s="3">
         <v>2023</v>
@@ -5908,36 +6237,39 @@
         <v>4</v>
       </c>
       <c r="G85" s="2">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="H85" s="2">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="I85" s="2">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="1"/>
-        <v>769</v>
+        <f>SUM(G85:I85)</f>
+        <v>503</v>
       </c>
       <c r="K85" s="2" t="str">
         <f>IF(VLOOKUP(C85,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L85" s="6">
+        <v>0</v>
+      </c>
+      <c r="L85" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="6">
         <v>45025</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>VLOOKUP(C86,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I03</v>
+        <v>A04</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="D86" s="3">
         <v>2023</v>
@@ -5949,36 +6281,39 @@
         <v>4</v>
       </c>
       <c r="G86" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="H86" s="2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="I86" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="1"/>
-        <v>596</v>
+        <f>SUM(G86:I86)</f>
+        <v>615</v>
       </c>
       <c r="K86" s="2" t="str">
         <f>IF(VLOOKUP(C86,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
+        <v>15</v>
+      </c>
+      <c r="L86" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="6">
         <v>45025</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>VLOOKUP(C87,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G02</v>
+        <v>B01</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D87" s="3">
         <v>2023</v>
@@ -5990,36 +6325,39 @@
         <v>4</v>
       </c>
       <c r="G87" s="2">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="H87" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="I87" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="1"/>
-        <v>546</v>
+        <f>SUM(G87:I87)</f>
+        <v>567</v>
       </c>
       <c r="K87" s="2" t="str">
         <f>IF(VLOOKUP(C87,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L87" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="6">
         <v>45025</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>VLOOKUP(C88,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G06</v>
+        <v>B02</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D88" s="3">
         <v>2023</v>
@@ -6031,36 +6369,39 @@
         <v>4</v>
       </c>
       <c r="G88" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H88" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I88" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="1"/>
-        <v>550</v>
+        <f>SUM(G88:I88)</f>
+        <v>586</v>
       </c>
       <c r="K88" s="2" t="str">
         <f>IF(VLOOKUP(C88,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L88" s="6">
+        <v>15</v>
+      </c>
+      <c r="L88" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="6">
         <v>45025</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>VLOOKUP(C89,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G03</v>
+        <v>B03</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="D89" s="3">
         <v>2023</v>
@@ -6072,27 +6413,30 @@
         <v>4</v>
       </c>
       <c r="G89" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H89" s="2">
+        <v>228</v>
+      </c>
+      <c r="I89" s="2">
         <v>235</v>
       </c>
-      <c r="I89" s="2">
-        <v>217</v>
-      </c>
       <c r="J89" s="2">
-        <f t="shared" si="1"/>
-        <v>677</v>
+        <f>SUM(G89:I89)</f>
+        <v>698</v>
       </c>
       <c r="K89" s="2" t="str">
         <f>IF(VLOOKUP(C89,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="6">
         <v>45025</v>
       </c>
@@ -6101,7 +6445,7 @@
         <v>C01</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" s="3">
         <v>2023</v>
@@ -6122,18 +6466,21 @@
         <v>188</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(G90:I90)</f>
         <v>611</v>
       </c>
       <c r="K90" s="2" t="str">
         <f>IF(VLOOKUP(C90,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L90" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="6">
         <v>45025</v>
       </c>
@@ -6163,18 +6510,21 @@
         <v>213</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(G91:I91)</f>
         <v>634</v>
       </c>
       <c r="K91" s="2" t="str">
         <f>IF(VLOOKUP(C91,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L91" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="6">
         <v>45025</v>
       </c>
@@ -6204,27 +6554,30 @@
         <v>223</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(G92:I92)</f>
         <v>666</v>
       </c>
       <c r="K92" s="2" t="str">
         <f>IF(VLOOKUP(C92,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L92" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="6">
         <v>45025</v>
       </c>
       <c r="B93" s="2" t="str">
         <f>VLOOKUP(C93,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J08</v>
+        <v>D01</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D93" s="3">
         <v>2023</v>
@@ -6236,36 +6589,39 @@
         <v>4</v>
       </c>
       <c r="G93" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H93" s="2">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="I93" s="2">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="1"/>
-        <v>619</v>
+        <f>SUM(G93:I93)</f>
+        <v>496</v>
       </c>
       <c r="K93" s="2" t="str">
         <f>IF(VLOOKUP(C93,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="6">
         <v>45025</v>
       </c>
       <c r="B94" s="2" t="str">
         <f>VLOOKUP(C94,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J06</v>
+        <v>D02</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D94" s="3">
         <v>2023</v>
@@ -6277,36 +6633,39 @@
         <v>4</v>
       </c>
       <c r="G94" s="2">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="H94" s="2">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="I94" s="2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="1"/>
-        <v>612</v>
+        <f>SUM(G94:I94)</f>
+        <v>572</v>
       </c>
       <c r="K94" s="2" t="str">
         <f>IF(VLOOKUP(C94,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L94" s="6">
+      <c r="L94" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="6">
         <v>45025</v>
       </c>
       <c r="B95" s="2" t="str">
         <f>VLOOKUP(C95,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J01</v>
+        <v>D04</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D95" s="3">
         <v>2023</v>
@@ -6318,36 +6677,39 @@
         <v>4</v>
       </c>
       <c r="G95" s="2">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="H95" s="2">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="I95" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="1"/>
-        <v>508</v>
+        <f>SUM(G95:I95)</f>
+        <v>540</v>
       </c>
       <c r="K95" s="2" t="str">
         <f>IF(VLOOKUP(C95,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="6">
         <v>45025</v>
       </c>
       <c r="B96" s="2" t="str">
         <f>VLOOKUP(C96,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D01</v>
+        <v>F01</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D96" s="3">
         <v>2023</v>
@@ -6359,36 +6721,39 @@
         <v>4</v>
       </c>
       <c r="G96" s="2">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H96" s="2">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="I96" s="2">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="1"/>
-        <v>496</v>
+        <f>SUM(G96:I96)</f>
+        <v>567</v>
       </c>
       <c r="K96" s="2" t="str">
         <f>IF(VLOOKUP(C96,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L96" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="6">
         <v>45025</v>
       </c>
       <c r="B97" s="2" t="str">
         <f>VLOOKUP(C97,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D02</v>
+        <v>F02</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D97" s="3">
         <v>2023</v>
@@ -6400,36 +6765,39 @@
         <v>4</v>
       </c>
       <c r="G97" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="H97" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I97" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="1"/>
-        <v>572</v>
+        <f>SUM(G97:I97)</f>
+        <v>511</v>
       </c>
       <c r="K97" s="2" t="str">
         <f>IF(VLOOKUP(C97,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
+        <v>15</v>
+      </c>
+      <c r="L97" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="6">
         <v>45025</v>
       </c>
       <c r="B98" s="2" t="str">
         <f>VLOOKUP(C98,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D04</v>
+        <v>F03</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D98" s="3">
         <v>2023</v>
@@ -6441,36 +6809,39 @@
         <v>4</v>
       </c>
       <c r="G98" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="H98" s="2">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="I98" s="2">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="1"/>
-        <v>540</v>
+        <f>SUM(G98:I98)</f>
+        <v>664</v>
       </c>
       <c r="K98" s="2" t="str">
         <f>IF(VLOOKUP(C98,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L98" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="6">
         <v>45025</v>
       </c>
       <c r="B99" s="2" t="str">
         <f>VLOOKUP(C99,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F01</v>
+        <v>G02</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="D99" s="3">
         <v>2023</v>
@@ -6482,36 +6853,39 @@
         <v>4</v>
       </c>
       <c r="G99" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="H99" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="I99" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="1"/>
-        <v>567</v>
+        <f>SUM(G99:I99)</f>
+        <v>546</v>
       </c>
       <c r="K99" s="2" t="str">
         <f>IF(VLOOKUP(C99,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L99" s="6">
+      <c r="L99" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="6">
         <v>45025</v>
       </c>
       <c r="B100" s="2" t="str">
         <f>VLOOKUP(C100,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F02</v>
+        <v>G03</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="D100" s="3">
         <v>2023</v>
@@ -6523,36 +6897,39 @@
         <v>4</v>
       </c>
       <c r="G100" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H100" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="I100" s="2">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="1"/>
-        <v>511</v>
+        <f>SUM(G100:I100)</f>
+        <v>677</v>
       </c>
       <c r="K100" s="2" t="str">
         <f>IF(VLOOKUP(C100,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L100" s="6">
+        <v>0</v>
+      </c>
+      <c r="L100" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="6">
         <v>45025</v>
       </c>
       <c r="B101" s="2" t="str">
         <f>VLOOKUP(C101,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F03</v>
+        <v>G06</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D101" s="3">
         <v>2023</v>
@@ -6564,36 +6941,39 @@
         <v>4</v>
       </c>
       <c r="G101" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H101" s="2">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="I101" s="2">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="1"/>
-        <v>664</v>
+        <f>SUM(G101:I101)</f>
+        <v>550</v>
       </c>
       <c r="K101" s="2" t="str">
         <f>IF(VLOOKUP(C101,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="6">
         <v>45025</v>
       </c>
       <c r="B102" s="2" t="str">
         <f>VLOOKUP(C102,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H04</v>
+        <v>H02</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D102" s="3">
         <v>2023</v>
@@ -6605,36 +6985,39 @@
         <v>4</v>
       </c>
       <c r="G102" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H102" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="I102" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="1"/>
-        <v>626</v>
+        <f>SUM(G102:I102)</f>
+        <v>604</v>
       </c>
       <c r="K102" s="2" t="str">
         <f>IF(VLOOKUP(C102,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="6">
         <v>45025</v>
       </c>
       <c r="B103" s="2" t="str">
         <f>VLOOKUP(C103,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H02</v>
+        <v>H03</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D103" s="3">
         <v>2023</v>
@@ -6646,36 +7029,39 @@
         <v>4</v>
       </c>
       <c r="G103" s="2">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="H103" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I103" s="2">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="1"/>
-        <v>604</v>
+        <f>SUM(G103:I103)</f>
+        <v>592</v>
       </c>
       <c r="K103" s="2" t="str">
         <f>IF(VLOOKUP(C103,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L103" s="6">
+      <c r="L103" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="6">
         <v>45025</v>
       </c>
       <c r="B104" s="2" t="str">
         <f>VLOOKUP(C104,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H03</v>
+        <v>H04</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D104" s="3">
         <v>2023</v>
@@ -6687,36 +7073,39 @@
         <v>4</v>
       </c>
       <c r="G104" s="2">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="H104" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="I104" s="2">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="1"/>
-        <v>592</v>
+        <f>SUM(G104:I104)</f>
+        <v>626</v>
       </c>
       <c r="K104" s="2" t="str">
         <f>IF(VLOOKUP(C104,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L104" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="6">
         <v>45025</v>
       </c>
       <c r="B105" s="2" t="str">
         <f>VLOOKUP(C105,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A04</v>
+        <v>I01</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="D105" s="3">
         <v>2023</v>
@@ -6728,36 +7117,39 @@
         <v>4</v>
       </c>
       <c r="G105" s="2">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="H105" s="2">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="I105" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="1"/>
-        <v>615</v>
+        <f>SUM(G105:I105)</f>
+        <v>674</v>
       </c>
       <c r="K105" s="2" t="str">
         <f>IF(VLOOKUP(C105,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L105" s="6">
+        <v>0</v>
+      </c>
+      <c r="L105" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="6">
         <v>45025</v>
       </c>
       <c r="B106" s="2" t="str">
         <f>VLOOKUP(C106,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A01</v>
+        <v>I02</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D106" s="3">
         <v>2023</v>
@@ -6769,36 +7161,39 @@
         <v>4</v>
       </c>
       <c r="G106" s="2">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="H106" s="2">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="I106" s="2">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="1"/>
-        <v>608</v>
+        <f>SUM(G106:I106)</f>
+        <v>769</v>
       </c>
       <c r="K106" s="2" t="str">
         <f>IF(VLOOKUP(C106,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L106" s="6">
+        <v>15</v>
+      </c>
+      <c r="L106" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="6">
         <v>45025</v>
       </c>
       <c r="B107" s="2" t="str">
         <f>VLOOKUP(C107,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A02</v>
+        <v>I03</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D107" s="3">
         <v>2023</v>
@@ -6810,36 +7205,39 @@
         <v>4</v>
       </c>
       <c r="G107" s="2">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="H107" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I107" s="2">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="1"/>
-        <v>503</v>
+        <f>SUM(G107:I107)</f>
+        <v>596</v>
       </c>
       <c r="K107" s="2" t="str">
         <f>IF(VLOOKUP(C107,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L107" s="6">
+      <c r="L107" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="6">
         <v>45025</v>
       </c>
       <c r="B108" s="2" t="str">
         <f>VLOOKUP(C108,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B02</v>
+        <v>J01</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D108" s="3">
         <v>2023</v>
@@ -6851,36 +7249,39 @@
         <v>4</v>
       </c>
       <c r="G108" s="2">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="H108" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="I108" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="1"/>
-        <v>586</v>
+        <f>SUM(G108:I108)</f>
+        <v>508</v>
       </c>
       <c r="K108" s="2" t="str">
         <f>IF(VLOOKUP(C108,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L108" s="6">
+        <v>0</v>
+      </c>
+      <c r="L108" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="6">
         <v>45025</v>
       </c>
       <c r="B109" s="2" t="str">
         <f>VLOOKUP(C109,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B01</v>
+        <v>J06</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D109" s="3">
         <v>2023</v>
@@ -6892,36 +7293,39 @@
         <v>4</v>
       </c>
       <c r="G109" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="H109" s="2">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I109" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="1"/>
-        <v>567</v>
+        <f>SUM(G109:I109)</f>
+        <v>612</v>
       </c>
       <c r="K109" s="2" t="str">
         <f>IF(VLOOKUP(C109,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L109" s="6">
+      <c r="L109" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="6">
         <v>45025</v>
       </c>
       <c r="B110" s="2" t="str">
         <f>VLOOKUP(C110,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B03</v>
+        <v>J08</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D110" s="3">
         <v>2023</v>
@@ -6933,36 +7337,39 @@
         <v>4</v>
       </c>
       <c r="G110" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H110" s="2">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="I110" s="2">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="1"/>
-        <v>698</v>
+        <f>SUM(G110:I110)</f>
+        <v>619</v>
       </c>
       <c r="K110" s="2" t="str">
         <f>IF(VLOOKUP(C110,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="6">
+        <v>15</v>
+      </c>
+      <c r="L110" s="21">
         <v>45025</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="6">
         <v>45032</v>
       </c>
       <c r="B111" s="2" t="str">
         <f>VLOOKUP(C111,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A02</v>
+        <v>A01</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="D111" s="3">
         <v>2023</v>
@@ -6974,36 +7381,39 @@
         <v>5</v>
       </c>
       <c r="G111" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H111" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="I111" s="2">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="1"/>
-        <v>498</v>
+        <f>SUM(G111:I111)</f>
+        <v>604</v>
       </c>
       <c r="K111" s="2" t="str">
         <f>IF(VLOOKUP(C111,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L111" s="6">
+      <c r="L111" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="6">
         <v>45032</v>
       </c>
       <c r="B112" s="2" t="str">
         <f>VLOOKUP(C112,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>A01</v>
+        <v>A02</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="D112" s="3">
         <v>2023</v>
@@ -7015,27 +7425,30 @@
         <v>5</v>
       </c>
       <c r="G112" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H112" s="2">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="I112" s="2">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="1"/>
-        <v>604</v>
+        <f>SUM(G112:I112)</f>
+        <v>498</v>
       </c>
       <c r="K112" s="2" t="str">
         <f>IF(VLOOKUP(C112,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L112" s="6">
+      <c r="L112" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="6">
         <v>45032</v>
       </c>
@@ -7044,7 +7457,7 @@
         <v>A03</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D113" s="3">
         <v>2023</v>
@@ -7065,27 +7478,30 @@
         <v>287</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="1"/>
+        <f>SUM(G113:I113)</f>
         <v>778</v>
       </c>
       <c r="K113" s="2" t="str">
         <f>IF(VLOOKUP(C113,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L113" s="6">
+      <c r="L113" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="6">
         <v>45032</v>
       </c>
       <c r="B114" s="2" t="str">
         <f>VLOOKUP(C114,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F01</v>
+        <v>B01</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D114" s="3">
         <v>2023</v>
@@ -7097,36 +7513,39 @@
         <v>5</v>
       </c>
       <c r="G114" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="H114" s="2">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I114" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="1"/>
-        <v>622</v>
+        <f>SUM(G114:I114)</f>
+        <v>668</v>
       </c>
       <c r="K114" s="2" t="str">
         <f>IF(VLOOKUP(C114,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L114" s="6">
+      <c r="L114" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="6">
         <v>45032</v>
       </c>
       <c r="B115" s="2" t="str">
         <f>VLOOKUP(C115,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F02</v>
+        <v>B02</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D115" s="3">
         <v>2023</v>
@@ -7138,36 +7557,39 @@
         <v>5</v>
       </c>
       <c r="G115" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H115" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I115" s="2">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <f>SUM(G115:I115)</f>
+        <v>570</v>
       </c>
       <c r="K115" s="2" t="str">
         <f>IF(VLOOKUP(C115,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L115" s="6">
+      <c r="L115" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" s="8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="6">
         <v>45032</v>
       </c>
       <c r="B116" s="2" t="str">
         <f>VLOOKUP(C116,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>F03</v>
+        <v>B03</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D116" s="3">
         <v>2023</v>
@@ -7179,36 +7601,39 @@
         <v>5</v>
       </c>
       <c r="G116" s="2">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="H116" s="2">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="I116" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="1"/>
-        <v>707</v>
+        <f>SUM(G116:I116)</f>
+        <v>610</v>
       </c>
       <c r="K116" s="2" t="str">
         <f>IF(VLOOKUP(C116,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L116" s="6">
+      <c r="L116" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116" s="8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="6">
         <v>45032</v>
       </c>
       <c r="B117" s="2" t="str">
         <f>VLOOKUP(C117,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H01</v>
+        <v>C01</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D117" s="3">
         <v>2023</v>
@@ -7220,36 +7645,39 @@
         <v>5</v>
       </c>
       <c r="G117" s="2">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="H117" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I117" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="1"/>
-        <v>525</v>
+        <f>SUM(G117:I117)</f>
+        <v>612</v>
       </c>
       <c r="K117" s="2" t="str">
         <f>IF(VLOOKUP(C117,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L117" s="6">
+      <c r="L117" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="6">
         <v>45032</v>
       </c>
       <c r="B118" s="2" t="str">
         <f>VLOOKUP(C118,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H02</v>
+        <v>C04</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D118" s="3">
         <v>2023</v>
@@ -7261,36 +7689,39 @@
         <v>5</v>
       </c>
       <c r="G118" s="2">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="H118" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I118" s="2">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="1"/>
-        <v>640</v>
+        <f>SUM(G118:I118)</f>
+        <v>514</v>
       </c>
       <c r="K118" s="2" t="str">
         <f>IF(VLOOKUP(C118,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L118" s="6">
+      <c r="L118" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="6">
         <v>45032</v>
       </c>
       <c r="B119" s="2" t="str">
         <f>VLOOKUP(C119,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>H03</v>
+        <v>C05</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D119" s="3">
         <v>2023</v>
@@ -7302,36 +7733,39 @@
         <v>5</v>
       </c>
       <c r="G119" s="2">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="H119" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I119" s="2">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="1"/>
-        <v>618</v>
+        <f>SUM(G119:I119)</f>
+        <v>579</v>
       </c>
       <c r="K119" s="2" t="str">
         <f>IF(VLOOKUP(C119,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L119" s="6">
+      <c r="L119" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="6">
         <v>45032</v>
       </c>
       <c r="B120" s="2" t="str">
         <f>VLOOKUP(C120,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B02</v>
+        <v>D02</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="D120" s="3">
         <v>2023</v>
@@ -7343,36 +7777,39 @@
         <v>5</v>
       </c>
       <c r="G120" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H120" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I120" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="1"/>
-        <v>570</v>
+        <f>SUM(G120:I120)</f>
+        <v>593</v>
       </c>
       <c r="K120" s="2" t="str">
         <f>IF(VLOOKUP(C120,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L120" s="6">
+        <v>0</v>
+      </c>
+      <c r="L120" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="6">
         <v>45032</v>
       </c>
       <c r="B121" s="2" t="str">
         <f>VLOOKUP(C121,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B01</v>
+        <v>D03</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D121" s="3">
         <v>2023</v>
@@ -7384,36 +7821,39 @@
         <v>5</v>
       </c>
       <c r="G121" s="2">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H121" s="2">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="I121" s="2">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="1"/>
-        <v>668</v>
+        <f>SUM(G121:I121)</f>
+        <v>491</v>
       </c>
       <c r="K121" s="2" t="str">
         <f>IF(VLOOKUP(C121,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L121" s="6">
+      <c r="L121" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="6">
         <v>45032</v>
       </c>
       <c r="B122" s="2" t="str">
         <f>VLOOKUP(C122,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>B03</v>
+        <v>D05</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D122" s="3">
         <v>2023</v>
@@ -7425,36 +7865,39 @@
         <v>5</v>
       </c>
       <c r="G122" s="2">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="H122" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="I122" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="1"/>
-        <v>610</v>
+        <f>SUM(G122:I122)</f>
+        <v>546</v>
       </c>
       <c r="K122" s="2" t="str">
         <f>IF(VLOOKUP(C122,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L122" s="6">
+      <c r="L122" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="6">
         <v>45032</v>
       </c>
       <c r="B123" s="2" t="str">
         <f>VLOOKUP(C123,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J04</v>
+        <v>F01</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D123" s="3">
         <v>2023</v>
@@ -7466,36 +7909,39 @@
         <v>5</v>
       </c>
       <c r="G123" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="H123" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="I123" s="2">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="1"/>
-        <v>610</v>
+        <f>SUM(G123:I123)</f>
+        <v>622</v>
       </c>
       <c r="K123" s="2" t="str">
         <f>IF(VLOOKUP(C123,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L123" s="6">
+      <c r="L123" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="6">
         <v>45032</v>
       </c>
       <c r="B124" s="2" t="str">
         <f>VLOOKUP(C124,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J02</v>
+        <v>F02</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D124" s="3">
         <v>2023</v>
@@ -7507,36 +7953,39 @@
         <v>5</v>
       </c>
       <c r="G124" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H124" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I124" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="1"/>
-        <v>534</v>
+        <f>SUM(G124:I124)</f>
+        <v>600</v>
       </c>
       <c r="K124" s="2" t="str">
         <f>IF(VLOOKUP(C124,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L124" s="6">
+      <c r="L124" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="6">
         <v>45032</v>
       </c>
       <c r="B125" s="2" t="str">
         <f>VLOOKUP(C125,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>J07</v>
+        <v>F03</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="D125" s="3">
         <v>2023</v>
@@ -7548,36 +7997,39 @@
         <v>5</v>
       </c>
       <c r="G125" s="2">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="H125" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="I125" s="2">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="1"/>
-        <v>637</v>
+        <f>SUM(G125:I125)</f>
+        <v>707</v>
       </c>
       <c r="K125" s="2" t="str">
         <f>IF(VLOOKUP(C125,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L125" s="6">
+        <v>0</v>
+      </c>
+      <c r="L125" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="6">
         <v>45032</v>
       </c>
       <c r="B126" s="2" t="str">
         <f>VLOOKUP(C126,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D02</v>
+        <v>G01</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D126" s="3">
         <v>2023</v>
@@ -7589,36 +8041,39 @@
         <v>5</v>
       </c>
       <c r="G126" s="2">
+        <v>204</v>
+      </c>
+      <c r="H126" s="2">
         <v>193</v>
       </c>
-      <c r="H126" s="2">
-        <v>230</v>
-      </c>
       <c r="I126" s="2">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="1"/>
-        <v>593</v>
+        <f>SUM(G126:I126)</f>
+        <v>632</v>
       </c>
       <c r="K126" s="2" t="str">
         <f>IF(VLOOKUP(C126,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L126" s="6">
+      <c r="L126" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="6">
         <v>45032</v>
       </c>
       <c r="B127" s="2" t="str">
         <f>VLOOKUP(C127,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D05</v>
+        <v>G03</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D127" s="3">
         <v>2023</v>
@@ -7630,36 +8085,39 @@
         <v>5</v>
       </c>
       <c r="G127" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H127" s="2">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="I127" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="1"/>
-        <v>546</v>
+        <f>SUM(G127:I127)</f>
+        <v>605</v>
       </c>
       <c r="K127" s="2" t="str">
         <f>IF(VLOOKUP(C127,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L127" s="6">
+      <c r="L127" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="6">
         <v>45032</v>
       </c>
       <c r="B128" s="2" t="str">
         <f>VLOOKUP(C128,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>D03</v>
+        <v>G07</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D128" s="3">
         <v>2023</v>
@@ -7671,36 +8129,39 @@
         <v>5</v>
       </c>
       <c r="G128" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H128" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="I128" s="2">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="1"/>
-        <v>491</v>
+        <f>SUM(G128:I128)</f>
+        <v>620</v>
       </c>
       <c r="K128" s="2" t="str">
         <f>IF(VLOOKUP(C128,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L128" s="6">
+      <c r="L128" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="6">
         <v>45032</v>
       </c>
       <c r="B129" s="2" t="str">
         <f>VLOOKUP(C129,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G03</v>
+        <v>H01</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D129" s="3">
         <v>2023</v>
@@ -7712,36 +8173,39 @@
         <v>5</v>
       </c>
       <c r="G129" s="2">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H129" s="2">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="I129" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="1"/>
-        <v>605</v>
+        <f>SUM(G129:I129)</f>
+        <v>525</v>
       </c>
       <c r="K129" s="2" t="str">
         <f>IF(VLOOKUP(C129,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L129" s="6">
+      <c r="L129" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" s="8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="6">
         <v>45032</v>
       </c>
       <c r="B130" s="2" t="str">
         <f>VLOOKUP(C130,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G01</v>
+        <v>H02</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D130" s="3">
         <v>2023</v>
@@ -7753,36 +8217,39 @@
         <v>5</v>
       </c>
       <c r="G130" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="H130" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="I130" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="1"/>
-        <v>632</v>
+        <f>SUM(G130:I130)</f>
+        <v>640</v>
       </c>
       <c r="K130" s="2" t="str">
         <f>IF(VLOOKUP(C130,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L130" s="6">
+      <c r="L130" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="6">
         <v>45032</v>
       </c>
       <c r="B131" s="2" t="str">
         <f>VLOOKUP(C131,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>G07</v>
+        <v>H03</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D131" s="3">
         <v>2023</v>
@@ -7794,36 +8261,39 @@
         <v>5</v>
       </c>
       <c r="G131" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H131" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I131" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" si="1"/>
-        <v>620</v>
+        <f>SUM(G131:I131)</f>
+        <v>618</v>
       </c>
       <c r="K131" s="2" t="str">
         <f>IF(VLOOKUP(C131,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L131" s="6">
+      <c r="L131" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="6">
         <v>45032</v>
       </c>
       <c r="B132" s="2" t="str">
         <f>VLOOKUP(C132,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C01</v>
+        <v>I01</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D132" s="3">
         <v>2023</v>
@@ -7835,36 +8305,39 @@
         <v>5</v>
       </c>
       <c r="G132" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H132" s="2">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="I132" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" ref="J132:J137" si="2">SUM(G132:I132)</f>
-        <v>612</v>
+        <f>SUM(G132:I132)</f>
+        <v>610</v>
       </c>
       <c r="K132" s="2" t="str">
         <f>IF(VLOOKUP(C132,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L132" s="6">
+      <c r="L132" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="6">
         <v>45032</v>
       </c>
       <c r="B133" s="2" t="str">
         <f>VLOOKUP(C133,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C05</v>
+        <v>I02</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D133" s="3">
         <v>2023</v>
@@ -7876,36 +8349,39 @@
         <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="H133" s="2">
+        <v>221</v>
+      </c>
+      <c r="I133" s="2">
         <v>178</v>
       </c>
-      <c r="I133" s="2">
-        <v>169</v>
-      </c>
       <c r="J133" s="2">
-        <f t="shared" si="2"/>
-        <v>579</v>
+        <f>SUM(G133:I133)</f>
+        <v>614</v>
       </c>
       <c r="K133" s="2" t="str">
         <f>IF(VLOOKUP(C133,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L133" s="6">
+        <v>15</v>
+      </c>
+      <c r="L133" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" s="8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="6">
         <v>45032</v>
       </c>
       <c r="B134" s="2" t="str">
         <f>VLOOKUP(C134,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>C04</v>
+        <v>I03</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D134" s="3">
         <v>2023</v>
@@ -7917,36 +8393,39 @@
         <v>5</v>
       </c>
       <c r="G134" s="2">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="H134" s="2">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="I134" s="2">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="2"/>
-        <v>514</v>
+        <f>SUM(G134:I134)</f>
+        <v>660</v>
       </c>
       <c r="K134" s="2" t="str">
         <f>IF(VLOOKUP(C134,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L134" s="6">
+      <c r="L134" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="6">
         <v>45032</v>
       </c>
       <c r="B135" s="2" t="str">
         <f>VLOOKUP(C135,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I01</v>
+        <v>J02</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D135" s="3">
         <v>2023</v>
@@ -7958,36 +8437,39 @@
         <v>5</v>
       </c>
       <c r="G135" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H135" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="I135" s="2">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="2"/>
-        <v>610</v>
+        <f>SUM(G135:I135)</f>
+        <v>534</v>
       </c>
       <c r="K135" s="2" t="str">
         <f>IF(VLOOKUP(C135,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L135" s="6">
+        <v>15</v>
+      </c>
+      <c r="L135" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135" s="8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="6">
         <v>45032</v>
       </c>
       <c r="B136" s="2" t="str">
         <f>VLOOKUP(C136,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I02</v>
+        <v>J04</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D136" s="3">
         <v>2023</v>
@@ -7999,36 +8481,39 @@
         <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="H136" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="I136" s="2">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="2"/>
-        <v>614</v>
+        <f>SUM(G136:I136)</f>
+        <v>610</v>
       </c>
       <c r="K136" s="2" t="str">
         <f>IF(VLOOKUP(C136,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>15</v>
-      </c>
-      <c r="L136" s="6">
+        <v>0</v>
+      </c>
+      <c r="L136" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="6">
         <v>45032</v>
       </c>
       <c r="B137" s="2" t="str">
         <f>VLOOKUP(C137,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
-        <v>I03</v>
+        <v>J07</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D137" s="3">
         <v>2023</v>
@@ -8040,51 +8525,54 @@
         <v>5</v>
       </c>
       <c r="G137" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H137" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I137" s="2">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="2"/>
-        <v>660</v>
+        <f>SUM(G137:I137)</f>
+        <v>637</v>
       </c>
       <c r="K137" s="2" t="str">
         <f>IF(VLOOKUP(C137,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
-        <v>0</v>
-      </c>
-      <c r="L137" s="6">
+        <v>15</v>
+      </c>
+      <c r="L137" s="21">
         <v>45032</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="5"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:13">
       <c r="A139" s="5"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:13">
       <c r="A140" s="5"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:13">
       <c r="A141" s="5"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:13">
       <c r="A142" s="5"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:13">
       <c r="A143" s="5"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:13">
       <c r="A144" s="5"/>
       <c r="L144" s="5"/>
     </row>
@@ -8265,8 +8753,27 @@
       <c r="L188" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L137"/>
+  <autoFilter ref="A2:L137">
+    <sortState ref="A3:L137">
+      <sortCondition ref="A2:A137"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G3:I137">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J137">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>5999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8286,7 +8793,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>22</v>
@@ -9058,13 +9565,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>63</v>
@@ -9161,7 +9668,7 @@
         <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>109</v>

--- a/2023_트윈스_상주리그정리.xlsx
+++ b/2023_트윈스_상주리그정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="345" windowWidth="20175" windowHeight="11550" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="345" windowWidth="20175" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="상주리그_개인전종합" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="161">
   <si>
     <t>userTeamName</t>
   </si>
@@ -581,6 +581,10 @@
   </si>
   <si>
     <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이한영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="General&quot;위&quot;"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="General&quot;위&quot;"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -689,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,49 +709,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,7 +761,35 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1109,82 +1138,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="14"/>
-    <col min="6" max="6" width="9" style="16"/>
-    <col min="7" max="7" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="11.125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <f>RANK(F3,$F$3:$F$100,0)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <f>VLOOKUP(C3,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>106</v>
+        <v>락</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(VLOOKUP(C3,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C3,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>698</v>
-      </c>
-      <c r="F3" s="15">
+        <v>1961</v>
+      </c>
+      <c r="F3" s="14">
         <f>AVERAGE(E3/G3)</f>
-        <v>232.66666666666666</v>
-      </c>
-      <c r="G3" s="8">
+        <v>217.88888888888889</v>
+      </c>
+      <c r="G3" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C3) * 3</f>
-        <v>3</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <f>RANK(F4,$F$3:$F$100,0)</f>
         <v>2</v>
       </c>
@@ -1199,356 +1228,356 @@
         <f>IF(VLOOKUP(C4,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>여</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C4,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3355</v>
-      </c>
-      <c r="F4" s="15">
+        <v>3913</v>
+      </c>
+      <c r="F4" s="14">
         <f>AVERAGE(E4/G4)</f>
-        <v>223.66666666666666</v>
-      </c>
-      <c r="G4" s="8">
+        <v>217.38888888888889</v>
+      </c>
+      <c r="G4" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C4) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <f>RANK(F5,$F$3:$F$100,0)</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP(C5,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>트윈스</v>
+        <v>포인트</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IF(VLOOKUP(C5,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C5,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3288</v>
-      </c>
-      <c r="F5" s="15">
+        <v>3909</v>
+      </c>
+      <c r="F5" s="14">
         <f>AVERAGE(E5/G5)</f>
-        <v>219.2</v>
-      </c>
-      <c r="G5" s="8">
+        <v>217.16666666666666</v>
+      </c>
+      <c r="G5" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C5) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <f>RANK(F6,$F$3:$F$100,0)</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP(C6,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>볼칠래</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(VLOOKUP(C6,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
-      </c>
-      <c r="E6" s="13">
+        <v>여</v>
+      </c>
+      <c r="E6" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C6,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1961</v>
-      </c>
-      <c r="F6" s="15">
+        <v>1299</v>
+      </c>
+      <c r="F6" s="14">
         <f>AVERAGE(E6/G6)</f>
-        <v>217.88888888888889</v>
-      </c>
-      <c r="G6" s="8">
+        <v>216.5</v>
+      </c>
+      <c r="G6" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C6) * 3</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <f>RANK(F7,$F$3:$F$100,0)</f>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP(C7,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>포인트</v>
+        <v>트윈스</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IF(VLOOKUP(C7,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C7,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3268</v>
-      </c>
-      <c r="F7" s="15">
+        <v>3861</v>
+      </c>
+      <c r="F7" s="14">
         <f>AVERAGE(E7/G7)</f>
-        <v>217.86666666666667</v>
-      </c>
-      <c r="G7" s="8">
+        <v>214.5</v>
+      </c>
+      <c r="G7" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C7) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <f>RANK(F8,$F$3:$F$100,0)</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP(C8,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>탑스타</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IF(VLOOKUP(C8,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
-      </c>
-      <c r="E8" s="13">
+        <v>남</v>
+      </c>
+      <c r="E8" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C8,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1299</v>
-      </c>
-      <c r="F8" s="15">
+        <v>2564</v>
+      </c>
+      <c r="F8" s="14">
         <f>AVERAGE(E8/G8)</f>
-        <v>216.5</v>
-      </c>
-      <c r="G8" s="8">
+        <v>213.66666666666666</v>
+      </c>
+      <c r="G8" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C8) * 3</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <f>RANK(F9,$F$3:$F$100,0)</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP(C9,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>볼칠래</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IF(VLOOKUP(C9,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C9,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1913</v>
-      </c>
-      <c r="F9" s="15">
+        <v>1271</v>
+      </c>
+      <c r="F9" s="14">
         <f>AVERAGE(E9/G9)</f>
-        <v>212.55555555555554</v>
-      </c>
-      <c r="G9" s="8">
+        <v>211.83333333333334</v>
+      </c>
+      <c r="G9" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C9) * 3</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <f>RANK(F10,$F$3:$F$100,0)</f>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP(C10,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>락</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IF(VLOOKUP(C10,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C10,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3172</v>
-      </c>
-      <c r="F10" s="15">
+        <v>3811</v>
+      </c>
+      <c r="F10" s="14">
         <f>AVERAGE(E10/G10)</f>
-        <v>211.46666666666667</v>
-      </c>
-      <c r="G10" s="8">
+        <v>211.72222222222223</v>
+      </c>
+      <c r="G10" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C10) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <f>RANK(F11,$F$3:$F$100,0)</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>VLOOKUP(C11,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>어쩌다볼링</v>
+        <v>탑스타</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IF(VLOOKUP(C11,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C11,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3148</v>
-      </c>
-      <c r="F11" s="15">
+        <v>3810</v>
+      </c>
+      <c r="F11" s="14">
         <f>AVERAGE(E11/G11)</f>
-        <v>209.86666666666667</v>
-      </c>
-      <c r="G11" s="8">
+        <v>211.66666666666666</v>
+      </c>
+      <c r="G11" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C11) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <f>RANK(F12,$F$3:$F$100,0)</f>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP(C12,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>어쩌다볼링</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(VLOOKUP(C12,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C12,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3127</v>
-      </c>
-      <c r="F12" s="15">
+        <v>3751</v>
+      </c>
+      <c r="F12" s="14">
         <f>AVERAGE(E12/G12)</f>
-        <v>208.46666666666667</v>
-      </c>
-      <c r="G12" s="8">
+        <v>208.38888888888889</v>
+      </c>
+      <c r="G12" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C12) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <f>RANK(F13,$F$3:$F$100,0)</f>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>VLOOKUP(C13,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>탑스타</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IF(VLOOKUP(C13,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C13,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3106</v>
-      </c>
-      <c r="F13" s="15">
+        <v>1243</v>
+      </c>
+      <c r="F13" s="14">
         <f>AVERAGE(E13/G13)</f>
-        <v>207.06666666666666</v>
-      </c>
-      <c r="G13" s="8">
+        <v>207.16666666666666</v>
+      </c>
+      <c r="G13" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C13) * 3</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <f>RANK(F14,$F$3:$F$100,0)</f>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>VLOOKUP(C14,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(VLOOKUP(C14,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C14,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>620</v>
-      </c>
-      <c r="F14" s="15">
+        <v>3716</v>
+      </c>
+      <c r="F14" s="14">
         <f>AVERAGE(E14/G14)</f>
-        <v>206.66666666666666</v>
-      </c>
-      <c r="G14" s="8">
+        <v>206.44444444444446</v>
+      </c>
+      <c r="G14" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C14) * 3</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <f>RANK(F15,$F$3:$F$100,0)</f>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>VLOOKUP(C15,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>IF(VLOOKUP(C15,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
-      </c>
-      <c r="E15" s="13">
+        <v>남</v>
+      </c>
+      <c r="E15" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C15,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>619</v>
-      </c>
-      <c r="F15" s="15">
+        <v>607</v>
+      </c>
+      <c r="F15" s="14">
         <f>AVERAGE(E15/G15)</f>
-        <v>206.33333333333334</v>
-      </c>
-      <c r="G15" s="8">
+        <v>202.33333333333334</v>
+      </c>
+      <c r="G15" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C15) * 3</f>
         <v>3</v>
       </c>
@@ -1556,278 +1585,278 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <f>RANK(F16,$F$3:$F$100,0)</f>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>VLOOKUP(C16,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(VLOOKUP(C16,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
-      </c>
-      <c r="E16" s="13">
+        <v>남</v>
+      </c>
+      <c r="E16" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C16,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1846</v>
-      </c>
-      <c r="F16" s="15">
+        <v>3029</v>
+      </c>
+      <c r="F16" s="14">
         <f>AVERAGE(E16/G16)</f>
-        <v>205.11111111111111</v>
-      </c>
-      <c r="G16" s="8">
+        <v>201.93333333333334</v>
+      </c>
+      <c r="G16" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C16) * 3</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <f>RANK(F17,$F$3:$F$100,0)</f>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>VLOOKUP(C17,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>샷스핀</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IF(VLOOKUP(C17,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C17,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>612</v>
-      </c>
-      <c r="F17" s="15">
+        <v>3019</v>
+      </c>
+      <c r="F17" s="14">
         <f>AVERAGE(E17/G17)</f>
-        <v>204</v>
-      </c>
-      <c r="G17" s="8">
+        <v>201.26666666666668</v>
+      </c>
+      <c r="G17" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C17) * 3</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <f>RANK(F18,$F$3:$F$100,0)</f>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>VLOOKUP(C18,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>어쩌다볼링</v>
+        <v>포인트</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IF(VLOOKUP(C18,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C18,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3051</v>
-      </c>
-      <c r="F18" s="15">
+        <v>3622</v>
+      </c>
+      <c r="F18" s="14">
         <f>AVERAGE(E18/G18)</f>
-        <v>203.4</v>
-      </c>
-      <c r="G18" s="8">
+        <v>201.22222222222223</v>
+      </c>
+      <c r="G18" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C18) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <f>RANK(F19,$F$3:$F$100,0)</f>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>VLOOKUP(C19,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>어쩌다볼링</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IF(VLOOKUP(C19,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C19,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2438</v>
-      </c>
-      <c r="F19" s="15">
+        <v>3618</v>
+      </c>
+      <c r="F19" s="14">
         <f>AVERAGE(E19/G19)</f>
-        <v>203.16666666666666</v>
-      </c>
-      <c r="G19" s="8">
+        <v>201</v>
+      </c>
+      <c r="G19" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C19) * 3</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <f>RANK(F20,$F$3:$F$100,0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>VLOOKUP(C20,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>포인트</v>
+        <v>볼칠래</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IF(VLOOKUP(C20,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C20,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3041</v>
-      </c>
-      <c r="F20" s="15">
+        <v>1206</v>
+      </c>
+      <c r="F20" s="14">
         <f>AVERAGE(E20/G20)</f>
-        <v>202.73333333333332</v>
-      </c>
-      <c r="G20" s="8">
+        <v>201</v>
+      </c>
+      <c r="G20" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C20) * 3</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <f>RANK(F21,$F$3:$F$100,0)</f>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>VLOOKUP(C21,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>락</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>IF(VLOOKUP(C21,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
-      </c>
-      <c r="E21" s="13">
+        <v>여</v>
+      </c>
+      <c r="E21" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C21,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>607</v>
-      </c>
-      <c r="F21" s="15">
+        <v>2402</v>
+      </c>
+      <c r="F21" s="14">
         <f>AVERAGE(E21/G21)</f>
-        <v>202.33333333333334</v>
-      </c>
-      <c r="G21" s="8">
+        <v>200.16666666666666</v>
+      </c>
+      <c r="G21" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C21) * 3</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <f>RANK(F22,$F$3:$F$100,0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>VLOOKUP(C22,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>IF(VLOOKUP(C22,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C22,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3019</v>
-      </c>
-      <c r="F22" s="15">
+        <v>1201</v>
+      </c>
+      <c r="F22" s="14">
         <f>AVERAGE(E22/G22)</f>
-        <v>201.26666666666668</v>
-      </c>
-      <c r="G22" s="8">
+        <v>200.16666666666666</v>
+      </c>
+      <c r="G22" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C22) * 3</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <f>RANK(F23,$F$3:$F$100,0)</f>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>VLOOKUP(C23,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IF(VLOOKUP(C23,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C23,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1206</v>
-      </c>
-      <c r="F23" s="15">
+        <v>2397</v>
+      </c>
+      <c r="F23" s="14">
         <f>AVERAGE(E23/G23)</f>
-        <v>201</v>
-      </c>
-      <c r="G23" s="8">
+        <v>199.75</v>
+      </c>
+      <c r="G23" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C23) * 3</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <f>RANK(F24,$F$3:$F$100,0)</f>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>VLOOKUP(C24,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>업텐션</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>IF(VLOOKUP(C24,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C24,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1201</v>
-      </c>
-      <c r="F24" s="15">
+        <v>1193</v>
+      </c>
+      <c r="F24" s="14">
         <f>AVERAGE(E24/G24)</f>
-        <v>200.16666666666666</v>
-      </c>
-      <c r="G24" s="8">
+        <v>198.83333333333334</v>
+      </c>
+      <c r="G24" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C24) * 3</f>
         <v>6</v>
       </c>
@@ -1835,61 +1864,61 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <f>RANK(F25,$F$3:$F$100,0)</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>VLOOKUP(C25,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>볼칠래</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IF(VLOOKUP(C25,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C25,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1782</v>
-      </c>
-      <c r="F25" s="15">
+        <v>1189</v>
+      </c>
+      <c r="F25" s="14">
         <f>AVERAGE(E25/G25)</f>
-        <v>198</v>
-      </c>
-      <c r="G25" s="8">
+        <v>198.16666666666666</v>
+      </c>
+      <c r="G25" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C25) * 3</f>
-        <v>9</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <f>RANK(F26,$F$3:$F$100,0)</f>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>VLOOKUP(C26,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>탑스타</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IF(VLOOKUP(C26,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C26,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1777</v>
-      </c>
-      <c r="F26" s="15">
+        <v>1782</v>
+      </c>
+      <c r="F26" s="14">
         <f>AVERAGE(E26/G26)</f>
-        <v>197.44444444444446</v>
-      </c>
-      <c r="G26" s="8">
+        <v>198</v>
+      </c>
+      <c r="G26" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C26) * 3</f>
         <v>9</v>
       </c>
@@ -1897,154 +1926,154 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <f>RANK(F27,$F$3:$F$100,0)</f>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>VLOOKUP(C27,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>트윈스</v>
+        <v>포인트</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>IF(VLOOKUP(C27,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
-      </c>
-      <c r="E27" s="13">
+        <v>여</v>
+      </c>
+      <c r="E27" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C27,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2949</v>
-      </c>
-      <c r="F27" s="15">
+        <v>3558</v>
+      </c>
+      <c r="F27" s="14">
         <f>AVERAGE(E27/G27)</f>
-        <v>196.6</v>
-      </c>
-      <c r="G27" s="8">
+        <v>197.66666666666666</v>
+      </c>
+      <c r="G27" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C27) * 3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="18">
+      <c r="A28" s="17">
         <f>RANK(F28,$F$3:$F$100,0)</f>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>VLOOKUP(C28,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>트윈스</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>IF(VLOOKUP(C28,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C28,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1178</v>
-      </c>
-      <c r="F28" s="15">
+        <v>3553</v>
+      </c>
+      <c r="F28" s="14">
         <f>AVERAGE(E28/G28)</f>
-        <v>196.33333333333334</v>
-      </c>
-      <c r="G28" s="8">
+        <v>197.38888888888889</v>
+      </c>
+      <c r="G28" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C28) * 3</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <f>RANK(F29,$F$3:$F$100,0)</f>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>VLOOKUP(C29,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>볼칠래</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>IF(VLOOKUP(C29,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C29,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1761</v>
-      </c>
-      <c r="F29" s="15">
+        <v>1178</v>
+      </c>
+      <c r="F29" s="14">
         <f>AVERAGE(E29/G29)</f>
-        <v>195.66666666666666</v>
-      </c>
-      <c r="G29" s="8">
+        <v>196.33333333333334</v>
+      </c>
+      <c r="G29" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C29) * 3</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="18">
+      <c r="A30" s="17">
         <f>RANK(F30,$F$3:$F$100,0)</f>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>VLOOKUP(C30,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>볼칠래</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>IF(VLOOKUP(C30,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>여</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C30,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2347</v>
-      </c>
-      <c r="F30" s="15">
+        <v>1169</v>
+      </c>
+      <c r="F30" s="14">
         <f>AVERAGE(E30/G30)</f>
-        <v>195.58333333333334</v>
-      </c>
-      <c r="G30" s="8">
+        <v>194.83333333333334</v>
+      </c>
+      <c r="G30" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C30) * 3</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <f>RANK(F31,$F$3:$F$100,0)</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>VLOOKUP(C31,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>포인트</v>
+        <v>샷스핀</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>IF(VLOOKUP(C31,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>여</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C31,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2922</v>
-      </c>
-      <c r="F31" s="15">
+        <v>2893</v>
+      </c>
+      <c r="F31" s="14">
         <f>AVERAGE(E31/G31)</f>
-        <v>194.8</v>
-      </c>
-      <c r="G31" s="8">
+        <v>192.86666666666667</v>
+      </c>
+      <c r="G31" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C31) * 3</f>
         <v>15</v>
       </c>
@@ -2052,30 +2081,30 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="18">
+      <c r="A32" s="17">
         <f>RANK(F32,$F$3:$F$100,0)</f>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>VLOOKUP(C32,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>탑스타</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="str">
         <f>IF(VLOOKUP(C32,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C32,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>579</v>
-      </c>
-      <c r="F32" s="15">
+        <v>577</v>
+      </c>
+      <c r="F32" s="14">
         <f>AVERAGE(E32/G32)</f>
-        <v>193</v>
-      </c>
-      <c r="G32" s="8">
+        <v>192.33333333333334</v>
+      </c>
+      <c r="G32" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C32) * 3</f>
         <v>3</v>
       </c>
@@ -2083,123 +2112,123 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="18">
+      <c r="A33" s="17">
         <f>RANK(F33,$F$3:$F$100,0)</f>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>VLOOKUP(C33,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>샷스핀</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IF(VLOOKUP(C33,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C33,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>577</v>
-      </c>
-      <c r="F33" s="15">
+        <v>2304</v>
+      </c>
+      <c r="F33" s="14">
         <f>AVERAGE(E33/G33)</f>
-        <v>192.33333333333334</v>
-      </c>
-      <c r="G33" s="8">
+        <v>192</v>
+      </c>
+      <c r="G33" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C33) * 3</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <f>RANK(F34,$F$3:$F$100,0)</f>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>VLOOKUP(C34,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>샷스핀</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>IF(VLOOKUP(C34,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
-      </c>
-      <c r="E34" s="13">
+        <v>남</v>
+      </c>
+      <c r="E34" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C34,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>561</v>
-      </c>
-      <c r="F34" s="15">
+        <v>1124</v>
+      </c>
+      <c r="F34" s="14">
         <f>AVERAGE(E34/G34)</f>
-        <v>187</v>
-      </c>
-      <c r="G34" s="8">
+        <v>187.33333333333334</v>
+      </c>
+      <c r="G34" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C34) * 3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="18">
+      <c r="A35" s="17">
         <f>RANK(F35,$F$3:$F$100,0)</f>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>VLOOKUP(C35,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>탑스타</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>IF(VLOOKUP(C35,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
-      </c>
-      <c r="E35" s="13">
+        <v>여</v>
+      </c>
+      <c r="E35" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C35,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1678</v>
-      </c>
-      <c r="F35" s="15">
+        <v>561</v>
+      </c>
+      <c r="F35" s="14">
         <f>AVERAGE(E35/G35)</f>
-        <v>186.44444444444446</v>
-      </c>
-      <c r="G35" s="8">
+        <v>187</v>
+      </c>
+      <c r="G35" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C35) * 3</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="18">
+      <c r="A36" s="17">
         <f>RANK(F36,$F$3:$F$100,0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>VLOOKUP(C36,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
         <v>볼칠래</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2" t="str">
         <f>IF(VLOOKUP(C36,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
-      </c>
-      <c r="E36" s="13">
+        <v>남</v>
+      </c>
+      <c r="E36" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C36,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1678</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <f>AVERAGE(E36/G36)</f>
         <v>186.44444444444446</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C36) * 3</f>
         <v>9</v>
       </c>
@@ -2207,100 +2236,100 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="18">
+      <c r="A37" s="17">
         <f>RANK(F37,$F$3:$F$100,0)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>VLOOKUP(C37,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>트윈스</v>
+        <v>볼칠래</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2" t="str">
         <f>IF(VLOOKUP(C37,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>여</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C37,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2795</v>
-      </c>
-      <c r="F37" s="15">
+        <v>1678</v>
+      </c>
+      <c r="F37" s="14">
         <f>AVERAGE(E37/G37)</f>
-        <v>186.33333333333334</v>
-      </c>
-      <c r="G37" s="8">
+        <v>186.44444444444446</v>
+      </c>
+      <c r="G37" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C37) * 3</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <f>RANK(F38,$F$3:$F$100,0)</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>VLOOKUP(C38,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>트윈스</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>IF(VLOOKUP(C38,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
-      </c>
-      <c r="E38" s="13">
+        <v>여</v>
+      </c>
+      <c r="E38" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C38,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>550</v>
-      </c>
-      <c r="F38" s="15">
+        <v>3345</v>
+      </c>
+      <c r="F38" s="14">
         <f>AVERAGE(E38/G38)</f>
-        <v>183.33333333333334</v>
-      </c>
-      <c r="G38" s="8">
+        <v>185.83333333333334</v>
+      </c>
+      <c r="G38" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C38) * 3</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="18">
+      <c r="A39" s="17">
         <f>RANK(F39,$F$3:$F$100,0)</f>
         <v>37</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>VLOOKUP(C39,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>업텐션</v>
+        <v>탑스타</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2" t="str">
         <f>IF(VLOOKUP(C39,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C39,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2744</v>
-      </c>
-      <c r="F39" s="15">
+        <v>550</v>
+      </c>
+      <c r="F39" s="14">
         <f>AVERAGE(E39/G39)</f>
-        <v>182.93333333333334</v>
-      </c>
-      <c r="G39" s="8">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="G39" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C39) * 3</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="18">
+      <c r="A40" s="17">
         <f>RANK(F40,$F$3:$F$100,0)</f>
         <v>38</v>
       </c>
@@ -2309,153 +2338,153 @@
         <v>업텐션</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2" t="str">
         <f>IF(VLOOKUP(C40,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C40,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1638</v>
-      </c>
-      <c r="F40" s="15">
+        <v>3277</v>
+      </c>
+      <c r="F40" s="14">
         <f>AVERAGE(E40/G40)</f>
-        <v>182</v>
-      </c>
-      <c r="G40" s="8">
+        <v>182.05555555555554</v>
+      </c>
+      <c r="G40" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C40) * 3</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="18">
+      <c r="A41" s="17">
         <f>RANK(F41,$F$3:$F$100,0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="str">
         <f>VLOOKUP(C41,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
         <v>업텐션</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="str">
         <f>IF(VLOOKUP(C41,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C41,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>546</v>
-      </c>
-      <c r="F41" s="15">
+        <v>2155</v>
+      </c>
+      <c r="F41" s="14">
         <f>AVERAGE(E41/G41)</f>
-        <v>182</v>
-      </c>
-      <c r="G41" s="8">
+        <v>179.58333333333334</v>
+      </c>
+      <c r="G41" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C41) * 3</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="18">
+      <c r="A42" s="17">
         <f>RANK(F42,$F$3:$F$100,0)</f>
         <v>40</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>VLOOKUP(C42,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>락</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D42" s="2" t="str">
         <f>IF(VLOOKUP(C42,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C42,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1061</v>
-      </c>
-      <c r="F42" s="15">
+        <v>2666</v>
+      </c>
+      <c r="F42" s="14">
         <f>AVERAGE(E42/G42)</f>
-        <v>176.83333333333334</v>
-      </c>
-      <c r="G42" s="8">
+        <v>177.73333333333332</v>
+      </c>
+      <c r="G42" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C42) * 3</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="18">
+      <c r="A43" s="17">
         <f>RANK(F43,$F$3:$F$100,0)</f>
         <v>41</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>VLOOKUP(C43,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>업텐션</v>
+        <v>샷스핀</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>IF(VLOOKUP(C43,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C43,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1551</v>
-      </c>
-      <c r="F43" s="15">
+        <v>1061</v>
+      </c>
+      <c r="F43" s="14">
         <f>AVERAGE(E43/G43)</f>
-        <v>172.33333333333334</v>
-      </c>
-      <c r="G43" s="8">
+        <v>176.83333333333334</v>
+      </c>
+      <c r="G43" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C43) * 3</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="18">
+      <c r="A44" s="17">
         <f>RANK(F44,$F$3:$F$100,0)</f>
         <v>42</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>VLOOKUP(C44,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>업텐션</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>IF(VLOOKUP(C44,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C44,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2067</v>
-      </c>
-      <c r="F44" s="15">
+        <v>1551</v>
+      </c>
+      <c r="F44" s="14">
         <f>AVERAGE(E44/G44)</f>
-        <v>172.25</v>
-      </c>
-      <c r="G44" s="8">
+        <v>172.33333333333334</v>
+      </c>
+      <c r="G44" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C44) * 3</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="18">
+      <c r="A45" s="17">
         <f>RANK(F45,$F$3:$F$100,0)</f>
         <v>43</v>
       </c>
@@ -2470,15 +2499,15 @@
         <f>IF(VLOOKUP(C45,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
         <v>남</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C45,상주리그_주차별_결과!$J$1:$J$400)</f>
         <v>1550</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="14">
         <f>AVERAGE(E45/G45)</f>
         <v>172.22222222222223</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C45) * 3</f>
         <v>9</v>
       </c>
@@ -2488,12 +2517,12 @@
   </sheetData>
   <autoFilter ref="A2:I45">
     <sortState ref="A3:I45">
-      <sortCondition descending="1" ref="F2:F45"/>
+      <sortCondition ref="A2:A45"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>199.99999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2503,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2523,7 +2552,7 @@
     <col min="10" max="10" width="6" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.125" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2560,10 +2589,10 @@
       <c r="K1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2601,15 +2630,15 @@
       <c r="K2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44997</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -2638,22 +2667,22 @@
         <v>170</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J34" si="0">SUM(G3:I3)</f>
         <v>647</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(VLOOKUP(C3,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>44997</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44997</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -2682,22 +2711,22 @@
         <v>181</v>
       </c>
       <c r="J4" s="2">
-        <f>SUM(G4:I4)</f>
+        <f t="shared" si="0"/>
         <v>557</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>IF(VLOOKUP(C4,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <v>44997</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44997</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -2726,22 +2755,22 @@
         <v>222</v>
       </c>
       <c r="J5" s="2">
-        <f>SUM(G5:I5)</f>
+        <f t="shared" si="0"/>
         <v>564</v>
       </c>
       <c r="K5" s="2" t="str">
         <f>IF(VLOOKUP(C5,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>44997</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44997</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -2770,22 +2799,22 @@
         <v>195</v>
       </c>
       <c r="J6" s="2">
-        <f>SUM(G6:I6)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>IF(VLOOKUP(C6,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>44997</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44997</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -2814,22 +2843,22 @@
         <v>241</v>
       </c>
       <c r="J7" s="2">
-        <f>SUM(G7:I7)</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>IF(VLOOKUP(C7,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>44997</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44997</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -2858,22 +2887,22 @@
         <v>182</v>
       </c>
       <c r="J8" s="2">
-        <f>SUM(G8:I8)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>IF(VLOOKUP(C8,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>44997</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44997</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -2902,22 +2931,22 @@
         <v>221</v>
       </c>
       <c r="J9" s="2">
-        <f>SUM(G9:I9)</f>
+        <f t="shared" si="0"/>
         <v>676</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>IF(VLOOKUP(C9,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>44997</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44997</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -2946,22 +2975,22 @@
         <v>187</v>
       </c>
       <c r="J10" s="2">
-        <f>SUM(G10:I10)</f>
+        <f t="shared" si="0"/>
         <v>576</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>IF(VLOOKUP(C10,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <v>44997</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44997</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -2990,22 +3019,22 @@
         <v>158</v>
       </c>
       <c r="J11" s="2">
-        <f>SUM(G11:I11)</f>
+        <f t="shared" si="0"/>
         <v>522</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(VLOOKUP(C11,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>44997</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44997</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -3034,22 +3063,22 @@
         <v>158</v>
       </c>
       <c r="J12" s="2">
-        <f>SUM(G12:I12)</f>
+        <f t="shared" si="0"/>
         <v>536</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(VLOOKUP(C12,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>44997</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44997</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -3078,22 +3107,22 @@
         <v>169</v>
       </c>
       <c r="J13" s="2">
-        <f>SUM(G13:I13)</f>
+        <f t="shared" si="0"/>
         <v>528</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>IF(VLOOKUP(C13,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>44997</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44997</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -3122,22 +3151,22 @@
         <v>170</v>
       </c>
       <c r="J14" s="2">
-        <f>SUM(G14:I14)</f>
+        <f t="shared" si="0"/>
         <v>544</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IF(VLOOKUP(C14,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <v>44997</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44997</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -3166,22 +3195,22 @@
         <v>205</v>
       </c>
       <c r="J15" s="2">
-        <f>SUM(G15:I15)</f>
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(VLOOKUP(C15,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>44997</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44997</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -3210,22 +3239,22 @@
         <v>176</v>
       </c>
       <c r="J16" s="2">
-        <f>SUM(G16:I16)</f>
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(VLOOKUP(C16,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <v>44997</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44997</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -3254,22 +3283,22 @@
         <v>257</v>
       </c>
       <c r="J17" s="2">
-        <f>SUM(G17:I17)</f>
+        <f t="shared" si="0"/>
         <v>696</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>IF(VLOOKUP(C17,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>44997</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44997</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -3298,22 +3327,22 @@
         <v>203</v>
       </c>
       <c r="J18" s="2">
-        <f>SUM(G18:I18)</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="K18" s="2" t="str">
         <f>IF(VLOOKUP(C18,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>44997</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44997</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -3342,22 +3371,22 @@
         <v>199</v>
       </c>
       <c r="J19" s="2">
-        <f>SUM(G19:I19)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(VLOOKUP(C19,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>44997</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44997</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -3386,22 +3415,22 @@
         <v>214</v>
       </c>
       <c r="J20" s="2">
-        <f>SUM(G20:I20)</f>
+        <f t="shared" si="0"/>
         <v>621</v>
       </c>
       <c r="K20" s="2" t="str">
         <f>IF(VLOOKUP(C20,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="20">
         <v>44997</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>44997</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -3430,22 +3459,22 @@
         <v>231</v>
       </c>
       <c r="J21" s="2">
-        <f>SUM(G21:I21)</f>
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
       <c r="K21" s="2" t="str">
         <f>IF(VLOOKUP(C21,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="20">
         <v>44997</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>44997</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -3474,22 +3503,22 @@
         <v>164</v>
       </c>
       <c r="J22" s="2">
-        <f>SUM(G22:I22)</f>
+        <f t="shared" si="0"/>
         <v>556</v>
       </c>
       <c r="K22" s="2" t="str">
         <f>IF(VLOOKUP(C22,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="20">
         <v>44997</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>44997</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -3518,22 +3547,22 @@
         <v>248</v>
       </c>
       <c r="J23" s="2">
-        <f>SUM(G23:I23)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(VLOOKUP(C23,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="20">
         <v>44997</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>44997</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -3562,22 +3591,22 @@
         <v>203</v>
       </c>
       <c r="J24" s="2">
-        <f>SUM(G24:I24)</f>
+        <f t="shared" si="0"/>
         <v>563</v>
       </c>
       <c r="K24" s="2" t="str">
         <f>IF(VLOOKUP(C24,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="20">
         <v>44997</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>44997</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -3606,22 +3635,22 @@
         <v>222</v>
       </c>
       <c r="J25" s="2">
-        <f>SUM(G25:I25)</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="K25" s="2" t="str">
         <f>IF(VLOOKUP(C25,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="20">
         <v>44997</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>44997</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -3650,22 +3679,22 @@
         <v>202</v>
       </c>
       <c r="J26" s="2">
-        <f>SUM(G26:I26)</f>
+        <f t="shared" si="0"/>
         <v>596</v>
       </c>
       <c r="K26" s="2" t="str">
         <f>IF(VLOOKUP(C26,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="20">
         <v>44997</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>44997</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -3694,22 +3723,22 @@
         <v>213</v>
       </c>
       <c r="J27" s="2">
-        <f>SUM(G27:I27)</f>
+        <f t="shared" si="0"/>
         <v>565</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(VLOOKUP(C27,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <v>44997</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>44997</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -3738,22 +3767,22 @@
         <v>209</v>
       </c>
       <c r="J28" s="2">
-        <f>SUM(G28:I28)</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="K28" s="2" t="str">
         <f>IF(VLOOKUP(C28,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="20">
         <v>44997</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>44997</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -3782,22 +3811,22 @@
         <v>209</v>
       </c>
       <c r="J29" s="2">
-        <f>SUM(G29:I29)</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
       <c r="K29" s="2" t="str">
         <f>IF(VLOOKUP(C29,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <v>44997</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>45004</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -3826,22 +3855,22 @@
         <v>197</v>
       </c>
       <c r="J30" s="2">
-        <f>SUM(G30:I30)</f>
+        <f t="shared" si="0"/>
         <v>604</v>
       </c>
       <c r="K30" s="2" t="str">
         <f>IF(VLOOKUP(C30,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="20">
         <v>45004</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>45004</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -3870,22 +3899,22 @@
         <v>177</v>
       </c>
       <c r="J31" s="2">
-        <f>SUM(G31:I31)</f>
+        <f t="shared" si="0"/>
         <v>509</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(VLOOKUP(C31,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="20">
         <v>45004</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>45004</v>
       </c>
       <c r="B32" s="2" t="str">
@@ -3914,22 +3943,22 @@
         <v>202</v>
       </c>
       <c r="J32" s="2">
-        <f>SUM(G32:I32)</f>
+        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="K32" s="2" t="str">
         <f>IF(VLOOKUP(C32,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="20">
         <v>45004</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>45004</v>
       </c>
       <c r="B33" s="2" t="str">
@@ -3958,22 +3987,22 @@
         <v>236</v>
       </c>
       <c r="J33" s="2">
-        <f>SUM(G33:I33)</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
       <c r="K33" s="2" t="str">
         <f>IF(VLOOKUP(C33,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="20">
         <v>45004</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>45004</v>
       </c>
       <c r="B34" s="2" t="str">
@@ -4002,22 +4031,22 @@
         <v>173</v>
       </c>
       <c r="J34" s="2">
-        <f>SUM(G34:I34)</f>
+        <f t="shared" si="0"/>
         <v>563</v>
       </c>
       <c r="K34" s="2" t="str">
         <f>IF(VLOOKUP(C34,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="20">
         <v>45004</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>45004</v>
       </c>
       <c r="B35" s="2" t="str">
@@ -4046,22 +4075,22 @@
         <v>268</v>
       </c>
       <c r="J35" s="2">
-        <f>SUM(G35:I35)</f>
+        <f t="shared" ref="J35:J66" si="1">SUM(G35:I35)</f>
         <v>721</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(VLOOKUP(C35,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <v>45004</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="7">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>45004</v>
       </c>
       <c r="B36" s="2" t="str">
@@ -4090,22 +4119,22 @@
         <v>200</v>
       </c>
       <c r="J36" s="2">
-        <f>SUM(G36:I36)</f>
+        <f t="shared" si="1"/>
         <v>539</v>
       </c>
       <c r="K36" s="2" t="str">
         <f>IF(VLOOKUP(C36,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="20">
         <v>45004</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="7">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>45004</v>
       </c>
       <c r="B37" s="2" t="str">
@@ -4134,22 +4163,22 @@
         <v>183</v>
       </c>
       <c r="J37" s="2">
-        <f>SUM(G37:I37)</f>
+        <f t="shared" si="1"/>
         <v>555</v>
       </c>
       <c r="K37" s="2" t="str">
         <f>IF(VLOOKUP(C37,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="20">
         <v>45004</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>45004</v>
       </c>
       <c r="B38" s="2" t="str">
@@ -4178,22 +4207,22 @@
         <v>171</v>
       </c>
       <c r="J38" s="2">
-        <f>SUM(G38:I38)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="K38" s="2" t="str">
         <f>IF(VLOOKUP(C38,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="20">
         <v>45004</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M38" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>45004</v>
       </c>
       <c r="B39" s="2" t="str">
@@ -4222,22 +4251,22 @@
         <v>202</v>
       </c>
       <c r="J39" s="2">
-        <f>SUM(G39:I39)</f>
+        <f t="shared" si="1"/>
         <v>519</v>
       </c>
       <c r="K39" s="2" t="str">
         <f>IF(VLOOKUP(C39,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="20">
         <v>45004</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="7">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>45004</v>
       </c>
       <c r="B40" s="2" t="str">
@@ -4266,22 +4295,22 @@
         <v>225</v>
       </c>
       <c r="J40" s="2">
-        <f>SUM(G40:I40)</f>
+        <f t="shared" si="1"/>
         <v>555</v>
       </c>
       <c r="K40" s="2" t="str">
         <f>IF(VLOOKUP(C40,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="20">
         <v>45004</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="7">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>45004</v>
       </c>
       <c r="B41" s="2" t="str">
@@ -4310,22 +4339,22 @@
         <v>182</v>
       </c>
       <c r="J41" s="2">
-        <f>SUM(G41:I41)</f>
+        <f t="shared" si="1"/>
         <v>586</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>IF(VLOOKUP(C41,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="20">
         <v>45004</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>45004</v>
       </c>
       <c r="B42" s="2" t="str">
@@ -4354,22 +4383,22 @@
         <v>186</v>
       </c>
       <c r="J42" s="2">
-        <f>SUM(G42:I42)</f>
+        <f t="shared" si="1"/>
         <v>624</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>IF(VLOOKUP(C42,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="20">
         <v>45004</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>45004</v>
       </c>
       <c r="B43" s="2" t="str">
@@ -4398,22 +4427,22 @@
         <v>174</v>
       </c>
       <c r="J43" s="2">
-        <f>SUM(G43:I43)</f>
+        <f t="shared" si="1"/>
         <v>574</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(VLOOKUP(C43,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="20">
         <v>45004</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="7">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>45004</v>
       </c>
       <c r="B44" s="2" t="str">
@@ -4442,22 +4471,22 @@
         <v>257</v>
       </c>
       <c r="J44" s="2">
-        <f>SUM(G44:I44)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="K44" s="2" t="str">
         <f>IF(VLOOKUP(C44,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44" s="20">
         <v>45004</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>45004</v>
       </c>
       <c r="B45" s="2" t="str">
@@ -4486,22 +4515,22 @@
         <v>185</v>
       </c>
       <c r="J45" s="2">
-        <f>SUM(G45:I45)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="K45" s="2" t="str">
         <f>IF(VLOOKUP(C45,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="20">
         <v>45004</v>
       </c>
-      <c r="M45" s="8">
+      <c r="M45" s="7">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45004</v>
       </c>
       <c r="B46" s="2" t="str">
@@ -4530,22 +4559,22 @@
         <v>202</v>
       </c>
       <c r="J46" s="2">
-        <f>SUM(G46:I46)</f>
+        <f t="shared" si="1"/>
         <v>577</v>
       </c>
       <c r="K46" s="2" t="str">
         <f>IF(VLOOKUP(C46,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="20">
         <v>45004</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="7">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>45004</v>
       </c>
       <c r="B47" s="2" t="str">
@@ -4574,22 +4603,22 @@
         <v>206</v>
       </c>
       <c r="J47" s="2">
-        <f>SUM(G47:I47)</f>
+        <f t="shared" si="1"/>
         <v>561</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(VLOOKUP(C47,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="20">
         <v>45004</v>
       </c>
-      <c r="M47" s="8">
+      <c r="M47" s="7">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>45004</v>
       </c>
       <c r="B48" s="2" t="str">
@@ -4618,22 +4647,22 @@
         <v>193</v>
       </c>
       <c r="J48" s="2">
-        <f>SUM(G48:I48)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="K48" s="2" t="str">
         <f>IF(VLOOKUP(C48,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="20">
         <v>45004</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="7">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>45004</v>
       </c>
       <c r="B49" s="2" t="str">
@@ -4662,22 +4691,22 @@
         <v>202</v>
       </c>
       <c r="J49" s="2">
-        <f>SUM(G49:I49)</f>
+        <f t="shared" si="1"/>
         <v>638</v>
       </c>
       <c r="K49" s="2" t="str">
         <f>IF(VLOOKUP(C49,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="20">
         <v>45004</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="7">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>45004</v>
       </c>
       <c r="B50" s="2" t="str">
@@ -4706,22 +4735,22 @@
         <v>231</v>
       </c>
       <c r="J50" s="2">
-        <f>SUM(G50:I50)</f>
+        <f t="shared" si="1"/>
         <v>646</v>
       </c>
       <c r="K50" s="2" t="str">
         <f>IF(VLOOKUP(C50,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L50" s="20">
         <v>45004</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="7">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>45004</v>
       </c>
       <c r="B51" s="2" t="str">
@@ -4750,22 +4779,22 @@
         <v>257</v>
       </c>
       <c r="J51" s="2">
-        <f>SUM(G51:I51)</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="K51" s="2" t="str">
         <f>IF(VLOOKUP(C51,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="20">
         <v>45004</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>45004</v>
       </c>
       <c r="B52" s="2" t="str">
@@ -4794,22 +4823,22 @@
         <v>194</v>
       </c>
       <c r="J52" s="2">
-        <f>SUM(G52:I52)</f>
+        <f t="shared" si="1"/>
         <v>645</v>
       </c>
       <c r="K52" s="2" t="str">
         <f>IF(VLOOKUP(C52,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="20">
         <v>45004</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>45004</v>
       </c>
       <c r="B53" s="2" t="str">
@@ -4838,22 +4867,22 @@
         <v>190</v>
       </c>
       <c r="J53" s="2">
-        <f>SUM(G53:I53)</f>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="K53" s="2" t="str">
         <f>IF(VLOOKUP(C53,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="20">
         <v>45004</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="7">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>45004</v>
       </c>
       <c r="B54" s="2" t="str">
@@ -4882,22 +4911,22 @@
         <v>211</v>
       </c>
       <c r="J54" s="2">
-        <f>SUM(G54:I54)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="K54" s="2" t="str">
         <f>IF(VLOOKUP(C54,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="20">
         <v>45004</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M54" s="7">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>45004</v>
       </c>
       <c r="B55" s="2" t="str">
@@ -4926,22 +4955,22 @@
         <v>199</v>
       </c>
       <c r="J55" s="2">
-        <f>SUM(G55:I55)</f>
+        <f t="shared" si="1"/>
         <v>539</v>
       </c>
       <c r="K55" s="2" t="str">
         <f>IF(VLOOKUP(C55,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="20">
         <v>45004</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="7">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>45004</v>
       </c>
       <c r="B56" s="2" t="str">
@@ -4970,22 +4999,22 @@
         <v>209</v>
       </c>
       <c r="J56" s="2">
-        <f>SUM(G56:I56)</f>
+        <f t="shared" si="1"/>
         <v>698</v>
       </c>
       <c r="K56" s="2" t="str">
         <f>IF(VLOOKUP(C56,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="20">
         <v>45004</v>
       </c>
-      <c r="M56" s="8">
+      <c r="M56" s="7">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>45018</v>
       </c>
       <c r="B57" s="2" t="str">
@@ -5014,22 +5043,22 @@
         <v>257</v>
       </c>
       <c r="J57" s="2">
-        <f>SUM(G57:I57)</f>
+        <f t="shared" si="1"/>
         <v>643</v>
       </c>
       <c r="K57" s="2" t="str">
         <f>IF(VLOOKUP(C57,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L57" s="20">
         <v>45018</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="7">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>45018</v>
       </c>
       <c r="B58" s="2" t="str">
@@ -5058,22 +5087,22 @@
         <v>201</v>
       </c>
       <c r="J58" s="2">
-        <f>SUM(G58:I58)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="K58" s="2" t="str">
         <f>IF(VLOOKUP(C58,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L58" s="21">
+      <c r="L58" s="20">
         <v>45018</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="7">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>45018</v>
       </c>
       <c r="B59" s="2" t="str">
@@ -5102,22 +5131,22 @@
         <v>240</v>
       </c>
       <c r="J59" s="2">
-        <f>SUM(G59:I59)</f>
+        <f t="shared" si="1"/>
         <v>598</v>
       </c>
       <c r="K59" s="2" t="str">
         <f>IF(VLOOKUP(C59,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L59" s="21">
+      <c r="L59" s="20">
         <v>45018</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="7">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>45018</v>
       </c>
       <c r="B60" s="2" t="str">
@@ -5146,22 +5175,22 @@
         <v>195</v>
       </c>
       <c r="J60" s="2">
-        <f>SUM(G60:I60)</f>
+        <f t="shared" si="1"/>
         <v>558</v>
       </c>
       <c r="K60" s="2" t="str">
         <f>IF(VLOOKUP(C60,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L60" s="20">
         <v>45018</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="7">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>45018</v>
       </c>
       <c r="B61" s="2" t="str">
@@ -5190,22 +5219,22 @@
         <v>226</v>
       </c>
       <c r="J61" s="2">
-        <f>SUM(G61:I61)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="K61" s="2" t="str">
         <f>IF(VLOOKUP(C61,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L61" s="20">
         <v>45018</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>45018</v>
       </c>
       <c r="B62" s="2" t="str">
@@ -5234,22 +5263,22 @@
         <v>195</v>
       </c>
       <c r="J62" s="2">
-        <f>SUM(G62:I62)</f>
+        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="K62" s="2" t="str">
         <f>IF(VLOOKUP(C62,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L62" s="21">
+      <c r="L62" s="20">
         <v>45018</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>45018</v>
       </c>
       <c r="B63" s="2" t="str">
@@ -5278,22 +5307,22 @@
         <v>214</v>
       </c>
       <c r="J63" s="2">
-        <f>SUM(G63:I63)</f>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
       <c r="K63" s="2" t="str">
         <f>IF(VLOOKUP(C63,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L63" s="21">
+      <c r="L63" s="20">
         <v>45018</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>45018</v>
       </c>
       <c r="B64" s="2" t="str">
@@ -5322,22 +5351,22 @@
         <v>178</v>
       </c>
       <c r="J64" s="2">
-        <f>SUM(G64:I64)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="K64" s="2" t="str">
         <f>IF(VLOOKUP(C64,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L64" s="21">
+      <c r="L64" s="20">
         <v>45018</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="7">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>45018</v>
       </c>
       <c r="B65" s="2" t="str">
@@ -5366,22 +5395,22 @@
         <v>173</v>
       </c>
       <c r="J65" s="2">
-        <f>SUM(G65:I65)</f>
+        <f t="shared" si="1"/>
         <v>547</v>
       </c>
       <c r="K65" s="2" t="str">
         <f>IF(VLOOKUP(C65,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L65" s="21">
+      <c r="L65" s="20">
         <v>45018</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="7">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>45018</v>
       </c>
       <c r="B66" s="2" t="str">
@@ -5410,22 +5439,22 @@
         <v>210</v>
       </c>
       <c r="J66" s="2">
-        <f>SUM(G66:I66)</f>
+        <f t="shared" si="1"/>
         <v>496</v>
       </c>
       <c r="K66" s="2" t="str">
         <f>IF(VLOOKUP(C66,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L66" s="21">
+      <c r="L66" s="20">
         <v>45018</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="7">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>45018</v>
       </c>
       <c r="B67" s="2" t="str">
@@ -5454,22 +5483,22 @@
         <v>153</v>
       </c>
       <c r="J67" s="2">
-        <f>SUM(G67:I67)</f>
+        <f t="shared" ref="J67:J98" si="2">SUM(G67:I67)</f>
         <v>515</v>
       </c>
       <c r="K67" s="2" t="str">
         <f>IF(VLOOKUP(C67,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L67" s="20">
         <v>45018</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="7">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>45018</v>
       </c>
       <c r="B68" s="2" t="str">
@@ -5498,22 +5527,22 @@
         <v>178</v>
       </c>
       <c r="J68" s="2">
-        <f>SUM(G68:I68)</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="K68" s="2" t="str">
         <f>IF(VLOOKUP(C68,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L68" s="21">
+      <c r="L68" s="20">
         <v>45018</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="7">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>45018</v>
       </c>
       <c r="B69" s="2" t="str">
@@ -5542,22 +5571,22 @@
         <v>181</v>
       </c>
       <c r="J69" s="2">
-        <f>SUM(G69:I69)</f>
+        <f t="shared" si="2"/>
         <v>559</v>
       </c>
       <c r="K69" s="2" t="str">
         <f>IF(VLOOKUP(C69,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L69" s="20">
         <v>45018</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="7">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>45018</v>
       </c>
       <c r="B70" s="2" t="str">
@@ -5586,22 +5615,22 @@
         <v>177</v>
       </c>
       <c r="J70" s="2">
-        <f>SUM(G70:I70)</f>
+        <f t="shared" si="2"/>
         <v>592</v>
       </c>
       <c r="K70" s="2" t="str">
         <f>IF(VLOOKUP(C70,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L70" s="21">
+      <c r="L70" s="20">
         <v>45018</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="7">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>45018</v>
       </c>
       <c r="B71" s="2" t="str">
@@ -5630,22 +5659,22 @@
         <v>203</v>
       </c>
       <c r="J71" s="2">
-        <f>SUM(G71:I71)</f>
+        <f t="shared" si="2"/>
         <v>587</v>
       </c>
       <c r="K71" s="2" t="str">
         <f>IF(VLOOKUP(C71,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L71" s="20">
         <v>45018</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M71" s="7">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>45018</v>
       </c>
       <c r="B72" s="2" t="str">
@@ -5674,22 +5703,22 @@
         <v>195</v>
       </c>
       <c r="J72" s="2">
-        <f>SUM(G72:I72)</f>
+        <f t="shared" si="2"/>
         <v>644</v>
       </c>
       <c r="K72" s="2" t="str">
         <f>IF(VLOOKUP(C72,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L72" s="20">
         <v>45018</v>
       </c>
-      <c r="M72" s="8">
+      <c r="M72" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>45018</v>
       </c>
       <c r="B73" s="2" t="str">
@@ -5718,22 +5747,22 @@
         <v>192</v>
       </c>
       <c r="J73" s="2">
-        <f>SUM(G73:I73)</f>
+        <f t="shared" si="2"/>
         <v>596</v>
       </c>
       <c r="K73" s="2" t="str">
         <f>IF(VLOOKUP(C73,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L73" s="21">
+      <c r="L73" s="20">
         <v>45018</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73" s="7">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>45018</v>
       </c>
       <c r="B74" s="2" t="str">
@@ -5762,22 +5791,22 @@
         <v>213</v>
       </c>
       <c r="J74" s="2">
-        <f>SUM(G74:I74)</f>
+        <f t="shared" si="2"/>
         <v>659</v>
       </c>
       <c r="K74" s="2" t="str">
         <f>IF(VLOOKUP(C74,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L74" s="21">
+      <c r="L74" s="20">
         <v>45018</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="7">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>45018</v>
       </c>
       <c r="B75" s="2" t="str">
@@ -5806,22 +5835,22 @@
         <v>192</v>
       </c>
       <c r="J75" s="2">
-        <f>SUM(G75:I75)</f>
+        <f t="shared" si="2"/>
         <v>620</v>
       </c>
       <c r="K75" s="2" t="str">
         <f>IF(VLOOKUP(C75,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L75" s="21">
+      <c r="L75" s="20">
         <v>45018</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M75" s="7">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>45018</v>
       </c>
       <c r="B76" s="2" t="str">
@@ -5850,22 +5879,22 @@
         <v>171</v>
       </c>
       <c r="J76" s="2">
-        <f>SUM(G76:I76)</f>
+        <f t="shared" si="2"/>
         <v>575</v>
       </c>
       <c r="K76" s="2" t="str">
         <f>IF(VLOOKUP(C76,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L76" s="21">
+      <c r="L76" s="20">
         <v>45018</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M76" s="7">
         <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>45018</v>
       </c>
       <c r="B77" s="2" t="str">
@@ -5894,22 +5923,22 @@
         <v>193</v>
       </c>
       <c r="J77" s="2">
-        <f>SUM(G77:I77)</f>
+        <f t="shared" si="2"/>
         <v>607</v>
       </c>
       <c r="K77" s="2" t="str">
         <f>IF(VLOOKUP(C77,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L77" s="20">
         <v>45018</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="7">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>45018</v>
       </c>
       <c r="B78" s="2" t="str">
@@ -5938,22 +5967,22 @@
         <v>222</v>
       </c>
       <c r="J78" s="2">
-        <f>SUM(G78:I78)</f>
+        <f t="shared" si="2"/>
         <v>603</v>
       </c>
       <c r="K78" s="2" t="str">
         <f>IF(VLOOKUP(C78,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L78" s="21">
+      <c r="L78" s="20">
         <v>45018</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>45018</v>
       </c>
       <c r="B79" s="2" t="str">
@@ -5982,22 +6011,22 @@
         <v>197</v>
       </c>
       <c r="J79" s="2">
-        <f>SUM(G79:I79)</f>
+        <f t="shared" si="2"/>
         <v>667</v>
       </c>
       <c r="K79" s="2" t="str">
         <f>IF(VLOOKUP(C79,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L79" s="20">
         <v>45018</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M79" s="7">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>45018</v>
       </c>
       <c r="B80" s="2" t="str">
@@ -6026,22 +6055,22 @@
         <v>269</v>
       </c>
       <c r="J80" s="2">
-        <f>SUM(G80:I80)</f>
+        <f t="shared" si="2"/>
         <v>703</v>
       </c>
       <c r="K80" s="2" t="str">
         <f>IF(VLOOKUP(C80,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L80" s="21">
+      <c r="L80" s="20">
         <v>45018</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M80" s="7">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>45018</v>
       </c>
       <c r="B81" s="2" t="str">
@@ -6070,22 +6099,22 @@
         <v>188</v>
       </c>
       <c r="J81" s="2">
-        <f>SUM(G81:I81)</f>
+        <f t="shared" si="2"/>
         <v>612</v>
       </c>
       <c r="K81" s="2" t="str">
         <f>IF(VLOOKUP(C81,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L81" s="21">
+      <c r="L81" s="20">
         <v>45018</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="7">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>45018</v>
       </c>
       <c r="B82" s="2" t="str">
@@ -6114,22 +6143,22 @@
         <v>159</v>
       </c>
       <c r="J82" s="2">
-        <f>SUM(G82:I82)</f>
+        <f t="shared" si="2"/>
         <v>594</v>
       </c>
       <c r="K82" s="2" t="str">
         <f>IF(VLOOKUP(C82,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L82" s="21">
+      <c r="L82" s="20">
         <v>45018</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>45018</v>
       </c>
       <c r="B83" s="2" t="str">
@@ -6158,22 +6187,22 @@
         <v>226</v>
       </c>
       <c r="J83" s="2">
-        <f>SUM(G83:I83)</f>
+        <f t="shared" si="2"/>
         <v>662</v>
       </c>
       <c r="K83" s="2" t="str">
         <f>IF(VLOOKUP(C83,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L83" s="20">
         <v>45018</v>
       </c>
-      <c r="M83" s="8">
+      <c r="M83" s="7">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>45025</v>
       </c>
       <c r="B84" s="2" t="str">
@@ -6202,22 +6231,22 @@
         <v>255</v>
       </c>
       <c r="J84" s="2">
-        <f>SUM(G84:I84)</f>
+        <f t="shared" si="2"/>
         <v>608</v>
       </c>
       <c r="K84" s="2" t="str">
         <f>IF(VLOOKUP(C84,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L84" s="20">
         <v>45025</v>
       </c>
-      <c r="M84" s="8">
+      <c r="M84" s="7">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>45025</v>
       </c>
       <c r="B85" s="2" t="str">
@@ -6246,22 +6275,22 @@
         <v>155</v>
       </c>
       <c r="J85" s="2">
-        <f>SUM(G85:I85)</f>
+        <f t="shared" si="2"/>
         <v>503</v>
       </c>
       <c r="K85" s="2" t="str">
         <f>IF(VLOOKUP(C85,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L85" s="20">
         <v>45025</v>
       </c>
-      <c r="M85" s="8">
+      <c r="M85" s="7">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>45025</v>
       </c>
       <c r="B86" s="2" t="str">
@@ -6290,22 +6319,22 @@
         <v>194</v>
       </c>
       <c r="J86" s="2">
-        <f>SUM(G86:I86)</f>
+        <f t="shared" si="2"/>
         <v>615</v>
       </c>
       <c r="K86" s="2" t="str">
         <f>IF(VLOOKUP(C86,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L86" s="20">
         <v>45025</v>
       </c>
-      <c r="M86" s="8">
+      <c r="M86" s="7">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>45025</v>
       </c>
       <c r="B87" s="2" t="str">
@@ -6334,22 +6363,22 @@
         <v>179</v>
       </c>
       <c r="J87" s="2">
-        <f>SUM(G87:I87)</f>
+        <f t="shared" si="2"/>
         <v>567</v>
       </c>
       <c r="K87" s="2" t="str">
         <f>IF(VLOOKUP(C87,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L87" s="21">
+      <c r="L87" s="20">
         <v>45025</v>
       </c>
-      <c r="M87" s="8">
+      <c r="M87" s="7">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>45025</v>
       </c>
       <c r="B88" s="2" t="str">
@@ -6378,22 +6407,22 @@
         <v>195</v>
       </c>
       <c r="J88" s="2">
-        <f>SUM(G88:I88)</f>
+        <f t="shared" si="2"/>
         <v>586</v>
       </c>
       <c r="K88" s="2" t="str">
         <f>IF(VLOOKUP(C88,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L88" s="21">
+      <c r="L88" s="20">
         <v>45025</v>
       </c>
-      <c r="M88" s="8">
+      <c r="M88" s="7">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>45025</v>
       </c>
       <c r="B89" s="2" t="str">
@@ -6422,22 +6451,22 @@
         <v>235</v>
       </c>
       <c r="J89" s="2">
-        <f>SUM(G89:I89)</f>
+        <f t="shared" si="2"/>
         <v>698</v>
       </c>
       <c r="K89" s="2" t="str">
         <f>IF(VLOOKUP(C89,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L89" s="21">
+      <c r="L89" s="20">
         <v>45025</v>
       </c>
-      <c r="M89" s="8">
+      <c r="M89" s="7">
         <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>45025</v>
       </c>
       <c r="B90" s="2" t="str">
@@ -6466,22 +6495,22 @@
         <v>188</v>
       </c>
       <c r="J90" s="2">
-        <f>SUM(G90:I90)</f>
+        <f t="shared" si="2"/>
         <v>611</v>
       </c>
       <c r="K90" s="2" t="str">
         <f>IF(VLOOKUP(C90,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L90" s="21">
+      <c r="L90" s="20">
         <v>45025</v>
       </c>
-      <c r="M90" s="8">
+      <c r="M90" s="7">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>45025</v>
       </c>
       <c r="B91" s="2" t="str">
@@ -6510,22 +6539,22 @@
         <v>213</v>
       </c>
       <c r="J91" s="2">
-        <f>SUM(G91:I91)</f>
+        <f t="shared" si="2"/>
         <v>634</v>
       </c>
       <c r="K91" s="2" t="str">
         <f>IF(VLOOKUP(C91,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L91" s="21">
+      <c r="L91" s="20">
         <v>45025</v>
       </c>
-      <c r="M91" s="8">
+      <c r="M91" s="7">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>45025</v>
       </c>
       <c r="B92" s="2" t="str">
@@ -6554,22 +6583,22 @@
         <v>223</v>
       </c>
       <c r="J92" s="2">
-        <f>SUM(G92:I92)</f>
+        <f t="shared" si="2"/>
         <v>666</v>
       </c>
       <c r="K92" s="2" t="str">
         <f>IF(VLOOKUP(C92,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L92" s="21">
+      <c r="L92" s="20">
         <v>45025</v>
       </c>
-      <c r="M92" s="8">
+      <c r="M92" s="7">
         <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>45025</v>
       </c>
       <c r="B93" s="2" t="str">
@@ -6598,22 +6627,22 @@
         <v>145</v>
       </c>
       <c r="J93" s="2">
-        <f>SUM(G93:I93)</f>
+        <f t="shared" si="2"/>
         <v>496</v>
       </c>
       <c r="K93" s="2" t="str">
         <f>IF(VLOOKUP(C93,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L93" s="21">
+      <c r="L93" s="20">
         <v>45025</v>
       </c>
-      <c r="M93" s="8">
+      <c r="M93" s="7">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>45025</v>
       </c>
       <c r="B94" s="2" t="str">
@@ -6642,22 +6671,22 @@
         <v>227</v>
       </c>
       <c r="J94" s="2">
-        <f>SUM(G94:I94)</f>
+        <f t="shared" si="2"/>
         <v>572</v>
       </c>
       <c r="K94" s="2" t="str">
         <f>IF(VLOOKUP(C94,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L94" s="21">
+      <c r="L94" s="20">
         <v>45025</v>
       </c>
-      <c r="M94" s="8">
+      <c r="M94" s="7">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>45025</v>
       </c>
       <c r="B95" s="2" t="str">
@@ -6686,22 +6715,22 @@
         <v>176</v>
       </c>
       <c r="J95" s="2">
-        <f>SUM(G95:I95)</f>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="K95" s="2" t="str">
         <f>IF(VLOOKUP(C95,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L95" s="21">
+      <c r="L95" s="20">
         <v>45025</v>
       </c>
-      <c r="M95" s="8">
+      <c r="M95" s="7">
         <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>45025</v>
       </c>
       <c r="B96" s="2" t="str">
@@ -6730,22 +6759,22 @@
         <v>187</v>
       </c>
       <c r="J96" s="2">
-        <f>SUM(G96:I96)</f>
+        <f t="shared" si="2"/>
         <v>567</v>
       </c>
       <c r="K96" s="2" t="str">
         <f>IF(VLOOKUP(C96,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L96" s="21">
+      <c r="L96" s="20">
         <v>45025</v>
       </c>
-      <c r="M96" s="8">
+      <c r="M96" s="7">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>45025</v>
       </c>
       <c r="B97" s="2" t="str">
@@ -6774,22 +6803,22 @@
         <v>148</v>
       </c>
       <c r="J97" s="2">
-        <f>SUM(G97:I97)</f>
+        <f t="shared" si="2"/>
         <v>511</v>
       </c>
       <c r="K97" s="2" t="str">
         <f>IF(VLOOKUP(C97,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L97" s="21">
+      <c r="L97" s="20">
         <v>45025</v>
       </c>
-      <c r="M97" s="8">
+      <c r="M97" s="7">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>45025</v>
       </c>
       <c r="B98" s="2" t="str">
@@ -6818,22 +6847,22 @@
         <v>215</v>
       </c>
       <c r="J98" s="2">
-        <f>SUM(G98:I98)</f>
+        <f t="shared" si="2"/>
         <v>664</v>
       </c>
       <c r="K98" s="2" t="str">
         <f>IF(VLOOKUP(C98,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L98" s="21">
+      <c r="L98" s="20">
         <v>45025</v>
       </c>
-      <c r="M98" s="8">
+      <c r="M98" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>45025</v>
       </c>
       <c r="B99" s="2" t="str">
@@ -6862,22 +6891,22 @@
         <v>162</v>
       </c>
       <c r="J99" s="2">
-        <f>SUM(G99:I99)</f>
+        <f t="shared" ref="J99:J130" si="3">SUM(G99:I99)</f>
         <v>546</v>
       </c>
       <c r="K99" s="2" t="str">
         <f>IF(VLOOKUP(C99,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L99" s="21">
+      <c r="L99" s="20">
         <v>45025</v>
       </c>
-      <c r="M99" s="8">
+      <c r="M99" s="7">
         <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>45025</v>
       </c>
       <c r="B100" s="2" t="str">
@@ -6906,22 +6935,22 @@
         <v>217</v>
       </c>
       <c r="J100" s="2">
-        <f>SUM(G100:I100)</f>
+        <f t="shared" si="3"/>
         <v>677</v>
       </c>
       <c r="K100" s="2" t="str">
         <f>IF(VLOOKUP(C100,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L100" s="21">
+      <c r="L100" s="20">
         <v>45025</v>
       </c>
-      <c r="M100" s="8">
+      <c r="M100" s="7">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>45025</v>
       </c>
       <c r="B101" s="2" t="str">
@@ -6950,22 +6979,22 @@
         <v>174</v>
       </c>
       <c r="J101" s="2">
-        <f>SUM(G101:I101)</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="K101" s="2" t="str">
         <f>IF(VLOOKUP(C101,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L101" s="21">
+      <c r="L101" s="20">
         <v>45025</v>
       </c>
-      <c r="M101" s="8">
+      <c r="M101" s="7">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>45025</v>
       </c>
       <c r="B102" s="2" t="str">
@@ -6994,22 +7023,22 @@
         <v>224</v>
       </c>
       <c r="J102" s="2">
-        <f>SUM(G102:I102)</f>
+        <f t="shared" si="3"/>
         <v>604</v>
       </c>
       <c r="K102" s="2" t="str">
         <f>IF(VLOOKUP(C102,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L102" s="21">
+      <c r="L102" s="20">
         <v>45025</v>
       </c>
-      <c r="M102" s="8">
+      <c r="M102" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <v>45025</v>
       </c>
       <c r="B103" s="2" t="str">
@@ -7038,22 +7067,22 @@
         <v>172</v>
       </c>
       <c r="J103" s="2">
-        <f>SUM(G103:I103)</f>
+        <f t="shared" si="3"/>
         <v>592</v>
       </c>
       <c r="K103" s="2" t="str">
         <f>IF(VLOOKUP(C103,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L103" s="21">
+      <c r="L103" s="20">
         <v>45025</v>
       </c>
-      <c r="M103" s="8">
+      <c r="M103" s="7">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>45025</v>
       </c>
       <c r="B104" s="2" t="str">
@@ -7082,22 +7111,22 @@
         <v>257</v>
       </c>
       <c r="J104" s="2">
-        <f>SUM(G104:I104)</f>
+        <f t="shared" si="3"/>
         <v>626</v>
       </c>
       <c r="K104" s="2" t="str">
         <f>IF(VLOOKUP(C104,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L104" s="21">
+      <c r="L104" s="20">
         <v>45025</v>
       </c>
-      <c r="M104" s="8">
+      <c r="M104" s="7">
         <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>45025</v>
       </c>
       <c r="B105" s="2" t="str">
@@ -7126,22 +7155,22 @@
         <v>214</v>
       </c>
       <c r="J105" s="2">
-        <f>SUM(G105:I105)</f>
+        <f t="shared" si="3"/>
         <v>674</v>
       </c>
       <c r="K105" s="2" t="str">
         <f>IF(VLOOKUP(C105,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L105" s="21">
+      <c r="L105" s="20">
         <v>45025</v>
       </c>
-      <c r="M105" s="8">
+      <c r="M105" s="7">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>45025</v>
       </c>
       <c r="B106" s="2" t="str">
@@ -7170,22 +7199,22 @@
         <v>207</v>
       </c>
       <c r="J106" s="2">
-        <f>SUM(G106:I106)</f>
+        <f t="shared" si="3"/>
         <v>769</v>
       </c>
       <c r="K106" s="2" t="str">
         <f>IF(VLOOKUP(C106,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L106" s="21">
+      <c r="L106" s="20">
         <v>45025</v>
       </c>
-      <c r="M106" s="8">
+      <c r="M106" s="7">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>45025</v>
       </c>
       <c r="B107" s="2" t="str">
@@ -7214,22 +7243,22 @@
         <v>226</v>
       </c>
       <c r="J107" s="2">
-        <f>SUM(G107:I107)</f>
+        <f t="shared" si="3"/>
         <v>596</v>
       </c>
       <c r="K107" s="2" t="str">
         <f>IF(VLOOKUP(C107,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L107" s="21">
+      <c r="L107" s="20">
         <v>45025</v>
       </c>
-      <c r="M107" s="8">
+      <c r="M107" s="7">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>45025</v>
       </c>
       <c r="B108" s="2" t="str">
@@ -7258,22 +7287,22 @@
         <v>180</v>
       </c>
       <c r="J108" s="2">
-        <f>SUM(G108:I108)</f>
+        <f t="shared" si="3"/>
         <v>508</v>
       </c>
       <c r="K108" s="2" t="str">
         <f>IF(VLOOKUP(C108,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L108" s="21">
+      <c r="L108" s="20">
         <v>45025</v>
       </c>
-      <c r="M108" s="8">
+      <c r="M108" s="7">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>45025</v>
       </c>
       <c r="B109" s="2" t="str">
@@ -7302,22 +7331,22 @@
         <v>202</v>
       </c>
       <c r="J109" s="2">
-        <f>SUM(G109:I109)</f>
+        <f t="shared" si="3"/>
         <v>612</v>
       </c>
       <c r="K109" s="2" t="str">
         <f>IF(VLOOKUP(C109,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L109" s="21">
+      <c r="L109" s="20">
         <v>45025</v>
       </c>
-      <c r="M109" s="8">
+      <c r="M109" s="7">
         <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>45025</v>
       </c>
       <c r="B110" s="2" t="str">
@@ -7346,22 +7375,22 @@
         <v>208</v>
       </c>
       <c r="J110" s="2">
-        <f>SUM(G110:I110)</f>
+        <f t="shared" si="3"/>
         <v>619</v>
       </c>
       <c r="K110" s="2" t="str">
         <f>IF(VLOOKUP(C110,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L110" s="21">
+      <c r="L110" s="20">
         <v>45025</v>
       </c>
-      <c r="M110" s="8">
+      <c r="M110" s="7">
         <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>45032</v>
       </c>
       <c r="B111" s="2" t="str">
@@ -7390,22 +7419,22 @@
         <v>232</v>
       </c>
       <c r="J111" s="2">
-        <f>SUM(G111:I111)</f>
+        <f t="shared" si="3"/>
         <v>604</v>
       </c>
       <c r="K111" s="2" t="str">
         <f>IF(VLOOKUP(C111,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L111" s="21">
+      <c r="L111" s="20">
         <v>45032</v>
       </c>
-      <c r="M111" s="8">
+      <c r="M111" s="7">
         <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>45032</v>
       </c>
       <c r="B112" s="2" t="str">
@@ -7434,22 +7463,22 @@
         <v>183</v>
       </c>
       <c r="J112" s="2">
-        <f>SUM(G112:I112)</f>
+        <f t="shared" si="3"/>
         <v>498</v>
       </c>
       <c r="K112" s="2" t="str">
         <f>IF(VLOOKUP(C112,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L112" s="21">
+      <c r="L112" s="20">
         <v>45032</v>
       </c>
-      <c r="M112" s="8">
+      <c r="M112" s="7">
         <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>45032</v>
       </c>
       <c r="B113" s="2" t="str">
@@ -7478,22 +7507,22 @@
         <v>287</v>
       </c>
       <c r="J113" s="2">
-        <f>SUM(G113:I113)</f>
+        <f t="shared" si="3"/>
         <v>778</v>
       </c>
       <c r="K113" s="2" t="str">
         <f>IF(VLOOKUP(C113,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L113" s="21">
+      <c r="L113" s="20">
         <v>45032</v>
       </c>
-      <c r="M113" s="8">
+      <c r="M113" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>45032</v>
       </c>
       <c r="B114" s="2" t="str">
@@ -7522,22 +7551,22 @@
         <v>214</v>
       </c>
       <c r="J114" s="2">
-        <f>SUM(G114:I114)</f>
+        <f t="shared" si="3"/>
         <v>668</v>
       </c>
       <c r="K114" s="2" t="str">
         <f>IF(VLOOKUP(C114,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L114" s="21">
+      <c r="L114" s="20">
         <v>45032</v>
       </c>
-      <c r="M114" s="8">
+      <c r="M114" s="7">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>45032</v>
       </c>
       <c r="B115" s="2" t="str">
@@ -7566,22 +7595,22 @@
         <v>171</v>
       </c>
       <c r="J115" s="2">
-        <f>SUM(G115:I115)</f>
+        <f t="shared" si="3"/>
         <v>570</v>
       </c>
       <c r="K115" s="2" t="str">
         <f>IF(VLOOKUP(C115,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L115" s="21">
+      <c r="L115" s="20">
         <v>45032</v>
       </c>
-      <c r="M115" s="8">
+      <c r="M115" s="7">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>45032</v>
       </c>
       <c r="B116" s="2" t="str">
@@ -7610,22 +7639,22 @@
         <v>202</v>
       </c>
       <c r="J116" s="2">
-        <f>SUM(G116:I116)</f>
+        <f t="shared" si="3"/>
         <v>610</v>
       </c>
       <c r="K116" s="2" t="str">
         <f>IF(VLOOKUP(C116,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L116" s="21">
+      <c r="L116" s="20">
         <v>45032</v>
       </c>
-      <c r="M116" s="8">
+      <c r="M116" s="7">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>45032</v>
       </c>
       <c r="B117" s="2" t="str">
@@ -7654,22 +7683,22 @@
         <v>221</v>
       </c>
       <c r="J117" s="2">
-        <f>SUM(G117:I117)</f>
+        <f t="shared" si="3"/>
         <v>612</v>
       </c>
       <c r="K117" s="2" t="str">
         <f>IF(VLOOKUP(C117,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L117" s="21">
+      <c r="L117" s="20">
         <v>45032</v>
       </c>
-      <c r="M117" s="8">
+      <c r="M117" s="7">
         <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:13">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>45032</v>
       </c>
       <c r="B118" s="2" t="str">
@@ -7698,22 +7727,22 @@
         <v>183</v>
       </c>
       <c r="J118" s="2">
-        <f>SUM(G118:I118)</f>
+        <f t="shared" si="3"/>
         <v>514</v>
       </c>
       <c r="K118" s="2" t="str">
         <f>IF(VLOOKUP(C118,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L118" s="21">
+      <c r="L118" s="20">
         <v>45032</v>
       </c>
-      <c r="M118" s="8">
+      <c r="M118" s="7">
         <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>45032</v>
       </c>
       <c r="B119" s="2" t="str">
@@ -7742,22 +7771,22 @@
         <v>169</v>
       </c>
       <c r="J119" s="2">
-        <f>SUM(G119:I119)</f>
+        <f t="shared" si="3"/>
         <v>579</v>
       </c>
       <c r="K119" s="2" t="str">
         <f>IF(VLOOKUP(C119,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L119" s="21">
+      <c r="L119" s="20">
         <v>45032</v>
       </c>
-      <c r="M119" s="8">
+      <c r="M119" s="7">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>45032</v>
       </c>
       <c r="B120" s="2" t="str">
@@ -7786,22 +7815,22 @@
         <v>170</v>
       </c>
       <c r="J120" s="2">
-        <f>SUM(G120:I120)</f>
+        <f t="shared" si="3"/>
         <v>593</v>
       </c>
       <c r="K120" s="2" t="str">
         <f>IF(VLOOKUP(C120,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L120" s="21">
+      <c r="L120" s="20">
         <v>45032</v>
       </c>
-      <c r="M120" s="8">
+      <c r="M120" s="7">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>45032</v>
       </c>
       <c r="B121" s="2" t="str">
@@ -7830,22 +7859,22 @@
         <v>131</v>
       </c>
       <c r="J121" s="2">
-        <f>SUM(G121:I121)</f>
+        <f t="shared" si="3"/>
         <v>491</v>
       </c>
       <c r="K121" s="2" t="str">
         <f>IF(VLOOKUP(C121,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L121" s="21">
+      <c r="L121" s="20">
         <v>45032</v>
       </c>
-      <c r="M121" s="8">
+      <c r="M121" s="7">
         <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>45032</v>
       </c>
       <c r="B122" s="2" t="str">
@@ -7874,22 +7903,22 @@
         <v>184</v>
       </c>
       <c r="J122" s="2">
-        <f>SUM(G122:I122)</f>
+        <f t="shared" si="3"/>
         <v>546</v>
       </c>
       <c r="K122" s="2" t="str">
         <f>IF(VLOOKUP(C122,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L122" s="21">
+      <c r="L122" s="20">
         <v>45032</v>
       </c>
-      <c r="M122" s="8">
+      <c r="M122" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>45032</v>
       </c>
       <c r="B123" s="2" t="str">
@@ -7918,22 +7947,22 @@
         <v>209</v>
       </c>
       <c r="J123" s="2">
-        <f>SUM(G123:I123)</f>
+        <f t="shared" si="3"/>
         <v>622</v>
       </c>
       <c r="K123" s="2" t="str">
         <f>IF(VLOOKUP(C123,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L123" s="21">
+      <c r="L123" s="20">
         <v>45032</v>
       </c>
-      <c r="M123" s="8">
+      <c r="M123" s="7">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:13">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>45032</v>
       </c>
       <c r="B124" s="2" t="str">
@@ -7962,22 +7991,22 @@
         <v>196</v>
       </c>
       <c r="J124" s="2">
-        <f>SUM(G124:I124)</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="K124" s="2" t="str">
         <f>IF(VLOOKUP(C124,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L124" s="21">
+      <c r="L124" s="20">
         <v>45032</v>
       </c>
-      <c r="M124" s="8">
+      <c r="M124" s="7">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <v>45032</v>
       </c>
       <c r="B125" s="2" t="str">
@@ -8006,22 +8035,22 @@
         <v>191</v>
       </c>
       <c r="J125" s="2">
-        <f>SUM(G125:I125)</f>
+        <f t="shared" si="3"/>
         <v>707</v>
       </c>
       <c r="K125" s="2" t="str">
         <f>IF(VLOOKUP(C125,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L125" s="21">
+      <c r="L125" s="20">
         <v>45032</v>
       </c>
-      <c r="M125" s="8">
+      <c r="M125" s="7">
         <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <v>45032</v>
       </c>
       <c r="B126" s="2" t="str">
@@ -8050,22 +8079,22 @@
         <v>235</v>
       </c>
       <c r="J126" s="2">
-        <f>SUM(G126:I126)</f>
+        <f t="shared" si="3"/>
         <v>632</v>
       </c>
       <c r="K126" s="2" t="str">
         <f>IF(VLOOKUP(C126,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L126" s="21">
+      <c r="L126" s="20">
         <v>45032</v>
       </c>
-      <c r="M126" s="8">
+      <c r="M126" s="7">
         <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <v>45032</v>
       </c>
       <c r="B127" s="2" t="str">
@@ -8094,22 +8123,22 @@
         <v>194</v>
       </c>
       <c r="J127" s="2">
-        <f>SUM(G127:I127)</f>
+        <f t="shared" si="3"/>
         <v>605</v>
       </c>
       <c r="K127" s="2" t="str">
         <f>IF(VLOOKUP(C127,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L127" s="21">
+      <c r="L127" s="20">
         <v>45032</v>
       </c>
-      <c r="M127" s="8">
+      <c r="M127" s="7">
         <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:13">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <v>45032</v>
       </c>
       <c r="B128" s="2" t="str">
@@ -8138,22 +8167,22 @@
         <v>232</v>
       </c>
       <c r="J128" s="2">
-        <f>SUM(G128:I128)</f>
+        <f t="shared" si="3"/>
         <v>620</v>
       </c>
       <c r="K128" s="2" t="str">
         <f>IF(VLOOKUP(C128,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L128" s="21">
+      <c r="L128" s="20">
         <v>45032</v>
       </c>
-      <c r="M128" s="8">
+      <c r="M128" s="7">
         <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:13">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <v>45032</v>
       </c>
       <c r="B129" s="2" t="str">
@@ -8182,22 +8211,22 @@
         <v>189</v>
       </c>
       <c r="J129" s="2">
-        <f>SUM(G129:I129)</f>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
       <c r="K129" s="2" t="str">
         <f>IF(VLOOKUP(C129,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L129" s="21">
+      <c r="L129" s="20">
         <v>45032</v>
       </c>
-      <c r="M129" s="8">
+      <c r="M129" s="7">
         <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:13">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <v>45032</v>
       </c>
       <c r="B130" s="2" t="str">
@@ -8226,22 +8255,22 @@
         <v>236</v>
       </c>
       <c r="J130" s="2">
-        <f>SUM(G130:I130)</f>
+        <f t="shared" si="3"/>
         <v>640</v>
       </c>
       <c r="K130" s="2" t="str">
         <f>IF(VLOOKUP(C130,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L130" s="21">
+      <c r="L130" s="20">
         <v>45032</v>
       </c>
-      <c r="M130" s="8">
+      <c r="M130" s="7">
         <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="6">
+      <c r="A131" s="5">
         <v>45032</v>
       </c>
       <c r="B131" s="2" t="str">
@@ -8270,22 +8299,22 @@
         <v>237</v>
       </c>
       <c r="J131" s="2">
-        <f>SUM(G131:I131)</f>
+        <f t="shared" ref="J131:J164" si="4">SUM(G131:I131)</f>
         <v>618</v>
       </c>
       <c r="K131" s="2" t="str">
         <f>IF(VLOOKUP(C131,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L131" s="21">
+      <c r="L131" s="20">
         <v>45032</v>
       </c>
-      <c r="M131" s="8">
+      <c r="M131" s="7">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="6">
+      <c r="A132" s="5">
         <v>45032</v>
       </c>
       <c r="B132" s="2" t="str">
@@ -8314,22 +8343,22 @@
         <v>190</v>
       </c>
       <c r="J132" s="2">
-        <f>SUM(G132:I132)</f>
+        <f t="shared" si="4"/>
         <v>610</v>
       </c>
       <c r="K132" s="2" t="str">
         <f>IF(VLOOKUP(C132,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L132" s="21">
+      <c r="L132" s="20">
         <v>45032</v>
       </c>
-      <c r="M132" s="8">
+      <c r="M132" s="7">
         <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:13">
-      <c r="A133" s="6">
+      <c r="A133" s="5">
         <v>45032</v>
       </c>
       <c r="B133" s="2" t="str">
@@ -8358,22 +8387,22 @@
         <v>178</v>
       </c>
       <c r="J133" s="2">
-        <f>SUM(G133:I133)</f>
+        <f t="shared" si="4"/>
         <v>614</v>
       </c>
       <c r="K133" s="2" t="str">
         <f>IF(VLOOKUP(C133,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L133" s="21">
+      <c r="L133" s="20">
         <v>45032</v>
       </c>
-      <c r="M133" s="8">
+      <c r="M133" s="7">
         <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="6">
+      <c r="A134" s="5">
         <v>45032</v>
       </c>
       <c r="B134" s="2" t="str">
@@ -8402,22 +8431,22 @@
         <v>241</v>
       </c>
       <c r="J134" s="2">
-        <f>SUM(G134:I134)</f>
+        <f t="shared" si="4"/>
         <v>660</v>
       </c>
       <c r="K134" s="2" t="str">
         <f>IF(VLOOKUP(C134,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L134" s="21">
+      <c r="L134" s="20">
         <v>45032</v>
       </c>
-      <c r="M134" s="8">
+      <c r="M134" s="7">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:13">
-      <c r="A135" s="6">
+      <c r="A135" s="5">
         <v>45032</v>
       </c>
       <c r="B135" s="2" t="str">
@@ -8446,22 +8475,22 @@
         <v>162</v>
       </c>
       <c r="J135" s="2">
-        <f>SUM(G135:I135)</f>
+        <f t="shared" si="4"/>
         <v>534</v>
       </c>
       <c r="K135" s="2" t="str">
         <f>IF(VLOOKUP(C135,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L135" s="21">
+      <c r="L135" s="20">
         <v>45032</v>
       </c>
-      <c r="M135" s="8">
+      <c r="M135" s="7">
         <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="6">
+      <c r="A136" s="5">
         <v>45032</v>
       </c>
       <c r="B136" s="2" t="str">
@@ -8490,22 +8519,22 @@
         <v>266</v>
       </c>
       <c r="J136" s="2">
-        <f>SUM(G136:I136)</f>
+        <f t="shared" si="4"/>
         <v>610</v>
       </c>
       <c r="K136" s="2" t="str">
         <f>IF(VLOOKUP(C136,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>0</v>
       </c>
-      <c r="L136" s="21">
+      <c r="L136" s="20">
         <v>45032</v>
       </c>
-      <c r="M136" s="8">
+      <c r="M136" s="7">
         <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="6">
+      <c r="A137" s="5">
         <v>45032</v>
       </c>
       <c r="B137" s="2" t="str">
@@ -8534,223 +8563,2019 @@
         <v>213</v>
       </c>
       <c r="J137" s="2">
-        <f>SUM(G137:I137)</f>
+        <f t="shared" si="4"/>
         <v>637</v>
       </c>
       <c r="K137" s="2" t="str">
         <f>IF(VLOOKUP(C137,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
         <v>15</v>
       </c>
-      <c r="L137" s="21">
+      <c r="L137" s="20">
         <v>45032</v>
       </c>
-      <c r="M137" s="8">
+      <c r="M137" s="7">
         <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="5"/>
-      <c r="L138" s="5"/>
+      <c r="A138" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f>VLOOKUP(C138,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>C05</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E138" s="3">
+        <v>2</v>
+      </c>
+      <c r="F138" s="3">
+        <v>6</v>
+      </c>
+      <c r="G138" s="2">
+        <v>209</v>
+      </c>
+      <c r="H138" s="2">
+        <v>191</v>
+      </c>
+      <c r="I138" s="2">
+        <v>145</v>
+      </c>
+      <c r="J138" s="2">
+        <f t="shared" si="4"/>
+        <v>545</v>
+      </c>
+      <c r="K138" s="2" t="str">
+        <f>IF(VLOOKUP(C138,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M138" s="7">
+        <v>136</v>
+      </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="5"/>
-      <c r="L139" s="5"/>
+      <c r="A139" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f>VLOOKUP(C139,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>C02</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E139" s="3">
+        <v>2</v>
+      </c>
+      <c r="F139" s="3">
+        <v>6</v>
+      </c>
+      <c r="G139" s="2">
+        <v>145</v>
+      </c>
+      <c r="H139" s="2">
+        <v>198</v>
+      </c>
+      <c r="I139" s="2">
+        <v>203</v>
+      </c>
+      <c r="J139" s="2">
+        <f t="shared" si="4"/>
+        <v>546</v>
+      </c>
+      <c r="K139" s="2" t="str">
+        <f>IF(VLOOKUP(C139,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>15</v>
+      </c>
+      <c r="L139" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M139" s="7">
+        <v>137</v>
+      </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="5"/>
-      <c r="L140" s="5"/>
+      <c r="A140" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <f>VLOOKUP(C140,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>C03</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F140" s="3">
+        <v>6</v>
+      </c>
+      <c r="G140" s="2">
+        <v>189</v>
+      </c>
+      <c r="H140" s="2">
+        <v>177</v>
+      </c>
+      <c r="I140" s="2">
+        <v>177</v>
+      </c>
+      <c r="J140" s="2">
+        <f t="shared" si="4"/>
+        <v>543</v>
+      </c>
+      <c r="K140" s="2" t="str">
+        <f>IF(VLOOKUP(C140,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M140" s="7">
+        <v>138</v>
+      </c>
     </row>
     <row r="141" spans="1:13">
-      <c r="A141" s="5"/>
-      <c r="L141" s="5"/>
+      <c r="A141" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <f>VLOOKUP(C141,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>D02</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3">
+        <v>6</v>
+      </c>
+      <c r="G141" s="2">
+        <v>178</v>
+      </c>
+      <c r="H141" s="2">
+        <v>182</v>
+      </c>
+      <c r="I141" s="2">
+        <v>173</v>
+      </c>
+      <c r="J141" s="2">
+        <f t="shared" si="4"/>
+        <v>533</v>
+      </c>
+      <c r="K141" s="2" t="str">
+        <f>IF(VLOOKUP(C141,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M141" s="7">
+        <v>139</v>
+      </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="5"/>
-      <c r="L142" s="5"/>
+      <c r="A142" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B142" s="2" t="str">
+        <f>VLOOKUP(C142,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>D05</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E142" s="3">
+        <v>2</v>
+      </c>
+      <c r="F142" s="3">
+        <v>6</v>
+      </c>
+      <c r="G142" s="2">
+        <v>223</v>
+      </c>
+      <c r="H142" s="2">
+        <v>161</v>
+      </c>
+      <c r="I142" s="2">
+        <v>263</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="4"/>
+        <v>647</v>
+      </c>
+      <c r="K142" s="2" t="str">
+        <f>IF(VLOOKUP(C142,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M142" s="7">
+        <v>140</v>
+      </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="5"/>
-      <c r="L143" s="5"/>
+      <c r="A143" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B143" s="2" t="str">
+        <f>VLOOKUP(C143,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>D04</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E143" s="3">
+        <v>2</v>
+      </c>
+      <c r="F143" s="3">
+        <v>6</v>
+      </c>
+      <c r="G143" s="2">
+        <v>132</v>
+      </c>
+      <c r="H143" s="2">
+        <v>197</v>
+      </c>
+      <c r="I143" s="2">
+        <v>188</v>
+      </c>
+      <c r="J143" s="2">
+        <f t="shared" si="4"/>
+        <v>517</v>
+      </c>
+      <c r="K143" s="2" t="str">
+        <f>IF(VLOOKUP(C143,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M143" s="7">
+        <v>141</v>
+      </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="5"/>
-      <c r="L144" s="5"/>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="5"/>
-      <c r="L145" s="5"/>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="5"/>
-      <c r="L146" s="5"/>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="5"/>
-      <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="5"/>
-      <c r="L148" s="5"/>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="5"/>
-      <c r="L149" s="5"/>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="5"/>
-      <c r="L150" s="5"/>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="5"/>
-      <c r="L151" s="5"/>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="5"/>
-      <c r="L152" s="5"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="5"/>
-      <c r="L153" s="5"/>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="5"/>
-      <c r="L154" s="5"/>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="5"/>
-      <c r="L155" s="5"/>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="5"/>
-      <c r="L156" s="5"/>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="5"/>
-      <c r="L157" s="5"/>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="5"/>
-      <c r="L158" s="5"/>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="5"/>
-      <c r="L159" s="5"/>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="5"/>
-      <c r="L160" s="5"/>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="5"/>
-      <c r="L161" s="5"/>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="5"/>
-      <c r="L162" s="5"/>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="5"/>
-      <c r="L163" s="5"/>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="5"/>
-      <c r="L164" s="5"/>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="A144" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <f>VLOOKUP(C144,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>A04</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2</v>
+      </c>
+      <c r="F144" s="3">
+        <v>6</v>
+      </c>
+      <c r="G144" s="2">
+        <v>189</v>
+      </c>
+      <c r="H144" s="2">
+        <v>188</v>
+      </c>
+      <c r="I144" s="2">
+        <v>179</v>
+      </c>
+      <c r="J144" s="2">
+        <f t="shared" si="4"/>
+        <v>556</v>
+      </c>
+      <c r="K144" s="2" t="str">
+        <f>IF(VLOOKUP(C144,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>15</v>
+      </c>
+      <c r="L144" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M144" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <f>VLOOKUP(C145,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>A01</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2</v>
+      </c>
+      <c r="F145" s="3">
+        <v>6</v>
+      </c>
+      <c r="G145" s="2">
+        <v>172</v>
+      </c>
+      <c r="H145" s="2">
+        <v>279</v>
+      </c>
+      <c r="I145" s="2">
+        <v>254</v>
+      </c>
+      <c r="J145" s="2">
+        <f t="shared" si="4"/>
+        <v>705</v>
+      </c>
+      <c r="K145" s="2" t="str">
+        <f>IF(VLOOKUP(C145,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M145" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <f>VLOOKUP(C146,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>A02</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E146" s="3">
+        <v>2</v>
+      </c>
+      <c r="F146" s="3">
+        <v>6</v>
+      </c>
+      <c r="G146" s="2">
+        <v>220</v>
+      </c>
+      <c r="H146" s="2">
+        <v>178</v>
+      </c>
+      <c r="I146" s="2">
+        <v>201</v>
+      </c>
+      <c r="J146" s="2">
+        <f t="shared" si="4"/>
+        <v>599</v>
+      </c>
+      <c r="K146" s="2" t="str">
+        <f>IF(VLOOKUP(C146,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M146" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <f>VLOOKUP(C147,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>F03</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2</v>
+      </c>
+      <c r="F147" s="3">
+        <v>6</v>
+      </c>
+      <c r="G147" s="2">
+        <v>172</v>
+      </c>
+      <c r="H147" s="2">
+        <v>172</v>
+      </c>
+      <c r="I147" s="2">
+        <v>229</v>
+      </c>
+      <c r="J147" s="2">
+        <f t="shared" si="4"/>
+        <v>573</v>
+      </c>
+      <c r="K147" s="2" t="str">
+        <f>IF(VLOOKUP(C147,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M147" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <f>VLOOKUP(C148,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>F02</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E148" s="3">
+        <v>2</v>
+      </c>
+      <c r="F148" s="3">
+        <v>6</v>
+      </c>
+      <c r="G148" s="2">
+        <v>164</v>
+      </c>
+      <c r="H148" s="2">
+        <v>185</v>
+      </c>
+      <c r="I148" s="2">
+        <v>201</v>
+      </c>
+      <c r="J148" s="2">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="K148" s="2" t="str">
+        <f>IF(VLOOKUP(C148,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>15</v>
+      </c>
+      <c r="L148" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M148" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B149" s="2" t="str">
+        <f>VLOOKUP(C149,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>F01</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E149" s="3">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3">
+        <v>6</v>
+      </c>
+      <c r="G149" s="2">
+        <v>208</v>
+      </c>
+      <c r="H149" s="2">
+        <v>171</v>
+      </c>
+      <c r="I149" s="2">
+        <v>225</v>
+      </c>
+      <c r="J149" s="2">
+        <f t="shared" si="4"/>
+        <v>604</v>
+      </c>
+      <c r="K149" s="2" t="str">
+        <f>IF(VLOOKUP(C149,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M149" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B150" s="2" t="str">
+        <f>VLOOKUP(C150,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>B02</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F150" s="3">
+        <v>6</v>
+      </c>
+      <c r="G150" s="2">
+        <v>227</v>
+      </c>
+      <c r="H150" s="2">
+        <v>195</v>
+      </c>
+      <c r="I150" s="2">
+        <v>214</v>
+      </c>
+      <c r="J150" s="2">
+        <f t="shared" si="4"/>
+        <v>636</v>
+      </c>
+      <c r="K150" s="2" t="str">
+        <f>IF(VLOOKUP(C150,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>15</v>
+      </c>
+      <c r="L150" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M150" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B151" s="2" t="str">
+        <f>VLOOKUP(C151,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>B01</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E151" s="3">
+        <v>2</v>
+      </c>
+      <c r="F151" s="3">
+        <v>6</v>
+      </c>
+      <c r="G151" s="2">
+        <v>177</v>
+      </c>
+      <c r="H151" s="2">
+        <v>163</v>
+      </c>
+      <c r="I151" s="2">
+        <v>241</v>
+      </c>
+      <c r="J151" s="2">
+        <f t="shared" si="4"/>
+        <v>581</v>
+      </c>
+      <c r="K151" s="2" t="str">
+        <f>IF(VLOOKUP(C151,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L151" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M151" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B152" s="2" t="str">
+        <f>VLOOKUP(C152,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>B03</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E152" s="3">
+        <v>2</v>
+      </c>
+      <c r="F152" s="3">
+        <v>6</v>
+      </c>
+      <c r="G152" s="2">
+        <v>216</v>
+      </c>
+      <c r="H152" s="2">
+        <v>221</v>
+      </c>
+      <c r="I152" s="2">
+        <v>204</v>
+      </c>
+      <c r="J152" s="2">
+        <f t="shared" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="K152" s="2" t="str">
+        <f>IF(VLOOKUP(C152,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L152" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M152" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B153" s="2" t="str">
+        <f>VLOOKUP(C153,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>H01</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+      <c r="F153" s="3">
+        <v>6</v>
+      </c>
+      <c r="G153" s="2">
+        <v>234</v>
+      </c>
+      <c r="H153" s="2">
+        <v>219</v>
+      </c>
+      <c r="I153" s="2">
+        <v>167</v>
+      </c>
+      <c r="J153" s="2">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="K153" s="2" t="str">
+        <f>IF(VLOOKUP(C153,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M153" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f>VLOOKUP(C154,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>H02</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2</v>
+      </c>
+      <c r="F154" s="3">
+        <v>6</v>
+      </c>
+      <c r="G154" s="2">
+        <v>189</v>
+      </c>
+      <c r="H154" s="2">
+        <v>191</v>
+      </c>
+      <c r="I154" s="2">
+        <v>211</v>
+      </c>
+      <c r="J154" s="2">
+        <f t="shared" si="4"/>
+        <v>591</v>
+      </c>
+      <c r="K154" s="2" t="str">
+        <f>IF(VLOOKUP(C154,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M154" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f>VLOOKUP(C155,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>H03</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E155" s="3">
+        <v>2</v>
+      </c>
+      <c r="F155" s="3">
+        <v>6</v>
+      </c>
+      <c r="G155" s="2">
+        <v>257</v>
+      </c>
+      <c r="H155" s="2">
+        <v>138</v>
+      </c>
+      <c r="I155" s="2">
+        <v>194</v>
+      </c>
+      <c r="J155" s="2">
+        <f t="shared" si="4"/>
+        <v>589</v>
+      </c>
+      <c r="K155" s="2" t="str">
+        <f>IF(VLOOKUP(C155,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M155" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <f>VLOOKUP(C156,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>I01</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3">
+        <v>6</v>
+      </c>
+      <c r="G156" s="2">
+        <v>204</v>
+      </c>
+      <c r="H156" s="2">
+        <v>190</v>
+      </c>
+      <c r="I156" s="2">
+        <v>173</v>
+      </c>
+      <c r="J156" s="2">
+        <f t="shared" si="4"/>
+        <v>567</v>
+      </c>
+      <c r="K156" s="2" t="str">
+        <f>IF(VLOOKUP(C156,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M156" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B157" s="2" t="str">
+        <f>VLOOKUP(C157,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>I02</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E157" s="3">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3">
+        <v>6</v>
+      </c>
+      <c r="G157" s="2">
+        <v>197</v>
+      </c>
+      <c r="H157" s="2">
+        <v>189</v>
+      </c>
+      <c r="I157" s="2">
+        <v>172</v>
+      </c>
+      <c r="J157" s="2">
+        <f t="shared" si="4"/>
+        <v>558</v>
+      </c>
+      <c r="K157" s="2" t="str">
+        <f>IF(VLOOKUP(C157,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>15</v>
+      </c>
+      <c r="L157" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M157" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B158" s="2" t="str">
+        <f>VLOOKUP(C158,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>I03</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2</v>
+      </c>
+      <c r="F158" s="3">
+        <v>6</v>
+      </c>
+      <c r="G158" s="2">
+        <v>194</v>
+      </c>
+      <c r="H158" s="2">
+        <v>183</v>
+      </c>
+      <c r="I158" s="2">
+        <v>226</v>
+      </c>
+      <c r="J158" s="2">
+        <f t="shared" si="4"/>
+        <v>603</v>
+      </c>
+      <c r="K158" s="2" t="str">
+        <f>IF(VLOOKUP(C158,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M158" s="7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B159" s="2" t="str">
+        <f>VLOOKUP(C159,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>G01</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2</v>
+      </c>
+      <c r="F159" s="3">
+        <v>6</v>
+      </c>
+      <c r="G159" s="2">
+        <v>219</v>
+      </c>
+      <c r="H159" s="2">
+        <v>195</v>
+      </c>
+      <c r="I159" s="2">
+        <v>237</v>
+      </c>
+      <c r="J159" s="2">
+        <f t="shared" si="4"/>
+        <v>651</v>
+      </c>
+      <c r="K159" s="2" t="str">
+        <f>IF(VLOOKUP(C159,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L159" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M159" s="7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B160" s="2" t="str">
+        <f>VLOOKUP(C160,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>G03</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E160" s="3">
+        <v>2</v>
+      </c>
+      <c r="F160" s="3">
+        <v>6</v>
+      </c>
+      <c r="G160" s="2">
+        <v>205</v>
+      </c>
+      <c r="H160" s="2">
+        <v>215</v>
+      </c>
+      <c r="I160" s="2">
+        <v>218</v>
+      </c>
+      <c r="J160" s="2">
+        <f t="shared" si="4"/>
+        <v>638</v>
+      </c>
+      <c r="K160" s="2" t="str">
+        <f>IF(VLOOKUP(C160,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L160" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M160" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B161" s="2" t="str">
+        <f>VLOOKUP(C161,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>G07</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2</v>
+      </c>
+      <c r="F161" s="3">
+        <v>6</v>
+      </c>
+      <c r="G161" s="2">
+        <v>203</v>
+      </c>
+      <c r="H161" s="2">
+        <v>205</v>
+      </c>
+      <c r="I161" s="2">
+        <v>215</v>
+      </c>
+      <c r="J161" s="2">
+        <f t="shared" si="4"/>
+        <v>623</v>
+      </c>
+      <c r="K161" s="2" t="str">
+        <f>IF(VLOOKUP(C161,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L161" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M161" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B162" s="2" t="str">
+        <f>VLOOKUP(C162,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>J08</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E162" s="3">
+        <v>2</v>
+      </c>
+      <c r="F162" s="3">
+        <v>6</v>
+      </c>
+      <c r="G162" s="2">
+        <v>194</v>
+      </c>
+      <c r="H162" s="2">
+        <v>137</v>
+      </c>
+      <c r="I162" s="2">
+        <v>219</v>
+      </c>
+      <c r="J162" s="2">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="K162" s="2" t="str">
+        <f>IF(VLOOKUP(C162,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>15</v>
+      </c>
+      <c r="L162" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M162" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B163" s="2" t="str">
+        <f>VLOOKUP(C163,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>J03</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E163" s="3">
+        <v>2</v>
+      </c>
+      <c r="F163" s="3">
+        <v>6</v>
+      </c>
+      <c r="G163" s="2">
+        <v>221</v>
+      </c>
+      <c r="H163" s="2">
+        <v>234</v>
+      </c>
+      <c r="I163" s="2">
+        <v>204</v>
+      </c>
+      <c r="J163" s="2">
+        <f t="shared" si="4"/>
+        <v>659</v>
+      </c>
+      <c r="K163" s="2" t="str">
+        <f>IF(VLOOKUP(C163,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M163" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="5">
+        <v>45039</v>
+      </c>
+      <c r="B164" s="2" t="str">
+        <f>VLOOKUP(C164,상주리그선수정리!$A$1:$F$70,2,FALSE)</f>
+        <v>J05</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E164" s="3">
+        <v>2</v>
+      </c>
+      <c r="F164" s="3">
+        <v>6</v>
+      </c>
+      <c r="G164" s="2">
+        <v>188</v>
+      </c>
+      <c r="H164" s="2">
+        <v>171</v>
+      </c>
+      <c r="I164" s="2">
+        <v>132</v>
+      </c>
+      <c r="J164" s="2">
+        <f t="shared" si="4"/>
+        <v>491</v>
+      </c>
+      <c r="K164" s="2" t="str">
+        <f>IF(VLOOKUP(C164,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","15","0")</f>
+        <v>0</v>
+      </c>
+      <c r="L164" s="5">
+        <v>45039</v>
+      </c>
+      <c r="M164" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="5"/>
-      <c r="L165" s="5"/>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="20"/>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="5"/>
-      <c r="L166" s="5"/>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="20"/>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="5"/>
-      <c r="L167" s="5"/>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="20"/>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="5"/>
-      <c r="L168" s="5"/>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="20"/>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="5"/>
-      <c r="L169" s="5"/>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="20"/>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="5"/>
-      <c r="L170" s="5"/>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="20"/>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="5"/>
-      <c r="L171" s="5"/>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="20"/>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="5"/>
-      <c r="L172" s="5"/>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="20"/>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="5"/>
-      <c r="L173" s="5"/>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="20"/>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="5"/>
-      <c r="L174" s="5"/>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="20"/>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="5"/>
-      <c r="L175" s="5"/>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="20"/>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="5"/>
-      <c r="L176" s="5"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="20"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="5"/>
-      <c r="L177" s="5"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="20"/>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="5"/>
-      <c r="L178" s="5"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="20"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="5"/>
-      <c r="L179" s="5"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="20"/>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="5"/>
-      <c r="L180" s="5"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="20"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="5"/>
-      <c r="L181" s="5"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="20"/>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="5"/>
-      <c r="L182" s="5"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="20"/>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="5"/>
-      <c r="L183" s="5"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="20"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="5"/>
-      <c r="L184" s="5"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="20"/>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="5"/>
-      <c r="L185" s="5"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="20"/>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="5"/>
-      <c r="L186" s="5"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="20"/>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="5"/>
-      <c r="L187" s="5"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="20"/>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="5"/>
-      <c r="L188" s="5"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="20"/>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="5"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="20"/>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="5"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="20"/>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="5"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="20"/>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="5"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="20"/>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="5"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="20"/>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="5"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="20"/>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="5"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="20"/>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="5"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="20"/>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="5"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="20"/>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="5"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="20"/>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="5"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="20"/>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="5"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="20"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="5"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="20"/>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="5"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="20"/>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="5"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="20"/>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="5"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="20"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="5"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="20"/>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="5"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="20"/>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="5"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="20"/>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="5"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="20"/>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="5"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="20"/>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="5"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="20"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="5"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="20"/>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="5"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="20"/>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="5"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="20"/>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="5"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="20"/>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="5"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="20"/>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" s="5"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="20"/>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" s="5"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="20"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" s="5"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="20"/>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="5"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="20"/>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="5"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="20"/>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" s="5"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="20"/>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" s="5"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L137">
@@ -8760,18 +10585,28 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:I137">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J137">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
       <formula>5999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>599</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138:I222">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J138:J222">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>5999</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023_트윈스_상주리그정리.xlsx
+++ b/2023_트윈스_상주리그정리.xlsx
@@ -13,7 +13,7 @@
     <sheet name="상주리그_팀" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">상주리그_개인전종합!$A$2:$K$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">상주리그_개인전종합!$A$2:$R$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">상주리그_주차별_결과!$A$2:$L$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">상주리그선수정리!$B$1:$F$40</definedName>
   </definedNames>
@@ -935,14 +935,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -1317,10 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1419,79 +1413,83 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" s="17">
         <f>RANK(F3,$F$3:$F$100,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="str">
         <f>VLOOKUP(C3,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>어쩌다볼링</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(VLOOKUP(C3,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E3" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C3,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2627</v>
+        <v>4549</v>
       </c>
       <c r="F3" s="14">
         <f>AVERAGE(E3/G3)</f>
-        <v>218.91666666666666</v>
+        <v>216.61904761904762</v>
       </c>
       <c r="G3" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C3) * 3</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7">
         <f>SUM(M3:P3)</f>
-        <v>2627</v>
+        <v>2741</v>
       </c>
       <c r="I3" s="24">
         <f>H3/12</f>
-        <v>218.91666666666666</v>
+        <v>228.41666666666666</v>
       </c>
       <c r="J3" s="2">
         <f>SUM(M3:R3)</f>
-        <v>2627</v>
+        <v>3991</v>
       </c>
       <c r="K3" s="26">
-        <f>J3/G3</f>
-        <v>218.91666666666666</v>
+        <f>J3/18</f>
+        <v>221.72222222222223</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="M3" s="2">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="N3" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O3" s="2">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="P3" s="2">
-        <v>564</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+        <v>645</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>636</v>
+      </c>
+      <c r="R3" s="2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" s="17">
         <f>RANK(F4,$F$3:$F$100,0)</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>VLOOKUP(C4,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>어쩌다볼링</v>
+        <v>포인트</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IF(VLOOKUP(C4,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1499,11 +1497,11 @@
       </c>
       <c r="E4" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C4,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4549</v>
+        <v>4155</v>
       </c>
       <c r="F4" s="14">
         <f>AVERAGE(E4/G4)</f>
-        <v>216.61904761904762</v>
+        <v>197.85714285714286</v>
       </c>
       <c r="G4" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C4) * 3</f>
@@ -1511,53 +1509,53 @@
       </c>
       <c r="H4" s="7">
         <f>SUM(M4:P4)</f>
-        <v>2741</v>
+        <v>2449</v>
       </c>
       <c r="I4" s="24">
         <f>H4/12</f>
-        <v>228.41666666666666</v>
+        <v>204.08333333333334</v>
       </c>
       <c r="J4" s="2">
         <f>SUM(M4:R4)</f>
-        <v>3991</v>
+        <v>3592</v>
       </c>
       <c r="K4" s="26">
         <f>J4/18</f>
-        <v>221.72222222222223</v>
+        <v>199.55555555555554</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="M4" s="2">
-        <v>769</v>
+        <v>636</v>
       </c>
       <c r="N4" s="2">
-        <v>667</v>
+        <v>630</v>
       </c>
       <c r="O4" s="2">
-        <v>660</v>
+        <v>597</v>
       </c>
       <c r="P4" s="2">
-        <v>645</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>636</v>
-      </c>
-      <c r="R4" s="2">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>586</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>573</v>
+      </c>
+      <c r="R4" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" s="17">
         <f>RANK(F5,$F$3:$F$100,0)</f>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>VLOOKUP(C5,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>락</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>IF(VLOOKUP(C5,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1565,411 +1563,355 @@
       </c>
       <c r="E5" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C5,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1299</v>
+        <v>2402</v>
       </c>
       <c r="F5" s="14">
         <f>AVERAGE(E5/G5)</f>
-        <v>216.5</v>
+        <v>200.16666666666666</v>
       </c>
       <c r="G5" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C5) * 3</f>
-        <v>6</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <f>SUM(M5:P5)</f>
+        <v>2402</v>
+      </c>
+      <c r="I5" s="24">
+        <f>H5/12</f>
+        <v>200.16666666666666</v>
+      </c>
+      <c r="J5" s="2">
+        <f>SUM(M5:R5)</f>
+        <v>2402</v>
+      </c>
+      <c r="K5" s="26">
+        <f>J5/G5</f>
+        <v>200.16666666666666</v>
+      </c>
       <c r="L5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="M5" s="2">
+        <v>633</v>
+      </c>
+      <c r="N5" s="2">
+        <v>615</v>
+      </c>
+      <c r="O5" s="2">
+        <v>598</v>
+      </c>
+      <c r="P5" s="2">
+        <v>556</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="17">
         <f>RANK(F6,$F$3:$F$100,0)</f>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>VLOOKUP(C6,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>포인트</v>
+        <v>볼칠래</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(VLOOKUP(C6,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E6" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C6,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4541</v>
+        <v>2367</v>
       </c>
       <c r="F6" s="14">
         <f>AVERAGE(E6/G6)</f>
-        <v>216.23809523809524</v>
+        <v>197.25</v>
       </c>
       <c r="G6" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C6) * 3</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7">
         <f>SUM(M6:P6)</f>
-        <v>2692</v>
+        <v>2367</v>
       </c>
       <c r="I6" s="24">
         <f>H6/12</f>
-        <v>224.33333333333334</v>
+        <v>197.25</v>
       </c>
       <c r="J6" s="2">
         <f>SUM(M6:R6)</f>
-        <v>3933</v>
+        <v>2367</v>
       </c>
       <c r="K6" s="26">
-        <f>J6/18</f>
-        <v>218.5</v>
+        <f>J6/G6</f>
+        <v>197.25</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="N6" s="2">
-        <v>698</v>
+        <v>605</v>
       </c>
       <c r="O6" s="2">
-        <v>641</v>
+        <v>539</v>
       </c>
       <c r="P6" s="2">
-        <v>632</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>631</v>
-      </c>
-      <c r="R6" s="2">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>534</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" s="17">
         <f>RANK(F7,$F$3:$F$100,0)</f>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>VLOOKUP(C7,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>샷스핀</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IF(VLOOKUP(C7,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E7" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C7,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4523</v>
+        <v>2893</v>
       </c>
       <c r="F7" s="14">
         <f>AVERAGE(E7/G7)</f>
-        <v>215.38095238095238</v>
+        <v>192.86666666666667</v>
       </c>
       <c r="G7" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C7) * 3</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <f>SUM(M7:P7)</f>
-        <v>2707</v>
+        <v>2347</v>
       </c>
       <c r="I7" s="24">
         <f>H7/12</f>
-        <v>225.58333333333334</v>
+        <v>195.58333333333334</v>
       </c>
       <c r="J7" s="2">
         <f>SUM(M7:R7)</f>
-        <v>3919</v>
+        <v>2893</v>
       </c>
       <c r="K7" s="26">
-        <f>J7/18</f>
-        <v>217.72222222222223</v>
+        <f>J7/G7</f>
+        <v>192.86666666666667</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="M7" s="2">
-        <v>712</v>
+        <v>634</v>
       </c>
       <c r="N7" s="2">
-        <v>705</v>
+        <v>582</v>
       </c>
       <c r="O7" s="2">
-        <v>647</v>
+        <v>576</v>
       </c>
       <c r="P7" s="2">
-        <v>643</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>608</v>
-      </c>
-      <c r="R7" s="2">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>555</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>546</v>
+      </c>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" s="17">
         <f>RANK(F8,$F$3:$F$100,0)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>VLOOKUP(C8,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>트윈스</v>
+        <v>볼칠래</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IF(VLOOKUP(C8,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E8" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C8,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3861</v>
+        <v>1299</v>
       </c>
       <c r="F8" s="14">
         <f>AVERAGE(E8/G8)</f>
-        <v>214.5</v>
+        <v>216.5</v>
       </c>
       <c r="G8" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C8) * 3</f>
-        <v>18</v>
-      </c>
-      <c r="H8" s="7">
-        <f>SUM(M8:P8)</f>
-        <v>2701</v>
-      </c>
-      <c r="I8" s="24">
-        <f>H8/12</f>
-        <v>225.08333333333334</v>
-      </c>
-      <c r="J8" s="2">
-        <f>SUM(M8:R8)</f>
-        <v>3861</v>
-      </c>
-      <c r="K8" s="26">
-        <f>J8/18</f>
-        <v>214.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="3">
-        <v>707</v>
-      </c>
-      <c r="N8" s="3">
-        <v>696</v>
-      </c>
-      <c r="O8" s="3">
-        <v>664</v>
-      </c>
-      <c r="P8" s="3">
-        <v>634</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>587</v>
-      </c>
-      <c r="R8" s="3">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>108</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" s="17">
         <f>RANK(F9,$F$3:$F$100,0)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>VLOOKUP(C9,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>볼칠래</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IF(VLOOKUP(C9,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E9" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C9,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3217</v>
+        <v>1804</v>
       </c>
       <c r="F9" s="14">
         <f>AVERAGE(E9/G9)</f>
-        <v>214.46666666666667</v>
+        <v>200.44444444444446</v>
       </c>
       <c r="G9" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C9) * 3</f>
-        <v>15</v>
-      </c>
-      <c r="H9" s="7">
-        <f>SUM(M9:P9)</f>
-        <v>2585</v>
-      </c>
-      <c r="I9" s="24">
-        <f>H9/12</f>
-        <v>215.41666666666666</v>
-      </c>
-      <c r="J9" s="2">
-        <f>SUM(M9:R9)</f>
-        <v>3217</v>
-      </c>
-      <c r="K9" s="26">
-        <f>J9/G9</f>
-        <v>214.46666666666667</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="3">
-        <v>653</v>
-      </c>
-      <c r="N9" s="3">
-        <v>651</v>
-      </c>
-      <c r="O9" s="3">
-        <v>644</v>
-      </c>
-      <c r="P9" s="3">
-        <v>637</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>632</v>
-      </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+        <v>109</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" s="17">
         <f>RANK(F10,$F$3:$F$100,0)</f>
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP(C10,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>탑스타</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IF(VLOOKUP(C10,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E10" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C10,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1271</v>
+        <v>561</v>
       </c>
       <c r="F10" s="14">
         <f>AVERAGE(E10/G10)</f>
-        <v>211.83333333333334</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C10) * 3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="24"/>
       <c r="J10" s="1"/>
       <c r="K10" s="22"/>
       <c r="L10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
+        <v>87</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="17">
         <f>RANK(F11,$F$3:$F$100,0)</f>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="str">
         <f>VLOOKUP(C11,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>트윈스</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IF(VLOOKUP(C11,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>남</v>
+        <v>여</v>
       </c>
       <c r="E11" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C11,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3810</v>
+        <v>3878</v>
       </c>
       <c r="F11" s="14">
         <f>AVERAGE(E11/G11)</f>
-        <v>211.66666666666666</v>
+        <v>184.66666666666666</v>
       </c>
       <c r="G11" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C11) * 3</f>
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <f>SUM(M11:P11)</f>
-        <v>2595</v>
-      </c>
-      <c r="I11" s="24">
-        <f>H11/12</f>
-        <v>216.25</v>
-      </c>
-      <c r="J11" s="2">
-        <f>SUM(M11:R11)</f>
-        <v>3810</v>
-      </c>
-      <c r="K11" s="26">
-        <f>J11/18</f>
-        <v>211.66666666666666</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="2">
-        <v>677</v>
-      </c>
-      <c r="N11" s="21">
-        <v>659</v>
-      </c>
-      <c r="O11" s="2">
-        <v>638</v>
-      </c>
-      <c r="P11" s="2">
-        <v>621</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>610</v>
-      </c>
-      <c r="R11" s="2">
-        <v>605</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="17">
         <f>RANK(F12,$F$3:$F$100,0)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP(C12,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>락</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(VLOOKUP(C12,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -1977,41 +1919,61 @@
       </c>
       <c r="E12" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C12,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1886</v>
+        <v>2627</v>
       </c>
       <c r="F12" s="14">
         <f>AVERAGE(E12/G12)</f>
-        <v>209.55555555555554</v>
+        <v>218.91666666666666</v>
       </c>
       <c r="G12" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C12) * 3</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(M12:P12)</f>
+        <v>2627</v>
+      </c>
+      <c r="I12" s="24">
+        <f>H12/12</f>
+        <v>218.91666666666666</v>
+      </c>
+      <c r="J12" s="2">
+        <f>SUM(M12:R12)</f>
+        <v>2627</v>
+      </c>
+      <c r="K12" s="26">
+        <f>J12/G12</f>
+        <v>218.91666666666666</v>
+      </c>
       <c r="L12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M12" s="2">
+        <v>778</v>
+      </c>
+      <c r="N12" s="2">
+        <v>666</v>
+      </c>
+      <c r="O12" s="2">
+        <v>619</v>
+      </c>
+      <c r="P12" s="2">
+        <v>564</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="17">
         <f>RANK(F13,$F$3:$F$100,0)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>VLOOKUP(C13,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>어쩌다볼링</v>
+        <v>포인트</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IF(VLOOKUP(C13,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2019,11 +1981,11 @@
       </c>
       <c r="E13" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C13,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4393</v>
+        <v>4541</v>
       </c>
       <c r="F13" s="14">
         <f>AVERAGE(E13/G13)</f>
-        <v>209.1904761904762</v>
+        <v>216.23809523809524</v>
       </c>
       <c r="G13" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C13) * 3</f>
@@ -2031,53 +1993,53 @@
       </c>
       <c r="H13" s="7">
         <f>SUM(M13:P13)</f>
-        <v>2608</v>
+        <v>2692</v>
       </c>
       <c r="I13" s="24">
         <f>H13/12</f>
-        <v>217.33333333333334</v>
+        <v>224.33333333333334</v>
       </c>
       <c r="J13" s="2">
         <f>SUM(M13:R13)</f>
-        <v>3800</v>
+        <v>3933</v>
       </c>
       <c r="K13" s="26">
         <f>J13/18</f>
-        <v>211.11111111111111</v>
+        <v>218.5</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="M13" s="2">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="N13" s="2">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="O13" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P13" s="2">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="Q13" s="2">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="R13" s="2">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="17">
         <f>RANK(F14,$F$3:$F$100,0)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>VLOOKUP(C14,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>락</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(VLOOKUP(C14,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2085,41 +2047,65 @@
       </c>
       <c r="E14" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C14,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>607</v>
+        <v>4523</v>
       </c>
       <c r="F14" s="14">
         <f>AVERAGE(E14/G14)</f>
-        <v>202.33333333333334</v>
+        <v>215.38095238095238</v>
       </c>
       <c r="G14" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C14) * 3</f>
-        <v>3</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(M14:P14)</f>
+        <v>2707</v>
+      </c>
+      <c r="I14" s="24">
+        <f>H14/12</f>
+        <v>225.58333333333334</v>
+      </c>
+      <c r="J14" s="2">
+        <f>SUM(M14:R14)</f>
+        <v>3919</v>
+      </c>
+      <c r="K14" s="26">
+        <f>J14/18</f>
+        <v>217.72222222222223</v>
+      </c>
       <c r="L14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M14" s="2">
+        <v>712</v>
+      </c>
+      <c r="N14" s="2">
+        <v>705</v>
+      </c>
+      <c r="O14" s="2">
+        <v>647</v>
+      </c>
+      <c r="P14" s="2">
+        <v>643</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>608</v>
+      </c>
+      <c r="R14" s="2">
+        <v>604</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="17">
         <f>RANK(F15,$F$3:$F$100,0)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>VLOOKUP(C15,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>트윈스</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>IF(VLOOKUP(C15,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2127,65 +2113,65 @@
       </c>
       <c r="E15" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C15,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4240</v>
+        <v>3861</v>
       </c>
       <c r="F15" s="14">
         <f>AVERAGE(E15/G15)</f>
-        <v>201.9047619047619</v>
+        <v>214.5</v>
       </c>
       <c r="G15" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C15) * 3</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <f>SUM(M15:P15)</f>
-        <v>2535</v>
+        <v>2701</v>
       </c>
       <c r="I15" s="24">
         <f>H15/12</f>
-        <v>211.25</v>
+        <v>225.08333333333334</v>
       </c>
       <c r="J15" s="2">
         <f>SUM(M15:R15)</f>
-        <v>3716</v>
+        <v>3861</v>
       </c>
       <c r="K15" s="26">
         <f>J15/18</f>
-        <v>206.44444444444446</v>
+        <v>214.5</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="2">
-        <v>651</v>
-      </c>
-      <c r="N15" s="2">
-        <v>646</v>
-      </c>
-      <c r="O15" s="2">
-        <v>620</v>
-      </c>
-      <c r="P15" s="2">
-        <v>618</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>592</v>
-      </c>
-      <c r="R15" s="2">
-        <v>589</v>
+        <v>142</v>
+      </c>
+      <c r="M15" s="3">
+        <v>707</v>
+      </c>
+      <c r="N15" s="3">
+        <v>696</v>
+      </c>
+      <c r="O15" s="3">
+        <v>664</v>
+      </c>
+      <c r="P15" s="3">
+        <v>634</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>587</v>
+      </c>
+      <c r="R15" s="3">
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="17">
         <f>RANK(F16,$F$3:$F$100,0)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>VLOOKUP(C16,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>탑스타</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(VLOOKUP(C16,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2193,35 +2179,63 @@
       </c>
       <c r="E16" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C16,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1206</v>
+        <v>3217</v>
       </c>
       <c r="F16" s="14">
         <f>AVERAGE(E16/G16)</f>
-        <v>201</v>
+        <v>214.46666666666667</v>
       </c>
       <c r="G16" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C16) * 3</f>
-        <v>6</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(M16:P16)</f>
+        <v>2585</v>
+      </c>
+      <c r="I16" s="24">
+        <f>H16/12</f>
+        <v>215.41666666666666</v>
+      </c>
+      <c r="J16" s="2">
+        <f>SUM(M16:R16)</f>
+        <v>3217</v>
+      </c>
+      <c r="K16" s="26">
+        <f>J16/G16</f>
+        <v>214.46666666666667</v>
+      </c>
       <c r="L16" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>83</v>
+      </c>
+      <c r="M16" s="3">
+        <v>653</v>
+      </c>
+      <c r="N16" s="3">
+        <v>651</v>
+      </c>
+      <c r="O16" s="3">
+        <v>644</v>
+      </c>
+      <c r="P16" s="3">
+        <v>637</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>632</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="17">
         <f>RANK(F17,$F$3:$F$100,0)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="str">
         <f>VLOOKUP(C17,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>탑스타</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IF(VLOOKUP(C17,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2229,107 +2243,197 @@
       </c>
       <c r="E17" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C17,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3614</v>
+        <v>3810</v>
       </c>
       <c r="F17" s="14">
         <f>AVERAGE(E17/G17)</f>
-        <v>200.77777777777777</v>
+        <v>211.66666666666666</v>
       </c>
       <c r="G17" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C17) * 3</f>
         <v>18</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="22"/>
+      <c r="H17" s="7">
+        <f>SUM(M17:P17)</f>
+        <v>2595</v>
+      </c>
+      <c r="I17" s="24">
+        <f>H17/12</f>
+        <v>216.25</v>
+      </c>
+      <c r="J17" s="2">
+        <f>SUM(M17:R17)</f>
+        <v>3810</v>
+      </c>
+      <c r="K17" s="26">
+        <f>J17/18</f>
+        <v>211.66666666666666</v>
+      </c>
       <c r="L17" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>85</v>
+      </c>
+      <c r="M17" s="2">
+        <v>677</v>
+      </c>
+      <c r="N17" s="21">
+        <v>659</v>
+      </c>
+      <c r="O17" s="2">
+        <v>638</v>
+      </c>
+      <c r="P17" s="2">
+        <v>621</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>610</v>
+      </c>
+      <c r="R17" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="17">
         <f>RANK(F18,$F$3:$F$100,0)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="str">
         <f>VLOOKUP(C18,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>어쩌다볼링</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IF(VLOOKUP(C18,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E18" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C18,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1804</v>
+        <v>4393</v>
       </c>
       <c r="F18" s="14">
         <f>AVERAGE(E18/G18)</f>
-        <v>200.44444444444446</v>
+        <v>209.1904761904762</v>
       </c>
       <c r="G18" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C18) * 3</f>
-        <v>9</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="H18" s="7">
+        <f>SUM(M18:P18)</f>
+        <v>2608</v>
+      </c>
+      <c r="I18" s="24">
+        <f>H18/12</f>
+        <v>217.33333333333334</v>
+      </c>
+      <c r="J18" s="2">
+        <f>SUM(M18:R18)</f>
+        <v>3800</v>
+      </c>
+      <c r="K18" s="26">
+        <f>J18/18</f>
+        <v>211.11111111111111</v>
+      </c>
       <c r="L18" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>102</v>
+      </c>
+      <c r="M18" s="2">
+        <v>703</v>
+      </c>
+      <c r="N18" s="2">
+        <v>660</v>
+      </c>
+      <c r="O18" s="2">
+        <v>642</v>
+      </c>
+      <c r="P18" s="2">
+        <v>603</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>596</v>
+      </c>
+      <c r="R18" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="17">
         <f>RANK(F19,$F$3:$F$100,0)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>VLOOKUP(C19,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>락</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IF(VLOOKUP(C19,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E19" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C19,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2402</v>
+        <v>4240</v>
       </c>
       <c r="F19" s="14">
         <f>AVERAGE(E19/G19)</f>
-        <v>200.16666666666666</v>
+        <v>201.9047619047619</v>
       </c>
       <c r="G19" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C19) * 3</f>
-        <v>12</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="H19" s="7">
+        <f>SUM(M19:P19)</f>
+        <v>2535</v>
+      </c>
+      <c r="I19" s="24">
+        <f>H19/12</f>
+        <v>211.25</v>
+      </c>
+      <c r="J19" s="2">
+        <f>SUM(M19:R19)</f>
+        <v>3716</v>
+      </c>
+      <c r="K19" s="26">
+        <f>J19/18</f>
+        <v>206.44444444444446</v>
+      </c>
       <c r="L19" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>94</v>
+      </c>
+      <c r="M19" s="2">
+        <v>651</v>
+      </c>
+      <c r="N19" s="2">
+        <v>646</v>
+      </c>
+      <c r="O19" s="2">
+        <v>620</v>
+      </c>
+      <c r="P19" s="2">
+        <v>618</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>592</v>
+      </c>
+      <c r="R19" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="17">
         <f>RANK(F20,$F$3:$F$100,0)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>VLOOKUP(C20,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>핀크러쉬</v>
+        <v>볼칠래</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IF(VLOOKUP(C20,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2337,11 +2441,11 @@
       </c>
       <c r="E20" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C20,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1201</v>
+        <v>1271</v>
       </c>
       <c r="F20" s="14">
         <f>AVERAGE(E20/G20)</f>
-        <v>200.16666666666666</v>
+        <v>211.83333333333334</v>
       </c>
       <c r="G20" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C20) * 3</f>
@@ -2352,20 +2456,26 @@
       <c r="J20" s="1"/>
       <c r="K20" s="22"/>
       <c r="L20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>147</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="17">
         <f>RANK(F21,$F$3:$F$100,0)</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>VLOOKUP(C21,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>업텐션</v>
+        <v>탑스타</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="str">
         <f>IF(VLOOKUP(C21,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2373,71 +2483,83 @@
       </c>
       <c r="E21" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C21,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1193</v>
+        <v>1886</v>
       </c>
       <c r="F21" s="14">
         <f>AVERAGE(E21/G21)</f>
-        <v>198.83333333333334</v>
+        <v>209.55555555555554</v>
       </c>
       <c r="G21" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C21) * 3</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="24"/>
       <c r="J21" s="1"/>
       <c r="K21" s="22"/>
       <c r="L21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>90</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="17">
         <f>RANK(F22,$F$3:$F$100,0)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>VLOOKUP(C22,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>포인트</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>IF(VLOOKUP(C22,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E22" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C22,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4155</v>
+        <v>607</v>
       </c>
       <c r="F22" s="14">
         <f>AVERAGE(E22/G22)</f>
-        <v>197.85714285714286</v>
+        <v>202.33333333333334</v>
       </c>
       <c r="G22" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C22) * 3</f>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="24"/>
       <c r="J22" s="1"/>
       <c r="K22" s="22"/>
       <c r="L22" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>96</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="17">
         <f>RANK(F23,$F$3:$F$100,0)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>VLOOKUP(C23,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>볼칠래</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IF(VLOOKUP(C23,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2445,71 +2567,83 @@
       </c>
       <c r="E23" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C23,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3552</v>
+        <v>1206</v>
       </c>
       <c r="F23" s="14">
         <f>AVERAGE(E23/G23)</f>
-        <v>197.33333333333334</v>
+        <v>201</v>
       </c>
       <c r="G23" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C23) * 3</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="24"/>
       <c r="J23" s="1"/>
       <c r="K23" s="22"/>
       <c r="L23" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>107</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="17">
         <f>RANK(F24,$F$3:$F$100,0)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>VLOOKUP(C24,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>IF(VLOOKUP(C24,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E24" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C24,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2367</v>
+        <v>3614</v>
       </c>
       <c r="F24" s="14">
         <f>AVERAGE(E24/G24)</f>
-        <v>197.25</v>
+        <v>200.77777777777777</v>
       </c>
       <c r="G24" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C24) * 3</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="24"/>
       <c r="J24" s="1"/>
       <c r="K24" s="22"/>
       <c r="L24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>93</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="17">
         <f>RANK(F25,$F$3:$F$100,0)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>VLOOKUP(C25,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
         <v>핀크러쉬</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IF(VLOOKUP(C25,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2517,35 +2651,41 @@
       </c>
       <c r="E25" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C25,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2955</v>
+        <v>1201</v>
       </c>
       <c r="F25" s="14">
         <f>AVERAGE(E25/G25)</f>
-        <v>197</v>
+        <v>200.16666666666666</v>
       </c>
       <c r="G25" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C25) * 3</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="24"/>
       <c r="J25" s="1"/>
       <c r="K25" s="22"/>
       <c r="L25" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>95</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="17">
         <f>RANK(F26,$F$3:$F$100,0)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>VLOOKUP(C26,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>어쩌다볼링</v>
+        <v>업텐션</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IF(VLOOKUP(C26,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2553,35 +2693,41 @@
       </c>
       <c r="E26" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C26,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4125</v>
+        <v>1193</v>
       </c>
       <c r="F26" s="14">
         <f>AVERAGE(E26/G26)</f>
-        <v>196.42857142857142</v>
+        <v>198.83333333333334</v>
       </c>
       <c r="G26" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C26) * 3</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="24"/>
       <c r="J26" s="1"/>
       <c r="K26" s="22"/>
       <c r="L26" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>81</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="17">
         <f>RANK(F27,$F$3:$F$100,0)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>VLOOKUP(C27,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>샷스핀</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>IF(VLOOKUP(C27,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2589,35 +2735,41 @@
       </c>
       <c r="E27" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C27,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1178</v>
+        <v>3552</v>
       </c>
       <c r="F27" s="14">
         <f>AVERAGE(E27/G27)</f>
-        <v>196.33333333333334</v>
+        <v>197.33333333333334</v>
       </c>
       <c r="G27" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C27) * 3</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="24"/>
       <c r="J27" s="1"/>
       <c r="K27" s="22"/>
       <c r="L27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>139</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="17">
         <f>RANK(F28,$F$3:$F$100,0)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>VLOOKUP(C28,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>트윈스</v>
+        <v>핀크러쉬</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>IF(VLOOKUP(C28,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2625,35 +2777,41 @@
       </c>
       <c r="E28" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C28,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4082</v>
+        <v>2955</v>
       </c>
       <c r="F28" s="14">
         <f>AVERAGE(E28/G28)</f>
-        <v>194.38095238095238</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C28) * 3</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="24"/>
       <c r="J28" s="1"/>
       <c r="K28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>92</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="17">
         <f>RANK(F29,$F$3:$F$100,0)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>VLOOKUP(C29,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>어쩌다볼링</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>IF(VLOOKUP(C29,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2661,71 +2819,83 @@
       </c>
       <c r="E29" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C29,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2330</v>
+        <v>4125</v>
       </c>
       <c r="F29" s="14">
         <f>AVERAGE(E29/G29)</f>
-        <v>194.16666666666666</v>
+        <v>196.42857142857142</v>
       </c>
       <c r="G29" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C29) * 3</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="24"/>
       <c r="J29" s="1"/>
       <c r="K29" s="22"/>
       <c r="L29" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>100</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="17">
         <f>RANK(F30,$F$3:$F$100,0)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>VLOOKUP(C30,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>볼칠래</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D30" s="2" t="str">
         <f>IF(VLOOKUP(C30,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E30" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C30,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2893</v>
+        <v>1178</v>
       </c>
       <c r="F30" s="14">
         <f>AVERAGE(E30/G30)</f>
-        <v>192.86666666666667</v>
+        <v>196.33333333333334</v>
       </c>
       <c r="G30" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C30) * 3</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="24"/>
       <c r="J30" s="1"/>
       <c r="K30" s="22"/>
       <c r="L30" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>105</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="17">
         <f>RANK(F31,$F$3:$F$100,0)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>VLOOKUP(C31,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>트윈스</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>IF(VLOOKUP(C31,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2733,35 +2903,41 @@
       </c>
       <c r="E31" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C31,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>577</v>
+        <v>4082</v>
       </c>
       <c r="F31" s="14">
         <f>AVERAGE(E31/G31)</f>
-        <v>192.33333333333334</v>
+        <v>194.38095238095238</v>
       </c>
       <c r="G31" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C31) * 3</f>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="24"/>
       <c r="J31" s="1"/>
       <c r="K31" s="22"/>
       <c r="L31" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>140</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="17">
         <f>RANK(F32,$F$3:$F$100,0)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>VLOOKUP(C32,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>포인트</v>
+        <v>탑스타</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="str">
         <f>IF(VLOOKUP(C32,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2769,35 +2945,41 @@
       </c>
       <c r="E32" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C32,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>4000</v>
+        <v>2330</v>
       </c>
       <c r="F32" s="14">
         <f>AVERAGE(E32/G32)</f>
-        <v>190.47619047619048</v>
+        <v>194.16666666666666</v>
       </c>
       <c r="G32" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C32) * 3</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="24"/>
       <c r="J32" s="1"/>
       <c r="K32" s="22"/>
       <c r="L32" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>84</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="17">
         <f>RANK(F33,$F$3:$F$100,0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>VLOOKUP(C33,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>탑스타</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IF(VLOOKUP(C33,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2805,35 +2987,41 @@
       </c>
       <c r="E33" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C33,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1705</v>
+        <v>577</v>
       </c>
       <c r="F33" s="14">
         <f>AVERAGE(E33/G33)</f>
-        <v>189.44444444444446</v>
+        <v>192.33333333333334</v>
       </c>
       <c r="G33" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C33) * 3</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="24"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="22"/>
       <c r="L33" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>86</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="17">
         <f>RANK(F34,$F$3:$F$100,0)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>VLOOKUP(C34,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>샷스핀</v>
+        <v>포인트</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>IF(VLOOKUP(C34,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2841,71 +3029,83 @@
       </c>
       <c r="E34" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C34,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>2828</v>
+        <v>4000</v>
       </c>
       <c r="F34" s="14">
         <f>AVERAGE(E34/G34)</f>
-        <v>188.53333333333333</v>
+        <v>190.47619047619048</v>
       </c>
       <c r="G34" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C34) * 3</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="24"/>
       <c r="J34" s="1"/>
       <c r="K34" s="22"/>
       <c r="L34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>138</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="17">
         <f>RANK(F35,$F$3:$F$100,0)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>VLOOKUP(C35,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>탑스타</v>
+        <v>볼칠래</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>IF(VLOOKUP(C35,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E35" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C35,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>561</v>
+        <v>1705</v>
       </c>
       <c r="F35" s="14">
         <f>AVERAGE(E35/G35)</f>
-        <v>187</v>
+        <v>189.44444444444446</v>
       </c>
       <c r="G35" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C35) * 3</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="22"/>
       <c r="L35" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>106</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="17">
         <f>RANK(F36,$F$3:$F$100,0)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>VLOOKUP(C36,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>볼칠래</v>
+        <v>샷스핀</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D36" s="2" t="str">
         <f>IF(VLOOKUP(C36,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
@@ -2913,61 +3113,73 @@
       </c>
       <c r="E36" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C36,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>1678</v>
+        <v>2828</v>
       </c>
       <c r="F36" s="14">
         <f>AVERAGE(E36/G36)</f>
-        <v>186.44444444444446</v>
+        <v>188.53333333333333</v>
       </c>
       <c r="G36" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C36) * 3</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="24"/>
       <c r="J36" s="1"/>
       <c r="K36" s="22"/>
       <c r="L36" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="17">
         <f>RANK(F37,$F$3:$F$100,0)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>VLOOKUP(C37,상주리그선수정리!$A$1:$F$74,4,FALSE)</f>
-        <v>트윈스</v>
+        <v>볼칠래</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D37" s="2" t="str">
         <f>IF(VLOOKUP(C37,상주리그선수정리!$A$1:$F$77,6,FALSE)="W","여","남")</f>
-        <v>여</v>
+        <v>남</v>
       </c>
       <c r="E37" s="12">
         <f>SUMIF(상주리그_주차별_결과!$C$1:$C$400,C37,상주리그_주차별_결과!$J$1:$J$400)</f>
-        <v>3878</v>
+        <v>1678</v>
       </c>
       <c r="F37" s="14">
         <f>AVERAGE(E37/G37)</f>
-        <v>184.66666666666666</v>
+        <v>186.44444444444446</v>
       </c>
       <c r="G37" s="7">
         <f>COUNTIF(상주리그_주차별_결과!$A$3:$L$500,C37) * 3</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="24"/>
       <c r="J37" s="1"/>
       <c r="K37" s="22"/>
       <c r="L37" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>103</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="17">
         <f>RANK(F38,$F$3:$F$100,0)</f>
         <v>36</v>
@@ -3002,8 +3214,14 @@
       <c r="L38" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="17">
         <f>RANK(F39,$F$3:$F$100,0)</f>
         <v>37</v>
@@ -3038,8 +3256,14 @@
       <c r="L39" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="17">
         <f>RANK(F40,$F$3:$F$100,0)</f>
         <v>38</v>
@@ -3074,8 +3298,14 @@
       <c r="L40" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="17">
         <f>RANK(F41,$F$3:$F$100,0)</f>
         <v>39</v>
@@ -3110,8 +3340,14 @@
       <c r="L41" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="17">
         <f>RANK(F42,$F$3:$F$100,0)</f>
         <v>40</v>
@@ -3146,8 +3382,14 @@
       <c r="L42" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="17">
         <f>RANK(F43,$F$3:$F$100,0)</f>
         <v>41</v>
@@ -3182,8 +3424,14 @@
       <c r="L43" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="17">
         <f>RANK(F44,$F$3:$F$100,0)</f>
         <v>42</v>
@@ -3218,8 +3466,14 @@
       <c r="L44" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="17">
         <f>RANK(F45,$F$3:$F$100,0)</f>
         <v>43</v>
@@ -3254,13 +3508,22 @@
       <c r="L45" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K45">
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <sortState ref="A3:I45">
-      <sortCondition ref="A2:A45"/>
+  <autoFilter ref="A2:R45">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="남"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A12:R45">
+      <sortCondition descending="1" ref="K2:K45"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
@@ -3269,17 +3532,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>199.99999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 I3:I1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1 K3:K1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3292,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M222"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116:J121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3425,7 +3688,7 @@
         <v>246</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J34" si="0">SUM(G3:I3)</f>
         <v>712</v>
       </c>
       <c r="K3" s="2" t="str">
@@ -3469,7 +3732,7 @@
         <v>254</v>
       </c>
       <c r="J4" s="2">
-        <f>SUM(G4:I4)</f>
+        <f t="shared" si="0"/>
         <v>705</v>
       </c>
       <c r="K4" s="2" t="str">
@@ -3513,7 +3776,7 @@
         <v>170</v>
       </c>
       <c r="J5" s="2">
-        <f>SUM(G5:I5)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="K5" s="2" t="str">
@@ -3557,7 +3820,7 @@
         <v>257</v>
       </c>
       <c r="J6" s="2">
-        <f>SUM(G6:I6)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -3601,7 +3864,7 @@
         <v>255</v>
       </c>
       <c r="J7" s="2">
-        <f>SUM(G7:I7)</f>
+        <f t="shared" si="0"/>
         <v>608</v>
       </c>
       <c r="K7" s="2" t="str">
@@ -3645,7 +3908,7 @@
         <v>197</v>
       </c>
       <c r="J8" s="2">
-        <f>SUM(G8:I8)</f>
+        <f t="shared" si="0"/>
         <v>604</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -3689,7 +3952,7 @@
         <v>232</v>
       </c>
       <c r="J9" s="2">
-        <f>SUM(G9:I9)</f>
+        <f t="shared" si="0"/>
         <v>604</v>
       </c>
       <c r="K9" s="2" t="str">
@@ -3733,7 +3996,7 @@
         <v>201</v>
       </c>
       <c r="J10" s="2">
-        <f>SUM(G10:I10)</f>
+        <f t="shared" si="0"/>
         <v>599</v>
       </c>
       <c r="K10" s="2" t="str">
@@ -3777,7 +4040,7 @@
         <v>181</v>
       </c>
       <c r="J11" s="2">
-        <f>SUM(G11:I11)</f>
+        <f t="shared" si="0"/>
         <v>557</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -3821,7 +4084,7 @@
         <v>177</v>
       </c>
       <c r="J12" s="2">
-        <f>SUM(G12:I12)</f>
+        <f t="shared" si="0"/>
         <v>509</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -3865,7 +4128,7 @@
         <v>155</v>
       </c>
       <c r="J13" s="2">
-        <f>SUM(G13:I13)</f>
+        <f t="shared" si="0"/>
         <v>503</v>
       </c>
       <c r="K13" s="2" t="str">
@@ -3909,7 +4172,7 @@
         <v>201</v>
       </c>
       <c r="J14" s="2">
-        <f>SUM(G14:I14)</f>
+        <f t="shared" si="0"/>
         <v>501</v>
       </c>
       <c r="K14" s="2" t="str">
@@ -3953,7 +4216,7 @@
         <v>183</v>
       </c>
       <c r="J15" s="2">
-        <f>SUM(G15:I15)</f>
+        <f t="shared" si="0"/>
         <v>498</v>
       </c>
       <c r="K15" s="2" t="str">
@@ -3997,7 +4260,7 @@
         <v>287</v>
       </c>
       <c r="J16" s="2">
-        <f>SUM(G16:I16)</f>
+        <f t="shared" si="0"/>
         <v>778</v>
       </c>
       <c r="K16" s="2" t="str">
@@ -4041,7 +4304,7 @@
         <v>215</v>
       </c>
       <c r="J17" s="2">
-        <f>SUM(G17:I17)</f>
+        <f t="shared" si="0"/>
         <v>666</v>
       </c>
       <c r="K17" s="2" t="str">
@@ -4085,7 +4348,7 @@
         <v>201</v>
       </c>
       <c r="J18" s="2">
-        <f>SUM(G18:I18)</f>
+        <f t="shared" si="0"/>
         <v>619</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -4129,7 +4392,7 @@
         <v>222</v>
       </c>
       <c r="J19" s="2">
-        <f>SUM(G19:I19)</f>
+        <f t="shared" si="0"/>
         <v>564</v>
       </c>
       <c r="K19" s="2" t="str">
@@ -4173,7 +4436,7 @@
         <v>202</v>
       </c>
       <c r="J20" s="2">
-        <f>SUM(G20:I20)</f>
+        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="K20" s="2" t="str">
@@ -4217,7 +4480,7 @@
         <v>194</v>
       </c>
       <c r="J21" s="2">
-        <f>SUM(G21:I21)</f>
+        <f t="shared" si="0"/>
         <v>615</v>
       </c>
       <c r="K21" s="2" t="str">
@@ -4261,7 +4524,7 @@
         <v>240</v>
       </c>
       <c r="J22" s="2">
-        <f>SUM(G22:I22)</f>
+        <f t="shared" si="0"/>
         <v>598</v>
       </c>
       <c r="K22" s="2" t="str">
@@ -4305,7 +4568,7 @@
         <v>179</v>
       </c>
       <c r="J23" s="2">
-        <f>SUM(G23:I23)</f>
+        <f t="shared" si="0"/>
         <v>556</v>
       </c>
       <c r="K23" s="2" t="str">
@@ -4349,7 +4612,7 @@
         <v>214</v>
       </c>
       <c r="J24" s="2">
-        <f>SUM(G24:I24)</f>
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
       <c r="K24" s="2" t="str">
@@ -4393,7 +4656,7 @@
         <v>195</v>
       </c>
       <c r="J25" s="2">
-        <f>SUM(G25:I25)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="K25" s="2" t="str">
@@ -4437,7 +4700,7 @@
         <v>236</v>
       </c>
       <c r="J26" s="2">
-        <f>SUM(G26:I26)</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
       <c r="K26" s="2" t="str">
@@ -4481,7 +4744,7 @@
         <v>241</v>
       </c>
       <c r="J27" s="2">
-        <f>SUM(G27:I27)</f>
+        <f t="shared" si="0"/>
         <v>581</v>
       </c>
       <c r="K27" s="2" t="str">
@@ -4525,7 +4788,7 @@
         <v>179</v>
       </c>
       <c r="J28" s="2">
-        <f>SUM(G28:I28)</f>
+        <f t="shared" si="0"/>
         <v>567</v>
       </c>
       <c r="K28" s="2" t="str">
@@ -4569,7 +4832,7 @@
         <v>195</v>
       </c>
       <c r="J29" s="2">
-        <f>SUM(G29:I29)</f>
+        <f t="shared" si="0"/>
         <v>558</v>
       </c>
       <c r="K29" s="2" t="str">
@@ -4613,7 +4876,7 @@
         <v>192</v>
       </c>
       <c r="J30" s="2">
-        <f>SUM(G30:I30)</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="K30" s="2" t="str">
@@ -4657,7 +4920,7 @@
         <v>214</v>
       </c>
       <c r="J31" s="2">
-        <f>SUM(G31:I31)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="K31" s="2" t="str">
@@ -4701,7 +4964,7 @@
         <v>241</v>
       </c>
       <c r="J32" s="2">
-        <f>SUM(G32:I32)</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="K32" s="2" t="str">
@@ -4745,7 +5008,7 @@
         <v>185</v>
       </c>
       <c r="J33" s="2">
-        <f>SUM(G33:I33)</f>
+        <f t="shared" si="0"/>
         <v>597</v>
       </c>
       <c r="K33" s="2" t="str">
@@ -4789,7 +5052,7 @@
         <v>195</v>
       </c>
       <c r="J34" s="2">
-        <f>SUM(G34:I34)</f>
+        <f t="shared" si="0"/>
         <v>586</v>
       </c>
       <c r="K34" s="2" t="str">
@@ -4833,7 +5096,7 @@
         <v>226</v>
       </c>
       <c r="J35" s="2">
-        <f>SUM(G35:I35)</f>
+        <f t="shared" ref="J35:J66" si="1">SUM(G35:I35)</f>
         <v>573</v>
       </c>
       <c r="K35" s="2" t="str">
@@ -4877,7 +5140,7 @@
         <v>171</v>
       </c>
       <c r="J36" s="2">
-        <f>SUM(G36:I36)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="K36" s="2" t="str">
@@ -4921,7 +5184,7 @@
         <v>173</v>
       </c>
       <c r="J37" s="2">
-        <f>SUM(G37:I37)</f>
+        <f t="shared" si="1"/>
         <v>563</v>
       </c>
       <c r="K37" s="2" t="str">
@@ -4965,7 +5228,7 @@
         <v>268</v>
       </c>
       <c r="J38" s="2">
-        <f>SUM(G38:I38)</f>
+        <f t="shared" si="1"/>
         <v>721</v>
       </c>
       <c r="K38" s="2" t="str">
@@ -5009,7 +5272,7 @@
         <v>235</v>
       </c>
       <c r="J39" s="2">
-        <f>SUM(G39:I39)</f>
+        <f t="shared" si="1"/>
         <v>698</v>
       </c>
       <c r="K39" s="2" t="str">
@@ -5053,7 +5316,7 @@
         <v>204</v>
       </c>
       <c r="J40" s="2">
-        <f>SUM(G40:I40)</f>
+        <f t="shared" si="1"/>
         <v>641</v>
       </c>
       <c r="K40" s="2" t="str">
@@ -5097,7 +5360,7 @@
         <v>179</v>
       </c>
       <c r="J41" s="2">
-        <f>SUM(G41:I41)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="K41" s="2" t="str">
@@ -5141,7 +5404,7 @@
         <v>182</v>
       </c>
       <c r="J42" s="2">
-        <f>SUM(G42:I42)</f>
+        <f t="shared" si="1"/>
         <v>631</v>
       </c>
       <c r="K42" s="2" t="str">
@@ -5185,7 +5448,7 @@
         <v>202</v>
       </c>
       <c r="J43" s="2">
-        <f>SUM(G43:I43)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="K43" s="2" t="str">
@@ -5229,7 +5492,7 @@
         <v>195</v>
       </c>
       <c r="J44" s="2">
-        <f>SUM(G44:I44)</f>
+        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="K44" s="2" t="str">
@@ -5273,7 +5536,7 @@
         <v>221</v>
       </c>
       <c r="J45" s="2">
-        <f>SUM(G45:I45)</f>
+        <f t="shared" si="1"/>
         <v>676</v>
       </c>
       <c r="K45" s="2" t="str">
@@ -5317,7 +5580,7 @@
         <v>221</v>
       </c>
       <c r="J46" s="2">
-        <f>SUM(G46:I46)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K46" s="2" t="str">
@@ -5361,7 +5624,7 @@
         <v>188</v>
       </c>
       <c r="J47" s="2">
-        <f>SUM(G47:I47)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="K47" s="2" t="str">
@@ -5405,7 +5668,7 @@
         <v>214</v>
       </c>
       <c r="J48" s="2">
-        <f>SUM(G48:I48)</f>
+        <f t="shared" si="1"/>
         <v>581</v>
       </c>
       <c r="K48" s="2" t="str">
@@ -5449,7 +5712,7 @@
         <v>200</v>
       </c>
       <c r="J49" s="2">
-        <f>SUM(G49:I49)</f>
+        <f t="shared" si="1"/>
         <v>539</v>
       </c>
       <c r="K49" s="2" t="str">
@@ -5493,7 +5756,7 @@
         <v>170</v>
       </c>
       <c r="J50" s="2">
-        <f>SUM(G50:I50)</f>
+        <f t="shared" si="1"/>
         <v>533</v>
       </c>
       <c r="K50" s="2" t="str">
@@ -5537,7 +5800,7 @@
         <v>213</v>
       </c>
       <c r="J51" s="2">
-        <f>SUM(G51:I51)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="K51" s="2" t="str">
@@ -5581,7 +5844,7 @@
         <v>178</v>
       </c>
       <c r="J52" s="2">
-        <f>SUM(G52:I52)</f>
+        <f t="shared" si="1"/>
         <v>582</v>
       </c>
       <c r="K52" s="2" t="str">
@@ -5625,7 +5888,7 @@
         <v>187</v>
       </c>
       <c r="J53" s="2">
-        <f>SUM(G53:I53)</f>
+        <f t="shared" si="1"/>
         <v>576</v>
       </c>
       <c r="K53" s="2" t="str">
@@ -5669,7 +5932,7 @@
         <v>183</v>
       </c>
       <c r="J54" s="2">
-        <f>SUM(G54:I54)</f>
+        <f t="shared" si="1"/>
         <v>555</v>
       </c>
       <c r="K54" s="2" t="str">
@@ -5713,7 +5976,7 @@
         <v>203</v>
       </c>
       <c r="J55" s="2">
-        <f>SUM(G55:I55)</f>
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K55" s="2" t="str">
@@ -5757,7 +6020,7 @@
         <v>223</v>
       </c>
       <c r="J56" s="2">
-        <f>SUM(G56:I56)</f>
+        <f t="shared" si="1"/>
         <v>666</v>
       </c>
       <c r="K56" s="2" t="str">
@@ -5801,7 +6064,7 @@
         <v>171</v>
       </c>
       <c r="J57" s="2">
-        <f>SUM(G57:I57)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="K57" s="2" t="str">
@@ -5845,7 +6108,7 @@
         <v>177</v>
       </c>
       <c r="J58" s="2">
-        <f>SUM(G58:I58)</f>
+        <f t="shared" si="1"/>
         <v>543</v>
       </c>
       <c r="K58" s="2" t="str">
@@ -5889,7 +6152,7 @@
         <v>206</v>
       </c>
       <c r="J59" s="2">
-        <f>SUM(G59:I59)</f>
+        <f t="shared" si="1"/>
         <v>524</v>
       </c>
       <c r="K59" s="2" t="str">
@@ -5933,7 +6196,7 @@
         <v>158</v>
       </c>
       <c r="J60" s="2">
-        <f>SUM(G60:I60)</f>
+        <f t="shared" si="1"/>
         <v>522</v>
       </c>
       <c r="K60" s="2" t="str">
@@ -5977,7 +6240,7 @@
         <v>173</v>
       </c>
       <c r="J61" s="2">
-        <f>SUM(G61:I61)</f>
+        <f t="shared" si="1"/>
         <v>547</v>
       </c>
       <c r="K61" s="2" t="str">
@@ -6021,7 +6284,7 @@
         <v>183</v>
       </c>
       <c r="J62" s="2">
-        <f>SUM(G62:I62)</f>
+        <f t="shared" si="1"/>
         <v>514</v>
       </c>
       <c r="K62" s="2" t="str">
@@ -6065,7 +6328,7 @@
         <v>169</v>
       </c>
       <c r="J63" s="2">
-        <f>SUM(G63:I63)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="K63" s="2" t="str">
@@ -6109,7 +6372,7 @@
         <v>145</v>
       </c>
       <c r="J64" s="2">
-        <f>SUM(G64:I64)</f>
+        <f t="shared" si="1"/>
         <v>545</v>
       </c>
       <c r="K64" s="2" t="str">
@@ -6153,7 +6416,7 @@
         <v>152</v>
       </c>
       <c r="J65" s="2">
-        <f>SUM(G65:I65)</f>
+        <f t="shared" si="1"/>
         <v>511</v>
       </c>
       <c r="K65" s="2" t="str">
@@ -6197,7 +6460,7 @@
         <v>186</v>
       </c>
       <c r="J66" s="2">
-        <f>SUM(G66:I66)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="K66" s="2" t="str">
@@ -6241,7 +6504,7 @@
         <v>158</v>
       </c>
       <c r="J67" s="2">
-        <f>SUM(G67:I67)</f>
+        <f t="shared" ref="J67:J98" si="2">SUM(G67:I67)</f>
         <v>536</v>
       </c>
       <c r="K67" s="2" t="str">
@@ -6285,7 +6548,7 @@
         <v>202</v>
       </c>
       <c r="J68" s="2">
-        <f>SUM(G68:I68)</f>
+        <f t="shared" si="2"/>
         <v>519</v>
       </c>
       <c r="K68" s="2" t="str">
@@ -6329,7 +6592,7 @@
         <v>145</v>
       </c>
       <c r="J69" s="2">
-        <f>SUM(G69:I69)</f>
+        <f t="shared" si="2"/>
         <v>496</v>
       </c>
       <c r="K69" s="2" t="str">
@@ -6373,7 +6636,7 @@
         <v>170</v>
       </c>
       <c r="J70" s="2">
-        <f>SUM(G70:I70)</f>
+        <f t="shared" si="2"/>
         <v>593</v>
       </c>
       <c r="K70" s="2" t="str">
@@ -6417,7 +6680,7 @@
         <v>227</v>
       </c>
       <c r="J71" s="2">
-        <f>SUM(G71:I71)</f>
+        <f t="shared" si="2"/>
         <v>572</v>
       </c>
       <c r="K71" s="2" t="str">
@@ -6461,7 +6724,7 @@
         <v>225</v>
       </c>
       <c r="J72" s="2">
-        <f>SUM(G72:I72)</f>
+        <f t="shared" si="2"/>
         <v>555</v>
       </c>
       <c r="K72" s="2" t="str">
@@ -6505,7 +6768,7 @@
         <v>173</v>
       </c>
       <c r="J73" s="2">
-        <f>SUM(G73:I73)</f>
+        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="K73" s="2" t="str">
@@ -6549,7 +6812,7 @@
         <v>169</v>
       </c>
       <c r="J74" s="2">
-        <f>SUM(G74:I74)</f>
+        <f t="shared" si="2"/>
         <v>528</v>
       </c>
       <c r="K74" s="2" t="str">
@@ -6593,7 +6856,7 @@
         <v>201</v>
       </c>
       <c r="J75" s="2">
-        <f>SUM(G75:I75)</f>
+        <f t="shared" si="2"/>
         <v>527</v>
       </c>
       <c r="K75" s="2" t="str">
@@ -6637,7 +6900,7 @@
         <v>210</v>
       </c>
       <c r="J76" s="2">
-        <f>SUM(G76:I76)</f>
+        <f t="shared" si="2"/>
         <v>496</v>
       </c>
       <c r="K76" s="2" t="str">
@@ -6681,7 +6944,7 @@
         <v>170</v>
       </c>
       <c r="J77" s="2">
-        <f>SUM(G77:I77)</f>
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="K77" s="2" t="str">
@@ -6725,7 +6988,7 @@
         <v>153</v>
       </c>
       <c r="J78" s="2">
-        <f>SUM(G78:I78)</f>
+        <f t="shared" si="2"/>
         <v>515</v>
       </c>
       <c r="K78" s="2" t="str">
@@ -6769,7 +7032,7 @@
         <v>161</v>
       </c>
       <c r="J79" s="2">
-        <f>SUM(G79:I79)</f>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="K79" s="2" t="str">
@@ -6813,7 +7076,7 @@
         <v>131</v>
       </c>
       <c r="J80" s="2">
-        <f>SUM(G80:I80)</f>
+        <f t="shared" si="2"/>
         <v>491</v>
       </c>
       <c r="K80" s="2" t="str">
@@ -6857,7 +7120,7 @@
         <v>182</v>
       </c>
       <c r="J81" s="2">
-        <f>SUM(G81:I81)</f>
+        <f t="shared" si="2"/>
         <v>586</v>
       </c>
       <c r="K81" s="2" t="str">
@@ -6901,7 +7164,7 @@
         <v>176</v>
       </c>
       <c r="J82" s="2">
-        <f>SUM(G82:I82)</f>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
       <c r="K82" s="2" t="str">
@@ -6945,7 +7208,7 @@
         <v>188</v>
       </c>
       <c r="J83" s="2">
-        <f>SUM(G83:I83)</f>
+        <f t="shared" si="2"/>
         <v>517</v>
       </c>
       <c r="K83" s="2" t="str">
@@ -6989,7 +7252,7 @@
         <v>178</v>
       </c>
       <c r="J84" s="2">
-        <f>SUM(G84:I84)</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="K84" s="2" t="str">
@@ -7033,7 +7296,7 @@
         <v>263</v>
       </c>
       <c r="J85" s="2">
-        <f>SUM(G85:I85)</f>
+        <f t="shared" si="2"/>
         <v>647</v>
       </c>
       <c r="K85" s="2" t="str">
@@ -7077,7 +7340,7 @@
         <v>184</v>
       </c>
       <c r="J86" s="2">
-        <f>SUM(G86:I86)</f>
+        <f t="shared" si="2"/>
         <v>546</v>
       </c>
       <c r="K86" s="2" t="str">
@@ -7121,7 +7384,7 @@
         <v>186</v>
       </c>
       <c r="J87" s="2">
-        <f>SUM(G87:I87)</f>
+        <f t="shared" si="2"/>
         <v>624</v>
       </c>
       <c r="K87" s="2" t="str">
@@ -7165,7 +7428,7 @@
         <v>209</v>
       </c>
       <c r="J88" s="2">
-        <f>SUM(G88:I88)</f>
+        <f t="shared" si="2"/>
         <v>622</v>
       </c>
       <c r="K88" s="2" t="str">
@@ -7209,7 +7472,7 @@
         <v>225</v>
       </c>
       <c r="J89" s="2">
-        <f>SUM(G89:I89)</f>
+        <f t="shared" si="2"/>
         <v>604</v>
       </c>
       <c r="K89" s="2" t="str">
@@ -7253,7 +7516,7 @@
         <v>205</v>
       </c>
       <c r="J90" s="2">
-        <f>SUM(G90:I90)</f>
+        <f t="shared" si="2"/>
         <v>577</v>
       </c>
       <c r="K90" s="2" t="str">
@@ -7297,7 +7560,7 @@
         <v>187</v>
       </c>
       <c r="J91" s="2">
-        <f>SUM(G91:I91)</f>
+        <f t="shared" si="2"/>
         <v>567</v>
       </c>
       <c r="K91" s="2" t="str">
@@ -7341,7 +7604,7 @@
         <v>181</v>
       </c>
       <c r="J92" s="2">
-        <f>SUM(G92:I92)</f>
+        <f t="shared" si="2"/>
         <v>559</v>
       </c>
       <c r="K92" s="2" t="str">
@@ -7385,7 +7648,7 @@
         <v>187</v>
       </c>
       <c r="J93" s="2">
-        <f>SUM(G93:I93)</f>
+        <f t="shared" si="2"/>
         <v>529</v>
       </c>
       <c r="K93" s="2" t="str">
@@ -7429,7 +7692,7 @@
         <v>196</v>
       </c>
       <c r="J94" s="2">
-        <f>SUM(G94:I94)</f>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="K94" s="2" t="str">
@@ -7473,7 +7736,7 @@
         <v>177</v>
       </c>
       <c r="J95" s="2">
-        <f>SUM(G95:I95)</f>
+        <f t="shared" si="2"/>
         <v>592</v>
       </c>
       <c r="K95" s="2" t="str">
@@ -7517,7 +7780,7 @@
         <v>174</v>
       </c>
       <c r="J96" s="2">
-        <f>SUM(G96:I96)</f>
+        <f t="shared" si="2"/>
         <v>574</v>
       </c>
       <c r="K96" s="2" t="str">
@@ -7561,7 +7824,7 @@
         <v>201</v>
       </c>
       <c r="J97" s="2">
-        <f>SUM(G97:I97)</f>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="K97" s="2" t="str">
@@ -7605,7 +7868,7 @@
         <v>190</v>
       </c>
       <c r="J98" s="2">
-        <f>SUM(G98:I98)</f>
+        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="K98" s="2" t="str">
@@ -7649,7 +7912,7 @@
         <v>176</v>
       </c>
       <c r="J99" s="2">
-        <f>SUM(G99:I99)</f>
+        <f t="shared" ref="J99:J130" si="3">SUM(G99:I99)</f>
         <v>518</v>
       </c>
       <c r="K99" s="2" t="str">
@@ -7693,7 +7956,7 @@
         <v>148</v>
       </c>
       <c r="J100" s="2">
-        <f>SUM(G100:I100)</f>
+        <f t="shared" si="3"/>
         <v>511</v>
       </c>
       <c r="K100" s="2" t="str">
@@ -7737,7 +8000,7 @@
         <v>191</v>
       </c>
       <c r="J101" s="2">
-        <f>SUM(G101:I101)</f>
+        <f t="shared" si="3"/>
         <v>707</v>
       </c>
       <c r="K101" s="2" t="str">
@@ -7781,7 +8044,7 @@
         <v>257</v>
       </c>
       <c r="J102" s="2">
-        <f>SUM(G102:I102)</f>
+        <f t="shared" si="3"/>
         <v>696</v>
       </c>
       <c r="K102" s="2" t="str">
@@ -7825,7 +8088,7 @@
         <v>215</v>
       </c>
       <c r="J103" s="2">
-        <f>SUM(G103:I103)</f>
+        <f t="shared" si="3"/>
         <v>664</v>
       </c>
       <c r="K103" s="2" t="str">
@@ -7869,7 +8132,7 @@
         <v>257</v>
       </c>
       <c r="J104" s="2">
-        <f>SUM(G104:I104)</f>
+        <f t="shared" si="3"/>
         <v>634</v>
       </c>
       <c r="K104" s="2" t="str">
@@ -7913,7 +8176,7 @@
         <v>203</v>
       </c>
       <c r="J105" s="2">
-        <f>SUM(G105:I105)</f>
+        <f t="shared" si="3"/>
         <v>587</v>
       </c>
       <c r="K105" s="2" t="str">
@@ -7957,7 +8220,7 @@
         <v>229</v>
       </c>
       <c r="J106" s="2">
-        <f>SUM(G106:I106)</f>
+        <f t="shared" si="3"/>
         <v>573</v>
       </c>
       <c r="K106" s="2" t="str">
@@ -8001,7 +8264,7 @@
         <v>184</v>
       </c>
       <c r="J107" s="2">
-        <f>SUM(G107:I107)</f>
+        <f t="shared" si="3"/>
         <v>653</v>
       </c>
       <c r="K107" s="2" t="str">
@@ -8045,7 +8308,7 @@
         <v>237</v>
       </c>
       <c r="J108" s="2">
-        <f>SUM(G108:I108)</f>
+        <f t="shared" si="3"/>
         <v>651</v>
       </c>
       <c r="K108" s="2" t="str">
@@ -8089,7 +8352,7 @@
         <v>195</v>
       </c>
       <c r="J109" s="2">
-        <f>SUM(G109:I109)</f>
+        <f t="shared" si="3"/>
         <v>644</v>
       </c>
       <c r="K109" s="2" t="str">
@@ -8133,7 +8396,7 @@
         <v>203</v>
       </c>
       <c r="J110" s="2">
-        <f>SUM(G110:I110)</f>
+        <f t="shared" si="3"/>
         <v>637</v>
       </c>
       <c r="K110" s="2" t="str">
@@ -8177,7 +8440,7 @@
         <v>235</v>
       </c>
       <c r="J111" s="2">
-        <f>SUM(G111:I111)</f>
+        <f t="shared" si="3"/>
         <v>632</v>
       </c>
       <c r="K111" s="2" t="str">
@@ -8221,7 +8484,7 @@
         <v>199</v>
       </c>
       <c r="J112" s="2">
-        <f>SUM(G112:I112)</f>
+        <f t="shared" si="3"/>
         <v>640</v>
       </c>
       <c r="K112" s="2" t="str">
@@ -8265,7 +8528,7 @@
         <v>192</v>
       </c>
       <c r="J113" s="2">
-        <f>SUM(G113:I113)</f>
+        <f t="shared" si="3"/>
         <v>596</v>
       </c>
       <c r="K113" s="2" t="str">
@@ -8309,7 +8572,7 @@
         <v>173</v>
       </c>
       <c r="J114" s="2">
-        <f>SUM(G114:I114)</f>
+        <f t="shared" si="3"/>
         <v>548</v>
       </c>
       <c r="K114" s="2" t="str">
@@ -8353,7 +8616,7 @@
         <v>162</v>
       </c>
       <c r="J115" s="2">
-        <f>SUM(G115:I115)</f>
+        <f t="shared" si="3"/>
         <v>546</v>
       </c>
       <c r="K115" s="2" t="str">
@@ -8397,7 +8660,7 @@
         <v>217</v>
       </c>
       <c r="J116" s="2">
-        <f>SUM(G116:I116)</f>
+        <f t="shared" si="3"/>
         <v>677</v>
       </c>
       <c r="K116" s="2" t="str">
@@ -8441,7 +8704,7 @@
         <v>213</v>
       </c>
       <c r="J117" s="2">
-        <f>SUM(G117:I117)</f>
+        <f t="shared" si="3"/>
         <v>659</v>
       </c>
       <c r="K117" s="2" t="str">
@@ -8485,7 +8748,7 @@
         <v>218</v>
       </c>
       <c r="J118" s="2">
-        <f>SUM(G118:I118)</f>
+        <f t="shared" si="3"/>
         <v>638</v>
       </c>
       <c r="K118" s="2" t="str">
@@ -8529,7 +8792,7 @@
         <v>214</v>
       </c>
       <c r="J119" s="2">
-        <f>SUM(G119:I119)</f>
+        <f t="shared" si="3"/>
         <v>621</v>
       </c>
       <c r="K119" s="2" t="str">
@@ -8573,7 +8836,7 @@
         <v>185</v>
       </c>
       <c r="J120" s="2">
-        <f>SUM(G120:I120)</f>
+        <f t="shared" si="3"/>
         <v>610</v>
       </c>
       <c r="K120" s="2" t="str">
@@ -8617,7 +8880,7 @@
         <v>194</v>
       </c>
       <c r="J121" s="2">
-        <f>SUM(G121:I121)</f>
+        <f t="shared" si="3"/>
         <v>605</v>
       </c>
       <c r="K121" s="2" t="str">
@@ -8661,7 +8924,7 @@
         <v>202</v>
       </c>
       <c r="J122" s="2">
-        <f>SUM(G122:I122)</f>
+        <f t="shared" si="3"/>
         <v>577</v>
       </c>
       <c r="K122" s="2" t="str">
@@ -8705,7 +8968,7 @@
         <v>206</v>
       </c>
       <c r="J123" s="2">
-        <f>SUM(G123:I123)</f>
+        <f t="shared" si="3"/>
         <v>561</v>
       </c>
       <c r="K123" s="2" t="str">
@@ -8749,7 +9012,7 @@
         <v>174</v>
       </c>
       <c r="J124" s="2">
-        <f>SUM(G124:I124)</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="K124" s="2" t="str">
@@ -8793,7 +9056,7 @@
         <v>216</v>
       </c>
       <c r="J125" s="2">
-        <f>SUM(G125:I125)</f>
+        <f t="shared" si="3"/>
         <v>643</v>
       </c>
       <c r="K125" s="2" t="str">
@@ -8837,7 +9100,7 @@
         <v>215</v>
       </c>
       <c r="J126" s="2">
-        <f>SUM(G126:I126)</f>
+        <f t="shared" si="3"/>
         <v>623</v>
       </c>
       <c r="K126" s="2" t="str">
@@ -8881,7 +9144,7 @@
         <v>232</v>
       </c>
       <c r="J127" s="2">
-        <f>SUM(G127:I127)</f>
+        <f t="shared" si="3"/>
         <v>620</v>
       </c>
       <c r="K127" s="2" t="str">
@@ -8925,7 +9188,7 @@
         <v>231</v>
       </c>
       <c r="J128" s="2">
-        <f>SUM(G128:I128)</f>
+        <f t="shared" si="3"/>
         <v>679</v>
       </c>
       <c r="K128" s="2" t="str">
@@ -8969,7 +9232,7 @@
         <v>167</v>
       </c>
       <c r="J129" s="2">
-        <f>SUM(G129:I129)</f>
+        <f t="shared" si="3"/>
         <v>620</v>
       </c>
       <c r="K129" s="2" t="str">
@@ -9013,7 +9276,7 @@
         <v>193</v>
       </c>
       <c r="J130" s="2">
-        <f>SUM(G130:I130)</f>
+        <f t="shared" si="3"/>
         <v>573</v>
       </c>
       <c r="K130" s="2" t="str">
@@ -9057,7 +9320,7 @@
         <v>194</v>
       </c>
       <c r="J131" s="2">
-        <f>SUM(G131:I131)</f>
+        <f t="shared" ref="J131:J162" si="4">SUM(G131:I131)</f>
         <v>558</v>
       </c>
       <c r="K131" s="2" t="str">
@@ -9101,7 +9364,7 @@
         <v>189</v>
       </c>
       <c r="J132" s="2">
-        <f>SUM(G132:I132)</f>
+        <f t="shared" si="4"/>
         <v>525</v>
       </c>
       <c r="K132" s="2" t="str">
@@ -9145,7 +9408,7 @@
         <v>236</v>
       </c>
       <c r="J133" s="2">
-        <f>SUM(G133:I133)</f>
+        <f t="shared" si="4"/>
         <v>640</v>
       </c>
       <c r="K133" s="2" t="str">
@@ -9189,7 +9452,7 @@
         <v>202</v>
       </c>
       <c r="J134" s="2">
-        <f>SUM(G134:I134)</f>
+        <f t="shared" si="4"/>
         <v>638</v>
       </c>
       <c r="K134" s="2" t="str">
@@ -9233,7 +9496,7 @@
         <v>224</v>
       </c>
       <c r="J135" s="2">
-        <f>SUM(G135:I135)</f>
+        <f t="shared" si="4"/>
         <v>604</v>
       </c>
       <c r="K135" s="2" t="str">
@@ -9277,7 +9540,7 @@
         <v>211</v>
       </c>
       <c r="J136" s="2">
-        <f>SUM(G136:I136)</f>
+        <f t="shared" si="4"/>
         <v>591</v>
       </c>
       <c r="K136" s="2" t="str">
@@ -9321,7 +9584,7 @@
         <v>163</v>
       </c>
       <c r="J137" s="2">
-        <f>SUM(G137:I137)</f>
+        <f t="shared" si="4"/>
         <v>585</v>
       </c>
       <c r="K137" s="2" t="str">
@@ -9365,7 +9628,7 @@
         <v>164</v>
       </c>
       <c r="J138" s="2">
-        <f>SUM(G138:I138)</f>
+        <f t="shared" si="4"/>
         <v>556</v>
       </c>
       <c r="K138" s="2" t="str">
@@ -9409,7 +9672,7 @@
         <v>248</v>
       </c>
       <c r="J139" s="2">
-        <f>SUM(G139:I139)</f>
+        <f t="shared" si="4"/>
         <v>651</v>
       </c>
       <c r="K139" s="2" t="str">
@@ -9453,7 +9716,7 @@
         <v>231</v>
       </c>
       <c r="J140" s="2">
-        <f>SUM(G140:I140)</f>
+        <f t="shared" si="4"/>
         <v>646</v>
       </c>
       <c r="K140" s="2" t="str">
@@ -9497,7 +9760,7 @@
         <v>192</v>
       </c>
       <c r="J141" s="2">
-        <f>SUM(G141:I141)</f>
+        <f t="shared" si="4"/>
         <v>620</v>
       </c>
       <c r="K141" s="2" t="str">
@@ -9541,7 +9804,7 @@
         <v>237</v>
       </c>
       <c r="J142" s="2">
-        <f>SUM(G142:I142)</f>
+        <f t="shared" si="4"/>
         <v>618</v>
       </c>
       <c r="K142" s="2" t="str">
@@ -9585,7 +9848,7 @@
         <v>172</v>
       </c>
       <c r="J143" s="2">
-        <f>SUM(G143:I143)</f>
+        <f t="shared" si="4"/>
         <v>592</v>
       </c>
       <c r="K143" s="2" t="str">
@@ -9629,7 +9892,7 @@
         <v>194</v>
       </c>
       <c r="J144" s="2">
-        <f>SUM(G144:I144)</f>
+        <f t="shared" si="4"/>
         <v>589</v>
       </c>
       <c r="K144" s="2" t="str">
@@ -9673,7 +9936,7 @@
         <v>180</v>
       </c>
       <c r="J145" s="2">
-        <f>SUM(G145:I145)</f>
+        <f t="shared" si="4"/>
         <v>524</v>
       </c>
       <c r="K145" s="2" t="str">
@@ -9717,7 +9980,7 @@
         <v>257</v>
       </c>
       <c r="J146" s="2">
-        <f>SUM(G146:I146)</f>
+        <f t="shared" si="4"/>
         <v>626</v>
       </c>
       <c r="K146" s="2" t="str">
@@ -9761,7 +10024,7 @@
         <v>171</v>
       </c>
       <c r="J147" s="2">
-        <f>SUM(G147:I147)</f>
+        <f t="shared" si="4"/>
         <v>575</v>
       </c>
       <c r="K147" s="2" t="str">
@@ -9805,7 +10068,7 @@
         <v>193</v>
       </c>
       <c r="J148" s="2">
-        <f>SUM(G148:I148)</f>
+        <f t="shared" si="4"/>
         <v>607</v>
       </c>
       <c r="K148" s="2" t="str">
@@ -9849,7 +10112,7 @@
         <v>214</v>
       </c>
       <c r="J149" s="2">
-        <f>SUM(G149:I149)</f>
+        <f t="shared" si="4"/>
         <v>674</v>
       </c>
       <c r="K149" s="2" t="str">
@@ -9893,7 +10156,7 @@
         <v>190</v>
       </c>
       <c r="J150" s="2">
-        <f>SUM(G150:I150)</f>
+        <f t="shared" si="4"/>
         <v>610</v>
       </c>
       <c r="K150" s="2" t="str">
@@ -9937,7 +10200,7 @@
         <v>222</v>
       </c>
       <c r="J151" s="2">
-        <f>SUM(G151:I151)</f>
+        <f t="shared" si="4"/>
         <v>603</v>
       </c>
       <c r="K151" s="2" t="str">
@@ -9981,7 +10244,7 @@
         <v>257</v>
       </c>
       <c r="J152" s="2">
-        <f>SUM(G152:I152)</f>
+        <f t="shared" si="4"/>
         <v>601</v>
       </c>
       <c r="K152" s="2" t="str">
@@ -10025,7 +10288,7 @@
         <v>173</v>
       </c>
       <c r="J153" s="2">
-        <f>SUM(G153:I153)</f>
+        <f t="shared" si="4"/>
         <v>567</v>
       </c>
       <c r="K153" s="2" t="str">
@@ -10069,7 +10332,7 @@
         <v>203</v>
       </c>
       <c r="J154" s="2">
-        <f>SUM(G154:I154)</f>
+        <f t="shared" si="4"/>
         <v>563</v>
       </c>
       <c r="K154" s="2" t="str">
@@ -10113,7 +10376,7 @@
         <v>169</v>
       </c>
       <c r="J155" s="2">
-        <f>SUM(G155:I155)</f>
+        <f t="shared" si="4"/>
         <v>507</v>
       </c>
       <c r="K155" s="2" t="str">
@@ -10157,7 +10420,7 @@
         <v>207</v>
       </c>
       <c r="J156" s="2">
-        <f>SUM(G156:I156)</f>
+        <f t="shared" si="4"/>
         <v>769</v>
       </c>
       <c r="K156" s="2" t="str">
@@ -10201,7 +10464,7 @@
         <v>197</v>
       </c>
       <c r="J157" s="2">
-        <f>SUM(G157:I157)</f>
+        <f t="shared" si="4"/>
         <v>667</v>
       </c>
       <c r="K157" s="2" t="str">
@@ -10245,7 +10508,7 @@
         <v>222</v>
       </c>
       <c r="J158" s="2">
-        <f>SUM(G158:I158)</f>
+        <f t="shared" si="4"/>
         <v>660</v>
       </c>
       <c r="K158" s="2" t="str">
@@ -10289,7 +10552,7 @@
         <v>194</v>
       </c>
       <c r="J159" s="2">
-        <f>SUM(G159:I159)</f>
+        <f t="shared" si="4"/>
         <v>645</v>
       </c>
       <c r="K159" s="2" t="str">
@@ -10333,7 +10596,7 @@
         <v>196</v>
       </c>
       <c r="J160" s="2">
-        <f>SUM(G160:I160)</f>
+        <f t="shared" si="4"/>
         <v>636</v>
       </c>
       <c r="K160" s="2" t="str">
@@ -10377,7 +10640,7 @@
         <v>178</v>
       </c>
       <c r="J161" s="2">
-        <f>SUM(G161:I161)</f>
+        <f t="shared" si="4"/>
         <v>614</v>
       </c>
       <c r="K161" s="2" t="str">
@@ -10421,7 +10684,7 @@
         <v>172</v>
       </c>
       <c r="J162" s="2">
-        <f>SUM(G162:I162)</f>
+        <f t="shared" si="4"/>
         <v>558</v>
       </c>
       <c r="K162" s="2" t="str">
@@ -10465,7 +10728,7 @@
         <v>269</v>
       </c>
       <c r="J163" s="2">
-        <f>SUM(G163:I163)</f>
+        <f t="shared" ref="J163:J194" si="5">SUM(G163:I163)</f>
         <v>703</v>
       </c>
       <c r="K163" s="2" t="str">
@@ -10509,7 +10772,7 @@
         <v>241</v>
       </c>
       <c r="J164" s="2">
-        <f>SUM(G164:I164)</f>
+        <f t="shared" si="5"/>
         <v>660</v>
       </c>
       <c r="K164" s="2" t="str">
@@ -10553,7 +10816,7 @@
         <v>240</v>
       </c>
       <c r="J165" s="2">
-        <f>SUM(G165:I165)</f>
+        <f t="shared" si="5"/>
         <v>642</v>
       </c>
       <c r="K165" s="2" t="str">
@@ -10597,7 +10860,7 @@
         <v>226</v>
       </c>
       <c r="J166" s="2">
-        <f>SUM(G166:I166)</f>
+        <f t="shared" si="5"/>
         <v>603</v>
       </c>
       <c r="K166" s="2" t="str">
@@ -10641,7 +10904,7 @@
         <v>202</v>
       </c>
       <c r="J167" s="2">
-        <f>SUM(G167:I167)</f>
+        <f t="shared" si="5"/>
         <v>596</v>
       </c>
       <c r="K167" s="2" t="str">
@@ -10685,7 +10948,7 @@
         <v>226</v>
       </c>
       <c r="J168" s="2">
-        <f>SUM(G168:I168)</f>
+        <f t="shared" si="5"/>
         <v>596</v>
       </c>
       <c r="K168" s="2" t="str">
@@ -10729,7 +10992,7 @@
         <v>190</v>
       </c>
       <c r="J169" s="2">
-        <f>SUM(G169:I169)</f>
+        <f t="shared" si="5"/>
         <v>593</v>
       </c>
       <c r="K169" s="2" t="str">
@@ -10773,7 +11036,7 @@
         <v>211</v>
       </c>
       <c r="J170" s="2">
-        <f>SUM(G170:I170)</f>
+        <f t="shared" si="5"/>
         <v>605</v>
       </c>
       <c r="K170" s="2" t="str">
@@ -10817,7 +11080,7 @@
         <v>213</v>
       </c>
       <c r="J171" s="2">
-        <f>SUM(G171:I171)</f>
+        <f t="shared" si="5"/>
         <v>565</v>
       </c>
       <c r="K171" s="2" t="str">
@@ -10861,7 +11124,7 @@
         <v>180</v>
       </c>
       <c r="J172" s="2">
-        <f>SUM(G172:I172)</f>
+        <f t="shared" si="5"/>
         <v>508</v>
       </c>
       <c r="K172" s="2" t="str">
@@ -10905,7 +11168,7 @@
         <v>243</v>
       </c>
       <c r="J173" s="2">
-        <f>SUM(G173:I173)</f>
+        <f t="shared" si="5"/>
         <v>689</v>
       </c>
       <c r="K173" s="2" t="str">
@@ -10949,7 +11212,7 @@
         <v>209</v>
       </c>
       <c r="J174" s="2">
-        <f>SUM(G174:I174)</f>
+        <f t="shared" si="5"/>
         <v>605</v>
       </c>
       <c r="K174" s="2" t="str">
@@ -10993,7 +11256,7 @@
         <v>199</v>
       </c>
       <c r="J175" s="2">
-        <f>SUM(G175:I175)</f>
+        <f t="shared" si="5"/>
         <v>539</v>
       </c>
       <c r="K175" s="2" t="str">
@@ -11037,7 +11300,7 @@
         <v>162</v>
       </c>
       <c r="J176" s="2">
-        <f>SUM(G176:I176)</f>
+        <f t="shared" si="5"/>
         <v>534</v>
       </c>
       <c r="K176" s="2" t="str">
@@ -11081,7 +11344,7 @@
         <v>204</v>
       </c>
       <c r="J177" s="2">
-        <f>SUM(G177:I177)</f>
+        <f t="shared" si="5"/>
         <v>659</v>
       </c>
       <c r="K177" s="2" t="str">
@@ -11125,7 +11388,7 @@
         <v>188</v>
       </c>
       <c r="J178" s="2">
-        <f>SUM(G178:I178)</f>
+        <f t="shared" si="5"/>
         <v>612</v>
       </c>
       <c r="K178" s="2" t="str">
@@ -11169,7 +11432,7 @@
         <v>266</v>
       </c>
       <c r="J179" s="2">
-        <f>SUM(G179:I179)</f>
+        <f t="shared" si="5"/>
         <v>610</v>
       </c>
       <c r="K179" s="2" t="str">
@@ -11213,7 +11476,7 @@
         <v>209</v>
       </c>
       <c r="J180" s="2">
-        <f>SUM(G180:I180)</f>
+        <f t="shared" si="5"/>
         <v>568</v>
       </c>
       <c r="K180" s="2" t="str">
@@ -11257,7 +11520,7 @@
         <v>209</v>
       </c>
       <c r="J181" s="2">
-        <f>SUM(G181:I181)</f>
+        <f t="shared" si="5"/>
         <v>698</v>
       </c>
       <c r="K181" s="2" t="str">
@@ -11301,7 +11564,7 @@
         <v>164</v>
       </c>
       <c r="J182" s="2">
-        <f>SUM(G182:I182)</f>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="K182" s="2" t="str">
@@ -11345,7 +11608,7 @@
         <v>132</v>
       </c>
       <c r="J183" s="2">
-        <f>SUM(G183:I183)</f>
+        <f t="shared" si="5"/>
         <v>491</v>
       </c>
       <c r="K183" s="2" t="str">
@@ -11389,7 +11652,7 @@
         <v>202</v>
       </c>
       <c r="J184" s="2">
-        <f>SUM(G184:I184)</f>
+        <f t="shared" si="5"/>
         <v>612</v>
       </c>
       <c r="K184" s="2" t="str">
@@ -11433,7 +11696,7 @@
         <v>159</v>
       </c>
       <c r="J185" s="2">
-        <f>SUM(G185:I185)</f>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="K185" s="2" t="str">
@@ -11477,7 +11740,7 @@
         <v>226</v>
       </c>
       <c r="J186" s="2">
-        <f>SUM(G186:I186)</f>
+        <f t="shared" si="5"/>
         <v>662</v>
       </c>
       <c r="K186" s="2" t="str">
@@ -11521,7 +11784,7 @@
         <v>213</v>
       </c>
       <c r="J187" s="2">
-        <f>SUM(G187:I187)</f>
+        <f t="shared" si="5"/>
         <v>637</v>
       </c>
       <c r="K187" s="2" t="str">
@@ -11565,7 +11828,7 @@
         <v>218</v>
       </c>
       <c r="J188" s="2">
-        <f>SUM(G188:I188)</f>
+        <f t="shared" si="5"/>
         <v>635</v>
       </c>
       <c r="K188" s="2" t="str">
@@ -11609,7 +11872,7 @@
         <v>208</v>
       </c>
       <c r="J189" s="2">
-        <f>SUM(G189:I189)</f>
+        <f t="shared" si="5"/>
         <v>619</v>
       </c>
       <c r="K189" s="2" t="str">
@@ -11653,7 +11916,7 @@
         <v>219</v>
       </c>
       <c r="J190" s="2">
-        <f>SUM(G190:I190)</f>
+        <f t="shared" si="5"/>
         <v>550</v>
       </c>
       <c r="K190" s="2" t="str">
@@ -12123,27 +12386,27 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:I137">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J137">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>5999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138:I222">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J138:J222">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>5999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023_트윈스_상주리그정리.xlsx
+++ b/2023_트윈스_상주리그정리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="345" windowWidth="20175" windowHeight="11550"/>
+    <workbookView xWindow="600" yWindow="345" windowWidth="20175" windowHeight="11550" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="상주리그_개인전종합" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="상주리그선수정리" sheetId="3" r:id="rId3"/>
     <sheet name="상주리그_팀" sheetId="1" r:id="rId4"/>
     <sheet name="2023 2분기 상주리그점수" sheetId="5" r:id="rId5"/>
+    <sheet name="2023 3분기 상주리그점수" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">상주리그_개인전종합!$A$2:$Q$45</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="297">
   <si>
     <t>userTeamName</t>
   </si>
@@ -1057,6 +1058,74 @@
   </si>
   <si>
     <t>부전승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김인기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이선화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트윈스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박신호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업텐션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정승우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀크러시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼칠래1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼칠래2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷스핀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩌다볼링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수봉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,11 +1139,11 @@
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="General&quot;위&quot;"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0&quot;주&quot;&quot;차&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,##0&quot;원&quot;"/>
-    <numFmt numFmtId="184" formatCode="0&quot;회&quot;"/>
-    <numFmt numFmtId="185" formatCode="0&quot;승&quot;"/>
-    <numFmt numFmtId="186" formatCode="0&quot;패&quot;"/>
+    <numFmt numFmtId="181" formatCode="0&quot;주&quot;&quot;차&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0&quot;원&quot;"/>
+    <numFmt numFmtId="183" formatCode="0&quot;회&quot;"/>
+    <numFmt numFmtId="184" formatCode="0&quot;승&quot;"/>
+    <numFmt numFmtId="185" formatCode="0&quot;패&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1302,12 +1371,6 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,38 +1388,54 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1366,16 +1445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1880,7 +1949,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1893,7 +1962,7 @@
     <col min="7" max="7" width="11.125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="23" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="29" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="27" customWidth="1"/>
     <col min="11" max="11" width="10.25" customWidth="1"/>
     <col min="12" max="13" width="10.5" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
@@ -1902,27 +1971,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="16" t="s">
@@ -1977,7 +2046,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="17">
-        <f>RANK(F3,$F$3:$F$100,0)</f>
+        <f t="shared" ref="A3:A45" si="0">RANK(F3,$F$3:$F$100,0)</f>
         <v>1</v>
       </c>
       <c r="B3" s="6" t="str">
@@ -1996,7 +2065,7 @@
         <v>4013</v>
       </c>
       <c r="F3" s="14">
-        <f>AVERAGE(E3/G3)</f>
+        <f t="shared" ref="F3:F45" si="1">AVERAGE(E3/G3)</f>
         <v>222.94444444444446</v>
       </c>
       <c r="G3" s="7">
@@ -2038,7 +2107,7 @@
     </row>
     <row r="4" spans="1:17" hidden="1">
       <c r="A4" s="17">
-        <f>RANK(F4,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -2057,7 +2126,7 @@
         <v>1955</v>
       </c>
       <c r="F4" s="14">
-        <f>AVERAGE(E4/G4)</f>
+        <f t="shared" si="1"/>
         <v>217.22222222222223</v>
       </c>
       <c r="G4" s="7">
@@ -2079,7 +2148,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="17">
-        <f>RANK(F5,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -2098,7 +2167,7 @@
         <v>5765</v>
       </c>
       <c r="F5" s="14">
-        <f>AVERAGE(E5/G5)</f>
+        <f t="shared" si="1"/>
         <v>213.5185185185185</v>
       </c>
       <c r="G5" s="7">
@@ -2106,11 +2175,11 @@
         <v>27</v>
       </c>
       <c r="H5" s="2">
-        <f>SUM(L5:Q5)</f>
+        <f t="shared" ref="H5:H12" si="2">SUM(L5:Q5)</f>
         <v>3995</v>
       </c>
       <c r="I5" s="24">
-        <f>H5/18</f>
+        <f t="shared" ref="I5:I12" si="3">H5/18</f>
         <v>221.94444444444446</v>
       </c>
       <c r="J5" s="7">
@@ -2140,7 +2209,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="17">
-        <f>RANK(F6,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -2159,7 +2228,7 @@
         <v>5203</v>
       </c>
       <c r="F6" s="14">
-        <f>AVERAGE(E6/G6)</f>
+        <f t="shared" si="1"/>
         <v>216.79166666666666</v>
       </c>
       <c r="G6" s="7">
@@ -2167,11 +2236,11 @@
         <v>24</v>
       </c>
       <c r="H6" s="2">
-        <f>SUM(L6:Q6)</f>
+        <f t="shared" si="2"/>
         <v>3988</v>
       </c>
       <c r="I6" s="24">
-        <f>H6/18</f>
+        <f t="shared" si="3"/>
         <v>221.55555555555554</v>
       </c>
       <c r="J6" s="7">
@@ -2201,7 +2270,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" s="17">
-        <f>RANK(F7,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -2220,7 +2289,7 @@
         <v>5833</v>
       </c>
       <c r="F7" s="14">
-        <f>AVERAGE(E7/G7)</f>
+        <f t="shared" si="1"/>
         <v>216.03703703703704</v>
       </c>
       <c r="G7" s="7">
@@ -2228,11 +2297,11 @@
         <v>27</v>
       </c>
       <c r="H7" s="2">
-        <f>SUM(L7:Q7)</f>
+        <f t="shared" si="2"/>
         <v>4030</v>
       </c>
       <c r="I7" s="24">
-        <f>H7/18</f>
+        <f t="shared" si="3"/>
         <v>223.88888888888889</v>
       </c>
       <c r="J7" s="24"/>
@@ -2260,7 +2329,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
-        <f>RANK(F8,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -2279,7 +2348,7 @@
         <v>5746</v>
       </c>
       <c r="F8" s="14">
-        <f>AVERAGE(E8/G8)</f>
+        <f t="shared" si="1"/>
         <v>212.81481481481481</v>
       </c>
       <c r="G8" s="7">
@@ -2287,11 +2356,11 @@
         <v>27</v>
       </c>
       <c r="H8" s="2">
-        <f>SUM(L8:Q8)</f>
+        <f t="shared" si="2"/>
         <v>3942</v>
       </c>
       <c r="I8" s="24">
-        <f>H8/18</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="J8" s="7">
@@ -2321,7 +2390,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="17">
-        <f>RANK(F9,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -2340,7 +2409,7 @@
         <v>5688</v>
       </c>
       <c r="F9" s="14">
-        <f>AVERAGE(E9/G9)</f>
+        <f t="shared" si="1"/>
         <v>210.66666666666666</v>
       </c>
       <c r="G9" s="7">
@@ -2348,11 +2417,11 @@
         <v>27</v>
       </c>
       <c r="H9" s="2">
-        <f>SUM(L9:Q9)</f>
+        <f t="shared" si="2"/>
         <v>3903</v>
       </c>
       <c r="I9" s="24">
-        <f>H9/18</f>
+        <f t="shared" si="3"/>
         <v>216.83333333333334</v>
       </c>
       <c r="J9" s="7">
@@ -2382,7 +2451,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="17">
-        <f>RANK(F10,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -2401,7 +2470,7 @@
         <v>3898</v>
       </c>
       <c r="F10" s="14">
-        <f>AVERAGE(E10/G10)</f>
+        <f t="shared" si="1"/>
         <v>216.55555555555554</v>
       </c>
       <c r="G10" s="7">
@@ -2409,11 +2478,11 @@
         <v>18</v>
       </c>
       <c r="H10" s="2">
-        <f>SUM(L10:Q10)</f>
+        <f t="shared" si="2"/>
         <v>3898</v>
       </c>
       <c r="I10" s="24">
-        <f>H10/18</f>
+        <f t="shared" si="3"/>
         <v>216.55555555555554</v>
       </c>
       <c r="J10" s="7">
@@ -2443,7 +2512,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="17">
-        <f>RANK(F11,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -2462,7 +2531,7 @@
         <v>3861</v>
       </c>
       <c r="F11" s="14">
-        <f>AVERAGE(E11/G11)</f>
+        <f t="shared" si="1"/>
         <v>214.5</v>
       </c>
       <c r="G11" s="7">
@@ -2470,11 +2539,11 @@
         <v>18</v>
       </c>
       <c r="H11" s="2">
-        <f>SUM(L11:Q11)</f>
+        <f t="shared" si="2"/>
         <v>3861</v>
       </c>
       <c r="I11" s="24">
-        <f>H11/18</f>
+        <f t="shared" si="3"/>
         <v>214.5</v>
       </c>
       <c r="J11" s="7">
@@ -2504,7 +2573,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="17">
-        <f>RANK(F12,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -2523,7 +2592,7 @@
         <v>4698</v>
       </c>
       <c r="F12" s="14">
-        <f>AVERAGE(E12/G12)</f>
+        <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
       <c r="G12" s="7">
@@ -2531,11 +2600,11 @@
         <v>24</v>
       </c>
       <c r="H12" s="2">
-        <f>SUM(L12:Q12)</f>
+        <f t="shared" si="2"/>
         <v>3716</v>
       </c>
       <c r="I12" s="24">
-        <f>H12/18</f>
+        <f t="shared" si="3"/>
         <v>206.44444444444446</v>
       </c>
       <c r="J12" s="7">
@@ -2565,7 +2634,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="17">
-        <f>RANK(F13,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -2584,7 +2653,7 @@
         <v>1271</v>
       </c>
       <c r="F13" s="14">
-        <f>AVERAGE(E13/G13)</f>
+        <f t="shared" si="1"/>
         <v>211.83333333333334</v>
       </c>
       <c r="G13" s="7">
@@ -2593,7 +2662,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="28"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="2" t="s">
         <v>147</v>
       </c>
@@ -2606,7 +2675,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="17">
-        <f>RANK(F14,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -2625,7 +2694,7 @@
         <v>3135</v>
       </c>
       <c r="F14" s="14">
-        <f>AVERAGE(E14/G14)</f>
+        <f t="shared" si="1"/>
         <v>209</v>
       </c>
       <c r="G14" s="7">
@@ -2634,7 +2703,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="28"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="2" t="s">
         <v>90</v>
       </c>
@@ -2647,7 +2716,7 @@
     </row>
     <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="17">
-        <f>RANK(F15,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -2666,7 +2735,7 @@
         <v>3614</v>
       </c>
       <c r="F15" s="14">
-        <f>AVERAGE(E15/G15)</f>
+        <f t="shared" si="1"/>
         <v>200.77777777777777</v>
       </c>
       <c r="G15" s="7">
@@ -2704,7 +2773,7 @@
     </row>
     <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="17">
-        <f>RANK(F16,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -2723,7 +2792,7 @@
         <v>1804</v>
       </c>
       <c r="F16" s="14">
-        <f>AVERAGE(E16/G16)</f>
+        <f t="shared" si="1"/>
         <v>200.44444444444446</v>
       </c>
       <c r="G16" s="7">
@@ -2745,7 +2814,7 @@
     </row>
     <row r="17" spans="1:17" hidden="1">
       <c r="A17" s="17">
-        <f>RANK(F17,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -2764,7 +2833,7 @@
         <v>5411</v>
       </c>
       <c r="F17" s="14">
-        <f>AVERAGE(E17/G17)</f>
+        <f t="shared" si="1"/>
         <v>200.40740740740742</v>
       </c>
       <c r="G17" s="7">
@@ -2804,7 +2873,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="17">
-        <f>RANK(F18,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -2823,7 +2892,7 @@
         <v>607</v>
       </c>
       <c r="F18" s="14">
-        <f>AVERAGE(E18/G18)</f>
+        <f t="shared" si="1"/>
         <v>202.33333333333334</v>
       </c>
       <c r="G18" s="7">
@@ -2832,7 +2901,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="28"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="2" t="s">
         <v>96</v>
       </c>
@@ -2845,7 +2914,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="17">
-        <f>RANK(F19,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -2864,7 +2933,7 @@
         <v>1201</v>
       </c>
       <c r="F19" s="14">
-        <f>AVERAGE(E19/G19)</f>
+        <f t="shared" si="1"/>
         <v>200.16666666666666</v>
       </c>
       <c r="G19" s="7">
@@ -2873,7 +2942,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="28"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="2" t="s">
         <v>95</v>
       </c>
@@ -2886,7 +2955,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="17">
-        <f>RANK(F20,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -2905,7 +2974,7 @@
         <v>4200</v>
       </c>
       <c r="F20" s="14">
-        <f>AVERAGE(E20/G20)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G20" s="7">
@@ -2914,7 +2983,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="28"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="2" t="s">
         <v>93</v>
       </c>
@@ -2927,7 +2996,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="17">
-        <f>RANK(F21,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -2946,7 +3015,7 @@
         <v>5343</v>
       </c>
       <c r="F21" s="14">
-        <f>AVERAGE(E21/G21)</f>
+        <f t="shared" si="1"/>
         <v>197.88888888888889</v>
       </c>
       <c r="G21" s="7">
@@ -2955,7 +3024,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="28"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="2" t="s">
         <v>100</v>
       </c>
@@ -2968,7 +3037,7 @@
     </row>
     <row r="22" spans="1:17" hidden="1">
       <c r="A22" s="17">
-        <f>RANK(F22,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -2987,7 +3056,7 @@
         <v>2367</v>
       </c>
       <c r="F22" s="14">
-        <f>AVERAGE(E22/G22)</f>
+        <f t="shared" si="1"/>
         <v>197.25</v>
       </c>
       <c r="G22" s="7">
@@ -3023,7 +3092,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="17">
-        <f>RANK(F23,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -3042,7 +3111,7 @@
         <v>3552</v>
       </c>
       <c r="F23" s="14">
-        <f>AVERAGE(E23/G23)</f>
+        <f t="shared" si="1"/>
         <v>197.33333333333334</v>
       </c>
       <c r="G23" s="7">
@@ -3051,7 +3120,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="28"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="2" t="s">
         <v>139</v>
       </c>
@@ -3064,7 +3133,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="17">
-        <f>RANK(F24,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -3083,7 +3152,7 @@
         <v>1178</v>
       </c>
       <c r="F24" s="14">
-        <f>AVERAGE(E24/G24)</f>
+        <f t="shared" si="1"/>
         <v>196.33333333333334</v>
       </c>
       <c r="G24" s="7">
@@ -3092,7 +3161,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="28"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="2" t="s">
         <v>105</v>
       </c>
@@ -3105,7 +3174,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="17">
-        <f>RANK(F25,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -3124,7 +3193,7 @@
         <v>5285</v>
       </c>
       <c r="F25" s="14">
-        <f>AVERAGE(E25/G25)</f>
+        <f t="shared" si="1"/>
         <v>195.74074074074073</v>
       </c>
       <c r="G25" s="7">
@@ -3133,7 +3202,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="28"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="2" t="s">
         <v>138</v>
       </c>
@@ -3146,7 +3215,7 @@
     </row>
     <row r="26" spans="1:17" hidden="1">
       <c r="A26" s="17">
-        <f>RANK(F26,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -3165,7 +3234,7 @@
         <v>4106</v>
       </c>
       <c r="F26" s="14">
-        <f>AVERAGE(E26/G26)</f>
+        <f t="shared" si="1"/>
         <v>195.52380952380952</v>
       </c>
       <c r="G26" s="7">
@@ -3205,7 +3274,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="17">
-        <f>RANK(F27,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="str">
@@ -3224,7 +3293,7 @@
         <v>4672</v>
       </c>
       <c r="F27" s="14">
-        <f>AVERAGE(E27/G27)</f>
+        <f t="shared" si="1"/>
         <v>194.66666666666666</v>
       </c>
       <c r="G27" s="7">
@@ -3233,7 +3302,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="28"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="2" t="s">
         <v>140</v>
       </c>
@@ -3246,7 +3315,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="17">
-        <f>RANK(F28,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="str">
@@ -3265,7 +3334,7 @@
         <v>4041</v>
       </c>
       <c r="F28" s="14">
-        <f>AVERAGE(E28/G28)</f>
+        <f t="shared" si="1"/>
         <v>192.42857142857142</v>
       </c>
       <c r="G28" s="7">
@@ -3274,7 +3343,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="28"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="2" t="s">
         <v>92</v>
       </c>
@@ -3287,7 +3356,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="17">
-        <f>RANK(F29,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="str">
@@ -3306,7 +3375,7 @@
         <v>577</v>
       </c>
       <c r="F29" s="14">
-        <f>AVERAGE(E29/G29)</f>
+        <f t="shared" si="1"/>
         <v>192.33333333333334</v>
       </c>
       <c r="G29" s="7">
@@ -3315,7 +3384,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="28"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="2" t="s">
         <v>86</v>
       </c>
@@ -3328,7 +3397,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="17">
-        <f>RANK(F30,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="str">
@@ -3347,7 +3416,7 @@
         <v>2884</v>
       </c>
       <c r="F30" s="14">
-        <f>AVERAGE(E30/G30)</f>
+        <f t="shared" si="1"/>
         <v>192.26666666666668</v>
       </c>
       <c r="G30" s="7">
@@ -3356,7 +3425,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="28"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3369,7 +3438,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="17">
-        <f>RANK(F31,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="str">
@@ -3388,7 +3457,7 @@
         <v>2306</v>
       </c>
       <c r="F31" s="14">
-        <f>AVERAGE(E31/G31)</f>
+        <f t="shared" si="1"/>
         <v>192.16666666666666</v>
       </c>
       <c r="G31" s="7">
@@ -3397,7 +3466,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="28"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="2" t="s">
         <v>81</v>
       </c>
@@ -3410,7 +3479,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="17">
-        <f>RANK(F32,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="str">
@@ -3429,7 +3498,7 @@
         <v>1714</v>
       </c>
       <c r="F32" s="14">
-        <f>AVERAGE(E32/G32)</f>
+        <f t="shared" si="1"/>
         <v>190.44444444444446</v>
       </c>
       <c r="G32" s="7">
@@ -3438,7 +3507,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="28"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="2" t="s">
         <v>107</v>
       </c>
@@ -3451,7 +3520,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="17">
-        <f>RANK(F33,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="str">
@@ -3470,7 +3539,7 @@
         <v>3419</v>
       </c>
       <c r="F33" s="14">
-        <f>AVERAGE(E33/G33)</f>
+        <f t="shared" si="1"/>
         <v>189.94444444444446</v>
       </c>
       <c r="G33" s="7">
@@ -3479,7 +3548,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="28"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="2" t="s">
         <v>70</v>
       </c>
@@ -3492,7 +3561,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="17">
-        <f>RANK(F34,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="str">
@@ -3511,7 +3580,7 @@
         <v>2846</v>
       </c>
       <c r="F34" s="14">
-        <f>AVERAGE(E34/G34)</f>
+        <f t="shared" si="1"/>
         <v>189.73333333333332</v>
       </c>
       <c r="G34" s="7">
@@ -3520,7 +3589,7 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="28"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="2" t="s">
         <v>106</v>
       </c>
@@ -3533,7 +3602,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="17">
-        <f>RANK(F35,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="str">
@@ -3552,7 +3621,7 @@
         <v>2845</v>
       </c>
       <c r="F35" s="14">
-        <f>AVERAGE(E35/G35)</f>
+        <f t="shared" si="1"/>
         <v>189.66666666666666</v>
       </c>
       <c r="G35" s="7">
@@ -3561,7 +3630,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="28"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="2" t="s">
         <v>75</v>
       </c>
@@ -3574,7 +3643,7 @@
     </row>
     <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="17">
-        <f>RANK(F36,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="str">
@@ -3593,7 +3662,7 @@
         <v>561</v>
       </c>
       <c r="F36" s="14">
-        <f>AVERAGE(E36/G36)</f>
+        <f t="shared" si="1"/>
         <v>187</v>
       </c>
       <c r="G36" s="7">
@@ -3615,7 +3684,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="17">
-        <f>RANK(F37,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="str">
@@ -3634,7 +3703,7 @@
         <v>2781</v>
       </c>
       <c r="F37" s="14">
-        <f>AVERAGE(E37/G37)</f>
+        <f t="shared" si="1"/>
         <v>185.4</v>
       </c>
       <c r="G37" s="7">
@@ -3643,7 +3712,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="28"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="2" t="s">
         <v>103</v>
       </c>
@@ -3656,7 +3725,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="17">
-        <f>RANK(F38,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="str">
@@ -3675,7 +3744,7 @@
         <v>550</v>
       </c>
       <c r="F38" s="14">
-        <f>AVERAGE(E38/G38)</f>
+        <f t="shared" si="1"/>
         <v>183.33333333333334</v>
       </c>
       <c r="G38" s="7">
@@ -3684,7 +3753,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="22"/>
-      <c r="J38" s="28"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="2" t="s">
         <v>88</v>
       </c>
@@ -3697,7 +3766,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="17">
-        <f>RANK(F39,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="2" t="str">
@@ -3716,7 +3785,7 @@
         <v>2712</v>
       </c>
       <c r="F39" s="14">
-        <f>AVERAGE(E39/G39)</f>
+        <f t="shared" si="1"/>
         <v>180.8</v>
       </c>
       <c r="G39" s="7">
@@ -3725,7 +3794,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="28"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="2" t="s">
         <v>80</v>
       </c>
@@ -3738,7 +3807,7 @@
     </row>
     <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="17">
-        <f>RANK(F40,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="2" t="str">
@@ -3757,7 +3826,7 @@
         <v>4317</v>
       </c>
       <c r="F40" s="14">
-        <f>AVERAGE(E40/G40)</f>
+        <f t="shared" si="1"/>
         <v>179.875</v>
       </c>
       <c r="G40" s="7">
@@ -3779,7 +3848,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="17">
-        <f>RANK(F41,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="2" t="str">
@@ -3798,7 +3867,7 @@
         <v>4309</v>
       </c>
       <c r="F41" s="14">
-        <f>AVERAGE(E41/G41)</f>
+        <f t="shared" si="1"/>
         <v>179.54166666666666</v>
       </c>
       <c r="G41" s="7">
@@ -3807,7 +3876,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="22"/>
-      <c r="J41" s="28"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="2" t="s">
         <v>78</v>
       </c>
@@ -3820,7 +3889,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="17">
-        <f>RANK(F42,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="2" t="str">
@@ -3839,7 +3908,7 @@
         <v>3224</v>
       </c>
       <c r="F42" s="14">
-        <f>AVERAGE(E42/G42)</f>
+        <f t="shared" si="1"/>
         <v>179.11111111111111</v>
       </c>
       <c r="G42" s="7">
@@ -3848,7 +3917,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="28"/>
+      <c r="J42" s="26"/>
       <c r="K42" s="2" t="s">
         <v>77</v>
       </c>
@@ -3861,7 +3930,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="17">
-        <f>RANK(F43,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="2" t="str">
@@ -3880,7 +3949,7 @@
         <v>1061</v>
       </c>
       <c r="F43" s="14">
-        <f>AVERAGE(E43/G43)</f>
+        <f t="shared" si="1"/>
         <v>176.83333333333334</v>
       </c>
       <c r="G43" s="7">
@@ -3889,7 +3958,7 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="28"/>
+      <c r="J43" s="26"/>
       <c r="K43" s="2" t="s">
         <v>72</v>
       </c>
@@ -3902,7 +3971,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="17">
-        <f>RANK(F44,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="2" t="str">
@@ -3921,7 +3990,7 @@
         <v>3167</v>
       </c>
       <c r="F44" s="14">
-        <f>AVERAGE(E44/G44)</f>
+        <f t="shared" si="1"/>
         <v>175.94444444444446</v>
       </c>
       <c r="G44" s="7">
@@ -3930,7 +3999,7 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="22"/>
-      <c r="J44" s="28"/>
+      <c r="J44" s="26"/>
       <c r="K44" s="2" t="s">
         <v>65</v>
       </c>
@@ -3943,7 +4012,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="17">
-        <f>RANK(F45,$F$3:$F$100,0)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="2" t="str">
@@ -3962,7 +4031,7 @@
         <v>2060</v>
       </c>
       <c r="F45" s="14">
-        <f>AVERAGE(E45/G45)</f>
+        <f t="shared" si="1"/>
         <v>171.66666666666666</v>
       </c>
       <c r="G45" s="7">
@@ -3971,7 +4040,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="28"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="2" t="s">
         <v>79</v>
       </c>
@@ -4000,12 +4069,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F3:F1048576">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>199.99999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1 I3:J1048576">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4151,7 +4220,7 @@
         <v>170</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J66" si="0">SUM(G3:I3)</f>
         <v>647</v>
       </c>
       <c r="K3" s="2" t="str">
@@ -4195,7 +4264,7 @@
         <v>181</v>
       </c>
       <c r="J4" s="2">
-        <f>SUM(G4:I4)</f>
+        <f t="shared" si="0"/>
         <v>557</v>
       </c>
       <c r="K4" s="2" t="str">
@@ -4239,7 +4308,7 @@
         <v>222</v>
       </c>
       <c r="J5" s="2">
-        <f>SUM(G5:I5)</f>
+        <f t="shared" si="0"/>
         <v>564</v>
       </c>
       <c r="K5" s="2" t="str">
@@ -4283,7 +4352,7 @@
         <v>195</v>
       </c>
       <c r="J6" s="2">
-        <f>SUM(G6:I6)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="K6" s="2" t="str">
@@ -4327,7 +4396,7 @@
         <v>241</v>
       </c>
       <c r="J7" s="2">
-        <f>SUM(G7:I7)</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="K7" s="2" t="str">
@@ -4371,7 +4440,7 @@
         <v>182</v>
       </c>
       <c r="J8" s="2">
-        <f>SUM(G8:I8)</f>
+        <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="K8" s="2" t="str">
@@ -4415,7 +4484,7 @@
         <v>221</v>
       </c>
       <c r="J9" s="2">
-        <f>SUM(G9:I9)</f>
+        <f t="shared" si="0"/>
         <v>676</v>
       </c>
       <c r="K9" s="2" t="str">
@@ -4459,7 +4528,7 @@
         <v>187</v>
       </c>
       <c r="J10" s="2">
-        <f>SUM(G10:I10)</f>
+        <f t="shared" si="0"/>
         <v>576</v>
       </c>
       <c r="K10" s="2" t="str">
@@ -4503,7 +4572,7 @@
         <v>158</v>
       </c>
       <c r="J11" s="2">
-        <f>SUM(G11:I11)</f>
+        <f t="shared" si="0"/>
         <v>522</v>
       </c>
       <c r="K11" s="2" t="str">
@@ -4547,7 +4616,7 @@
         <v>158</v>
       </c>
       <c r="J12" s="2">
-        <f>SUM(G12:I12)</f>
+        <f t="shared" si="0"/>
         <v>536</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -4591,7 +4660,7 @@
         <v>169</v>
       </c>
       <c r="J13" s="2">
-        <f>SUM(G13:I13)</f>
+        <f t="shared" si="0"/>
         <v>528</v>
       </c>
       <c r="K13" s="2" t="str">
@@ -4635,7 +4704,7 @@
         <v>170</v>
       </c>
       <c r="J14" s="2">
-        <f>SUM(G14:I14)</f>
+        <f t="shared" si="0"/>
         <v>544</v>
       </c>
       <c r="K14" s="2" t="str">
@@ -4679,7 +4748,7 @@
         <v>205</v>
       </c>
       <c r="J15" s="2">
-        <f>SUM(G15:I15)</f>
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="K15" s="2" t="str">
@@ -4723,7 +4792,7 @@
         <v>176</v>
       </c>
       <c r="J16" s="2">
-        <f>SUM(G16:I16)</f>
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="K16" s="2" t="str">
@@ -4767,7 +4836,7 @@
         <v>257</v>
       </c>
       <c r="J17" s="2">
-        <f>SUM(G17:I17)</f>
+        <f t="shared" si="0"/>
         <v>696</v>
       </c>
       <c r="K17" s="2" t="str">
@@ -4811,7 +4880,7 @@
         <v>203</v>
       </c>
       <c r="J18" s="2">
-        <f>SUM(G18:I18)</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="K18" s="2" t="str">
@@ -4855,7 +4924,7 @@
         <v>199</v>
       </c>
       <c r="J19" s="2">
-        <f>SUM(G19:I19)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="K19" s="2" t="str">
@@ -4899,7 +4968,7 @@
         <v>214</v>
       </c>
       <c r="J20" s="2">
-        <f>SUM(G20:I20)</f>
+        <f t="shared" si="0"/>
         <v>621</v>
       </c>
       <c r="K20" s="2" t="str">
@@ -4943,7 +5012,7 @@
         <v>231</v>
       </c>
       <c r="J21" s="2">
-        <f>SUM(G21:I21)</f>
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
       <c r="K21" s="2" t="str">
@@ -4987,7 +5056,7 @@
         <v>164</v>
       </c>
       <c r="J22" s="2">
-        <f>SUM(G22:I22)</f>
+        <f t="shared" si="0"/>
         <v>556</v>
       </c>
       <c r="K22" s="2" t="str">
@@ -5031,7 +5100,7 @@
         <v>248</v>
       </c>
       <c r="J23" s="2">
-        <f>SUM(G23:I23)</f>
+        <f t="shared" si="0"/>
         <v>651</v>
       </c>
       <c r="K23" s="2" t="str">
@@ -5075,7 +5144,7 @@
         <v>203</v>
       </c>
       <c r="J24" s="2">
-        <f>SUM(G24:I24)</f>
+        <f t="shared" si="0"/>
         <v>563</v>
       </c>
       <c r="K24" s="2" t="str">
@@ -5119,7 +5188,7 @@
         <v>222</v>
       </c>
       <c r="J25" s="2">
-        <f>SUM(G25:I25)</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="K25" s="2" t="str">
@@ -5163,7 +5232,7 @@
         <v>202</v>
       </c>
       <c r="J26" s="2">
-        <f>SUM(G26:I26)</f>
+        <f t="shared" si="0"/>
         <v>596</v>
       </c>
       <c r="K26" s="2" t="str">
@@ -5207,7 +5276,7 @@
         <v>213</v>
       </c>
       <c r="J27" s="2">
-        <f>SUM(G27:I27)</f>
+        <f t="shared" si="0"/>
         <v>565</v>
       </c>
       <c r="K27" s="2" t="str">
@@ -5251,7 +5320,7 @@
         <v>209</v>
       </c>
       <c r="J28" s="2">
-        <f>SUM(G28:I28)</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="K28" s="2" t="str">
@@ -5295,7 +5364,7 @@
         <v>209</v>
       </c>
       <c r="J29" s="2">
-        <f>SUM(G29:I29)</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
       <c r="K29" s="2" t="str">
@@ -5339,7 +5408,7 @@
         <v>197</v>
       </c>
       <c r="J30" s="2">
-        <f>SUM(G30:I30)</f>
+        <f t="shared" si="0"/>
         <v>604</v>
       </c>
       <c r="K30" s="2" t="str">
@@ -5383,7 +5452,7 @@
         <v>177</v>
       </c>
       <c r="J31" s="2">
-        <f>SUM(G31:I31)</f>
+        <f t="shared" si="0"/>
         <v>509</v>
       </c>
       <c r="K31" s="2" t="str">
@@ -5427,7 +5496,7 @@
         <v>202</v>
       </c>
       <c r="J32" s="2">
-        <f>SUM(G32:I32)</f>
+        <f t="shared" si="0"/>
         <v>633</v>
       </c>
       <c r="K32" s="2" t="str">
@@ -5471,7 +5540,7 @@
         <v>236</v>
       </c>
       <c r="J33" s="2">
-        <f>SUM(G33:I33)</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
       <c r="K33" s="2" t="str">
@@ -5515,7 +5584,7 @@
         <v>173</v>
       </c>
       <c r="J34" s="2">
-        <f>SUM(G34:I34)</f>
+        <f t="shared" si="0"/>
         <v>563</v>
       </c>
       <c r="K34" s="2" t="str">
@@ -5559,7 +5628,7 @@
         <v>268</v>
       </c>
       <c r="J35" s="2">
-        <f>SUM(G35:I35)</f>
+        <f t="shared" si="0"/>
         <v>721</v>
       </c>
       <c r="K35" s="2" t="str">
@@ -5603,7 +5672,7 @@
         <v>200</v>
       </c>
       <c r="J36" s="2">
-        <f>SUM(G36:I36)</f>
+        <f t="shared" si="0"/>
         <v>539</v>
       </c>
       <c r="K36" s="2" t="str">
@@ -5647,7 +5716,7 @@
         <v>183</v>
       </c>
       <c r="J37" s="2">
-        <f>SUM(G37:I37)</f>
+        <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="K37" s="2" t="str">
@@ -5691,7 +5760,7 @@
         <v>171</v>
       </c>
       <c r="J38" s="2">
-        <f>SUM(G38:I38)</f>
+        <f t="shared" si="0"/>
         <v>573</v>
       </c>
       <c r="K38" s="2" t="str">
@@ -5735,7 +5804,7 @@
         <v>202</v>
       </c>
       <c r="J39" s="2">
-        <f>SUM(G39:I39)</f>
+        <f t="shared" si="0"/>
         <v>519</v>
       </c>
       <c r="K39" s="2" t="str">
@@ -5779,7 +5848,7 @@
         <v>225</v>
       </c>
       <c r="J40" s="2">
-        <f>SUM(G40:I40)</f>
+        <f t="shared" si="0"/>
         <v>555</v>
       </c>
       <c r="K40" s="2" t="str">
@@ -5823,7 +5892,7 @@
         <v>182</v>
       </c>
       <c r="J41" s="2">
-        <f>SUM(G41:I41)</f>
+        <f t="shared" si="0"/>
         <v>586</v>
       </c>
       <c r="K41" s="2" t="str">
@@ -5867,7 +5936,7 @@
         <v>186</v>
       </c>
       <c r="J42" s="2">
-        <f>SUM(G42:I42)</f>
+        <f t="shared" si="0"/>
         <v>624</v>
       </c>
       <c r="K42" s="2" t="str">
@@ -5911,7 +5980,7 @@
         <v>174</v>
       </c>
       <c r="J43" s="2">
-        <f>SUM(G43:I43)</f>
+        <f t="shared" si="0"/>
         <v>574</v>
       </c>
       <c r="K43" s="2" t="str">
@@ -5955,7 +6024,7 @@
         <v>257</v>
       </c>
       <c r="J44" s="2">
-        <f>SUM(G44:I44)</f>
+        <f t="shared" si="0"/>
         <v>634</v>
       </c>
       <c r="K44" s="2" t="str">
@@ -5999,7 +6068,7 @@
         <v>185</v>
       </c>
       <c r="J45" s="2">
-        <f>SUM(G45:I45)</f>
+        <f t="shared" si="0"/>
         <v>610</v>
       </c>
       <c r="K45" s="2" t="str">
@@ -6043,7 +6112,7 @@
         <v>202</v>
       </c>
       <c r="J46" s="2">
-        <f>SUM(G46:I46)</f>
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="K46" s="2" t="str">
@@ -6087,7 +6156,7 @@
         <v>206</v>
       </c>
       <c r="J47" s="2">
-        <f>SUM(G47:I47)</f>
+        <f t="shared" si="0"/>
         <v>561</v>
       </c>
       <c r="K47" s="2" t="str">
@@ -6131,7 +6200,7 @@
         <v>193</v>
       </c>
       <c r="J48" s="2">
-        <f>SUM(G48:I48)</f>
+        <f t="shared" si="0"/>
         <v>573</v>
       </c>
       <c r="K48" s="2" t="str">
@@ -6175,7 +6244,7 @@
         <v>202</v>
       </c>
       <c r="J49" s="2">
-        <f>SUM(G49:I49)</f>
+        <f t="shared" si="0"/>
         <v>638</v>
       </c>
       <c r="K49" s="2" t="str">
@@ -6219,7 +6288,7 @@
         <v>231</v>
       </c>
       <c r="J50" s="2">
-        <f>SUM(G50:I50)</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="K50" s="2" t="str">
@@ -6263,7 +6332,7 @@
         <v>257</v>
       </c>
       <c r="J51" s="2">
-        <f>SUM(G51:I51)</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="K51" s="2" t="str">
@@ -6307,7 +6376,7 @@
         <v>194</v>
       </c>
       <c r="J52" s="2">
-        <f>SUM(G52:I52)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="K52" s="2" t="str">
@@ -6351,7 +6420,7 @@
         <v>190</v>
       </c>
       <c r="J53" s="2">
-        <f>SUM(G53:I53)</f>
+        <f t="shared" si="0"/>
         <v>593</v>
       </c>
       <c r="K53" s="2" t="str">
@@ -6395,7 +6464,7 @@
         <v>211</v>
       </c>
       <c r="J54" s="2">
-        <f>SUM(G54:I54)</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
       <c r="K54" s="2" t="str">
@@ -6439,7 +6508,7 @@
         <v>199</v>
       </c>
       <c r="J55" s="2">
-        <f>SUM(G55:I55)</f>
+        <f t="shared" si="0"/>
         <v>539</v>
       </c>
       <c r="K55" s="2" t="str">
@@ -6483,7 +6552,7 @@
         <v>209</v>
       </c>
       <c r="J56" s="2">
-        <f>SUM(G56:I56)</f>
+        <f t="shared" si="0"/>
         <v>698</v>
       </c>
       <c r="K56" s="2" t="str">
@@ -6527,7 +6596,7 @@
         <v>257</v>
       </c>
       <c r="J57" s="2">
-        <f>SUM(G57:I57)</f>
+        <f t="shared" si="0"/>
         <v>643</v>
       </c>
       <c r="K57" s="2" t="str">
@@ -6571,7 +6640,7 @@
         <v>201</v>
       </c>
       <c r="J58" s="2">
-        <f>SUM(G58:I58)</f>
+        <f t="shared" si="0"/>
         <v>619</v>
       </c>
       <c r="K58" s="2" t="str">
@@ -6615,7 +6684,7 @@
         <v>240</v>
       </c>
       <c r="J59" s="2">
-        <f>SUM(G59:I59)</f>
+        <f t="shared" si="0"/>
         <v>598</v>
       </c>
       <c r="K59" s="2" t="str">
@@ -6659,7 +6728,7 @@
         <v>195</v>
       </c>
       <c r="J60" s="2">
-        <f>SUM(G60:I60)</f>
+        <f t="shared" si="0"/>
         <v>558</v>
       </c>
       <c r="K60" s="2" t="str">
@@ -6703,7 +6772,7 @@
         <v>226</v>
       </c>
       <c r="J61" s="2">
-        <f>SUM(G61:I61)</f>
+        <f t="shared" si="0"/>
         <v>573</v>
       </c>
       <c r="K61" s="2" t="str">
@@ -6747,7 +6816,7 @@
         <v>195</v>
       </c>
       <c r="J62" s="2">
-        <f>SUM(G62:I62)</f>
+        <f t="shared" si="0"/>
         <v>608</v>
       </c>
       <c r="K62" s="2" t="str">
@@ -6791,7 +6860,7 @@
         <v>214</v>
       </c>
       <c r="J63" s="2">
-        <f>SUM(G63:I63)</f>
+        <f t="shared" si="0"/>
         <v>581</v>
       </c>
       <c r="K63" s="2" t="str">
@@ -6835,7 +6904,7 @@
         <v>178</v>
       </c>
       <c r="J64" s="2">
-        <f>SUM(G64:I64)</f>
+        <f t="shared" si="0"/>
         <v>582</v>
       </c>
       <c r="K64" s="2" t="str">
@@ -6879,7 +6948,7 @@
         <v>173</v>
       </c>
       <c r="J65" s="2">
-        <f>SUM(G65:I65)</f>
+        <f t="shared" si="0"/>
         <v>547</v>
       </c>
       <c r="K65" s="2" t="str">
@@ -6923,7 +6992,7 @@
         <v>210</v>
       </c>
       <c r="J66" s="2">
-        <f>SUM(G66:I66)</f>
+        <f t="shared" si="0"/>
         <v>496</v>
       </c>
       <c r="K66" s="2" t="str">
@@ -6967,7 +7036,7 @@
         <v>153</v>
       </c>
       <c r="J67" s="2">
-        <f>SUM(G67:I67)</f>
+        <f t="shared" ref="J67:J130" si="1">SUM(G67:I67)</f>
         <v>515</v>
       </c>
       <c r="K67" s="2" t="str">
@@ -7011,7 +7080,7 @@
         <v>178</v>
       </c>
       <c r="J68" s="2">
-        <f>SUM(G68:I68)</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="K68" s="2" t="str">
@@ -7055,7 +7124,7 @@
         <v>181</v>
       </c>
       <c r="J69" s="2">
-        <f>SUM(G69:I69)</f>
+        <f t="shared" si="1"/>
         <v>559</v>
       </c>
       <c r="K69" s="2" t="str">
@@ -7099,7 +7168,7 @@
         <v>177</v>
       </c>
       <c r="J70" s="2">
-        <f>SUM(G70:I70)</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="K70" s="2" t="str">
@@ -7143,7 +7212,7 @@
         <v>203</v>
       </c>
       <c r="J71" s="2">
-        <f>SUM(G71:I71)</f>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="K71" s="2" t="str">
@@ -7187,7 +7256,7 @@
         <v>195</v>
       </c>
       <c r="J72" s="2">
-        <f>SUM(G72:I72)</f>
+        <f t="shared" si="1"/>
         <v>644</v>
       </c>
       <c r="K72" s="2" t="str">
@@ -7231,7 +7300,7 @@
         <v>192</v>
       </c>
       <c r="J73" s="2">
-        <f>SUM(G73:I73)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="K73" s="2" t="str">
@@ -7275,7 +7344,7 @@
         <v>213</v>
       </c>
       <c r="J74" s="2">
-        <f>SUM(G74:I74)</f>
+        <f t="shared" si="1"/>
         <v>659</v>
       </c>
       <c r="K74" s="2" t="str">
@@ -7319,7 +7388,7 @@
         <v>192</v>
       </c>
       <c r="J75" s="2">
-        <f>SUM(G75:I75)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="K75" s="2" t="str">
@@ -7363,7 +7432,7 @@
         <v>171</v>
       </c>
       <c r="J76" s="2">
-        <f>SUM(G76:I76)</f>
+        <f t="shared" si="1"/>
         <v>575</v>
       </c>
       <c r="K76" s="2" t="str">
@@ -7407,7 +7476,7 @@
         <v>193</v>
       </c>
       <c r="J77" s="2">
-        <f>SUM(G77:I77)</f>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="K77" s="2" t="str">
@@ -7451,7 +7520,7 @@
         <v>222</v>
       </c>
       <c r="J78" s="2">
-        <f>SUM(G78:I78)</f>
+        <f t="shared" si="1"/>
         <v>603</v>
       </c>
       <c r="K78" s="2" t="str">
@@ -7495,7 +7564,7 @@
         <v>197</v>
       </c>
       <c r="J79" s="2">
-        <f>SUM(G79:I79)</f>
+        <f t="shared" si="1"/>
         <v>667</v>
       </c>
       <c r="K79" s="2" t="str">
@@ -7539,7 +7608,7 @@
         <v>269</v>
       </c>
       <c r="J80" s="2">
-        <f>SUM(G80:I80)</f>
+        <f t="shared" si="1"/>
         <v>703</v>
       </c>
       <c r="K80" s="2" t="str">
@@ -7583,7 +7652,7 @@
         <v>188</v>
       </c>
       <c r="J81" s="2">
-        <f>SUM(G81:I81)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K81" s="2" t="str">
@@ -7627,7 +7696,7 @@
         <v>159</v>
       </c>
       <c r="J82" s="2">
-        <f>SUM(G82:I82)</f>
+        <f t="shared" si="1"/>
         <v>594</v>
       </c>
       <c r="K82" s="2" t="str">
@@ -7671,7 +7740,7 @@
         <v>226</v>
       </c>
       <c r="J83" s="2">
-        <f>SUM(G83:I83)</f>
+        <f t="shared" si="1"/>
         <v>662</v>
       </c>
       <c r="K83" s="2" t="str">
@@ -7715,7 +7784,7 @@
         <v>255</v>
       </c>
       <c r="J84" s="2">
-        <f>SUM(G84:I84)</f>
+        <f t="shared" si="1"/>
         <v>608</v>
       </c>
       <c r="K84" s="2" t="str">
@@ -7759,7 +7828,7 @@
         <v>155</v>
       </c>
       <c r="J85" s="2">
-        <f>SUM(G85:I85)</f>
+        <f t="shared" si="1"/>
         <v>503</v>
       </c>
       <c r="K85" s="2" t="str">
@@ -7803,7 +7872,7 @@
         <v>194</v>
       </c>
       <c r="J86" s="2">
-        <f>SUM(G86:I86)</f>
+        <f t="shared" si="1"/>
         <v>615</v>
       </c>
       <c r="K86" s="2" t="str">
@@ -7847,7 +7916,7 @@
         <v>179</v>
       </c>
       <c r="J87" s="2">
-        <f>SUM(G87:I87)</f>
+        <f t="shared" si="1"/>
         <v>567</v>
       </c>
       <c r="K87" s="2" t="str">
@@ -7891,7 +7960,7 @@
         <v>195</v>
       </c>
       <c r="J88" s="2">
-        <f>SUM(G88:I88)</f>
+        <f t="shared" si="1"/>
         <v>586</v>
       </c>
       <c r="K88" s="2" t="str">
@@ -7935,7 +8004,7 @@
         <v>235</v>
       </c>
       <c r="J89" s="2">
-        <f>SUM(G89:I89)</f>
+        <f t="shared" si="1"/>
         <v>698</v>
       </c>
       <c r="K89" s="2" t="str">
@@ -7979,7 +8048,7 @@
         <v>188</v>
       </c>
       <c r="J90" s="2">
-        <f>SUM(G90:I90)</f>
+        <f t="shared" si="1"/>
         <v>611</v>
       </c>
       <c r="K90" s="2" t="str">
@@ -8023,7 +8092,7 @@
         <v>213</v>
       </c>
       <c r="J91" s="2">
-        <f>SUM(G91:I91)</f>
+        <f t="shared" si="1"/>
         <v>634</v>
       </c>
       <c r="K91" s="2" t="str">
@@ -8067,7 +8136,7 @@
         <v>223</v>
       </c>
       <c r="J92" s="2">
-        <f>SUM(G92:I92)</f>
+        <f t="shared" si="1"/>
         <v>666</v>
       </c>
       <c r="K92" s="2" t="str">
@@ -8111,7 +8180,7 @@
         <v>145</v>
       </c>
       <c r="J93" s="2">
-        <f>SUM(G93:I93)</f>
+        <f t="shared" si="1"/>
         <v>496</v>
       </c>
       <c r="K93" s="2" t="str">
@@ -8155,7 +8224,7 @@
         <v>227</v>
       </c>
       <c r="J94" s="2">
-        <f>SUM(G94:I94)</f>
+        <f t="shared" si="1"/>
         <v>572</v>
       </c>
       <c r="K94" s="2" t="str">
@@ -8199,7 +8268,7 @@
         <v>176</v>
       </c>
       <c r="J95" s="2">
-        <f>SUM(G95:I95)</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="K95" s="2" t="str">
@@ -8243,7 +8312,7 @@
         <v>187</v>
       </c>
       <c r="J96" s="2">
-        <f>SUM(G96:I96)</f>
+        <f t="shared" si="1"/>
         <v>567</v>
       </c>
       <c r="K96" s="2" t="str">
@@ -8287,7 +8356,7 @@
         <v>148</v>
       </c>
       <c r="J97" s="2">
-        <f>SUM(G97:I97)</f>
+        <f t="shared" si="1"/>
         <v>511</v>
       </c>
       <c r="K97" s="2" t="str">
@@ -8331,7 +8400,7 @@
         <v>215</v>
       </c>
       <c r="J98" s="2">
-        <f>SUM(G98:I98)</f>
+        <f t="shared" si="1"/>
         <v>664</v>
       </c>
       <c r="K98" s="2" t="str">
@@ -8375,7 +8444,7 @@
         <v>162</v>
       </c>
       <c r="J99" s="2">
-        <f>SUM(G99:I99)</f>
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K99" s="2" t="str">
@@ -8419,7 +8488,7 @@
         <v>217</v>
       </c>
       <c r="J100" s="2">
-        <f>SUM(G100:I100)</f>
+        <f t="shared" si="1"/>
         <v>677</v>
       </c>
       <c r="K100" s="2" t="str">
@@ -8463,7 +8532,7 @@
         <v>174</v>
       </c>
       <c r="J101" s="2">
-        <f>SUM(G101:I101)</f>
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="K101" s="2" t="str">
@@ -8507,7 +8576,7 @@
         <v>224</v>
       </c>
       <c r="J102" s="2">
-        <f>SUM(G102:I102)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="K102" s="2" t="str">
@@ -8551,7 +8620,7 @@
         <v>172</v>
       </c>
       <c r="J103" s="2">
-        <f>SUM(G103:I103)</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="K103" s="2" t="str">
@@ -8595,7 +8664,7 @@
         <v>257</v>
       </c>
       <c r="J104" s="2">
-        <f>SUM(G104:I104)</f>
+        <f t="shared" si="1"/>
         <v>626</v>
       </c>
       <c r="K104" s="2" t="str">
@@ -8639,7 +8708,7 @@
         <v>214</v>
       </c>
       <c r="J105" s="2">
-        <f>SUM(G105:I105)</f>
+        <f t="shared" si="1"/>
         <v>674</v>
       </c>
       <c r="K105" s="2" t="str">
@@ -8683,7 +8752,7 @@
         <v>207</v>
       </c>
       <c r="J106" s="2">
-        <f>SUM(G106:I106)</f>
+        <f t="shared" si="1"/>
         <v>769</v>
       </c>
       <c r="K106" s="2" t="str">
@@ -8727,7 +8796,7 @@
         <v>226</v>
       </c>
       <c r="J107" s="2">
-        <f>SUM(G107:I107)</f>
+        <f t="shared" si="1"/>
         <v>596</v>
       </c>
       <c r="K107" s="2" t="str">
@@ -8771,7 +8840,7 @@
         <v>180</v>
       </c>
       <c r="J108" s="2">
-        <f>SUM(G108:I108)</f>
+        <f t="shared" si="1"/>
         <v>508</v>
       </c>
       <c r="K108" s="2" t="str">
@@ -8815,7 +8884,7 @@
         <v>202</v>
       </c>
       <c r="J109" s="2">
-        <f>SUM(G109:I109)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K109" s="2" t="str">
@@ -8859,7 +8928,7 @@
         <v>208</v>
       </c>
       <c r="J110" s="2">
-        <f>SUM(G110:I110)</f>
+        <f t="shared" si="1"/>
         <v>619</v>
       </c>
       <c r="K110" s="2" t="str">
@@ -8903,7 +8972,7 @@
         <v>232</v>
       </c>
       <c r="J111" s="2">
-        <f>SUM(G111:I111)</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="K111" s="2" t="str">
@@ -8947,7 +9016,7 @@
         <v>183</v>
       </c>
       <c r="J112" s="2">
-        <f>SUM(G112:I112)</f>
+        <f t="shared" si="1"/>
         <v>498</v>
       </c>
       <c r="K112" s="2" t="str">
@@ -8991,7 +9060,7 @@
         <v>287</v>
       </c>
       <c r="J113" s="2">
-        <f>SUM(G113:I113)</f>
+        <f t="shared" si="1"/>
         <v>778</v>
       </c>
       <c r="K113" s="2" t="str">
@@ -9035,7 +9104,7 @@
         <v>214</v>
       </c>
       <c r="J114" s="2">
-        <f>SUM(G114:I114)</f>
+        <f t="shared" si="1"/>
         <v>668</v>
       </c>
       <c r="K114" s="2" t="str">
@@ -9079,7 +9148,7 @@
         <v>171</v>
       </c>
       <c r="J115" s="2">
-        <f>SUM(G115:I115)</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="K115" s="2" t="str">
@@ -9123,7 +9192,7 @@
         <v>202</v>
       </c>
       <c r="J116" s="2">
-        <f>SUM(G116:I116)</f>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
       <c r="K116" s="2" t="str">
@@ -9167,7 +9236,7 @@
         <v>221</v>
       </c>
       <c r="J117" s="2">
-        <f>SUM(G117:I117)</f>
+        <f t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="K117" s="2" t="str">
@@ -9211,7 +9280,7 @@
         <v>183</v>
       </c>
       <c r="J118" s="2">
-        <f>SUM(G118:I118)</f>
+        <f t="shared" si="1"/>
         <v>514</v>
       </c>
       <c r="K118" s="2" t="str">
@@ -9255,7 +9324,7 @@
         <v>169</v>
       </c>
       <c r="J119" s="2">
-        <f>SUM(G119:I119)</f>
+        <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="K119" s="2" t="str">
@@ -9299,7 +9368,7 @@
         <v>170</v>
       </c>
       <c r="J120" s="2">
-        <f>SUM(G120:I120)</f>
+        <f t="shared" si="1"/>
         <v>593</v>
       </c>
       <c r="K120" s="2" t="str">
@@ -9343,7 +9412,7 @@
         <v>131</v>
       </c>
       <c r="J121" s="2">
-        <f>SUM(G121:I121)</f>
+        <f t="shared" si="1"/>
         <v>491</v>
       </c>
       <c r="K121" s="2" t="str">
@@ -9387,7 +9456,7 @@
         <v>184</v>
       </c>
       <c r="J122" s="2">
-        <f>SUM(G122:I122)</f>
+        <f t="shared" si="1"/>
         <v>546</v>
       </c>
       <c r="K122" s="2" t="str">
@@ -9431,7 +9500,7 @@
         <v>209</v>
       </c>
       <c r="J123" s="2">
-        <f>SUM(G123:I123)</f>
+        <f t="shared" si="1"/>
         <v>622</v>
       </c>
       <c r="K123" s="2" t="str">
@@ -9475,7 +9544,7 @@
         <v>196</v>
       </c>
       <c r="J124" s="2">
-        <f>SUM(G124:I124)</f>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="K124" s="2" t="str">
@@ -9519,7 +9588,7 @@
         <v>191</v>
       </c>
       <c r="J125" s="2">
-        <f>SUM(G125:I125)</f>
+        <f t="shared" si="1"/>
         <v>707</v>
       </c>
       <c r="K125" s="2" t="str">
@@ -9563,7 +9632,7 @@
         <v>235</v>
       </c>
       <c r="J126" s="2">
-        <f>SUM(G126:I126)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="K126" s="2" t="str">
@@ -9607,7 +9676,7 @@
         <v>194</v>
       </c>
       <c r="J127" s="2">
-        <f>SUM(G127:I127)</f>
+        <f t="shared" si="1"/>
         <v>605</v>
       </c>
       <c r="K127" s="2" t="str">
@@ -9651,7 +9720,7 @@
         <v>232</v>
       </c>
       <c r="J128" s="2">
-        <f>SUM(G128:I128)</f>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="K128" s="2" t="str">
@@ -9695,7 +9764,7 @@
         <v>189</v>
       </c>
       <c r="J129" s="2">
-        <f>SUM(G129:I129)</f>
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
       <c r="K129" s="2" t="str">
@@ -9739,7 +9808,7 @@
         <v>236</v>
       </c>
       <c r="J130" s="2">
-        <f>SUM(G130:I130)</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="K130" s="2" t="str">
@@ -9783,7 +9852,7 @@
         <v>237</v>
       </c>
       <c r="J131" s="2">
-        <f>SUM(G131:I131)</f>
+        <f t="shared" ref="J131:J194" si="2">SUM(G131:I131)</f>
         <v>618</v>
       </c>
       <c r="K131" s="2" t="str">
@@ -9827,7 +9896,7 @@
         <v>190</v>
       </c>
       <c r="J132" s="2">
-        <f>SUM(G132:I132)</f>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="K132" s="2" t="str">
@@ -9871,7 +9940,7 @@
         <v>178</v>
       </c>
       <c r="J133" s="2">
-        <f>SUM(G133:I133)</f>
+        <f t="shared" si="2"/>
         <v>614</v>
       </c>
       <c r="K133" s="2" t="str">
@@ -9915,7 +9984,7 @@
         <v>241</v>
       </c>
       <c r="J134" s="2">
-        <f>SUM(G134:I134)</f>
+        <f t="shared" si="2"/>
         <v>660</v>
       </c>
       <c r="K134" s="2" t="str">
@@ -9959,7 +10028,7 @@
         <v>162</v>
       </c>
       <c r="J135" s="2">
-        <f>SUM(G135:I135)</f>
+        <f t="shared" si="2"/>
         <v>534</v>
       </c>
       <c r="K135" s="2" t="str">
@@ -10003,7 +10072,7 @@
         <v>266</v>
       </c>
       <c r="J136" s="2">
-        <f>SUM(G136:I136)</f>
+        <f t="shared" si="2"/>
         <v>610</v>
       </c>
       <c r="K136" s="2" t="str">
@@ -10047,7 +10116,7 @@
         <v>213</v>
       </c>
       <c r="J137" s="2">
-        <f>SUM(G137:I137)</f>
+        <f t="shared" si="2"/>
         <v>637</v>
       </c>
       <c r="K137" s="2" t="str">
@@ -10091,7 +10160,7 @@
         <v>254</v>
       </c>
       <c r="J138" s="2">
-        <f>SUM(G138:I138)</f>
+        <f t="shared" si="2"/>
         <v>705</v>
       </c>
       <c r="K138" s="2" t="str">
@@ -10135,7 +10204,7 @@
         <v>201</v>
       </c>
       <c r="J139" s="2">
-        <f>SUM(G139:I139)</f>
+        <f t="shared" si="2"/>
         <v>599</v>
       </c>
       <c r="K139" s="2" t="str">
@@ -10179,7 +10248,7 @@
         <v>179</v>
       </c>
       <c r="J140" s="2">
-        <f>SUM(G140:I140)</f>
+        <f t="shared" si="2"/>
         <v>556</v>
       </c>
       <c r="K140" s="2" t="str">
@@ -10223,7 +10292,7 @@
         <v>241</v>
       </c>
       <c r="J141" s="2">
-        <f>SUM(G141:I141)</f>
+        <f t="shared" si="2"/>
         <v>581</v>
       </c>
       <c r="K141" s="2" t="str">
@@ -10267,7 +10336,7 @@
         <v>214</v>
       </c>
       <c r="J142" s="2">
-        <f>SUM(G142:I142)</f>
+        <f t="shared" si="2"/>
         <v>636</v>
       </c>
       <c r="K142" s="2" t="str">
@@ -10311,7 +10380,7 @@
         <v>204</v>
       </c>
       <c r="J143" s="2">
-        <f>SUM(G143:I143)</f>
+        <f t="shared" si="2"/>
         <v>641</v>
       </c>
       <c r="K143" s="2" t="str">
@@ -10355,7 +10424,7 @@
         <v>203</v>
       </c>
       <c r="J144" s="2">
-        <f>SUM(G144:I144)</f>
+        <f t="shared" si="2"/>
         <v>546</v>
       </c>
       <c r="K144" s="2" t="str">
@@ -10399,7 +10468,7 @@
         <v>177</v>
       </c>
       <c r="J145" s="2">
-        <f>SUM(G145:I145)</f>
+        <f t="shared" si="2"/>
         <v>543</v>
       </c>
       <c r="K145" s="2" t="str">
@@ -10443,7 +10512,7 @@
         <v>145</v>
       </c>
       <c r="J146" s="2">
-        <f>SUM(G146:I146)</f>
+        <f t="shared" si="2"/>
         <v>545</v>
       </c>
       <c r="K146" s="2" t="str">
@@ -10487,7 +10556,7 @@
         <v>173</v>
       </c>
       <c r="J147" s="2">
-        <f>SUM(G147:I147)</f>
+        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="K147" s="2" t="str">
@@ -10531,7 +10600,7 @@
         <v>188</v>
       </c>
       <c r="J148" s="2">
-        <f>SUM(G148:I148)</f>
+        <f t="shared" si="2"/>
         <v>517</v>
       </c>
       <c r="K148" s="2" t="str">
@@ -10575,7 +10644,7 @@
         <v>263</v>
       </c>
       <c r="J149" s="2">
-        <f>SUM(G149:I149)</f>
+        <f t="shared" si="2"/>
         <v>647</v>
       </c>
       <c r="K149" s="2" t="str">
@@ -10619,7 +10688,7 @@
         <v>225</v>
       </c>
       <c r="J150" s="2">
-        <f>SUM(G150:I150)</f>
+        <f t="shared" si="2"/>
         <v>604</v>
       </c>
       <c r="K150" s="2" t="str">
@@ -10663,7 +10732,7 @@
         <v>201</v>
       </c>
       <c r="J151" s="2">
-        <f>SUM(G151:I151)</f>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="K151" s="2" t="str">
@@ -10707,7 +10776,7 @@
         <v>229</v>
       </c>
       <c r="J152" s="2">
-        <f>SUM(G152:I152)</f>
+        <f t="shared" si="2"/>
         <v>573</v>
       </c>
       <c r="K152" s="2" t="str">
@@ -10751,7 +10820,7 @@
         <v>237</v>
       </c>
       <c r="J153" s="2">
-        <f>SUM(G153:I153)</f>
+        <f t="shared" si="2"/>
         <v>651</v>
       </c>
       <c r="K153" s="2" t="str">
@@ -10795,7 +10864,7 @@
         <v>218</v>
       </c>
       <c r="J154" s="2">
-        <f>SUM(G154:I154)</f>
+        <f t="shared" si="2"/>
         <v>638</v>
       </c>
       <c r="K154" s="2" t="str">
@@ -10839,7 +10908,7 @@
         <v>215</v>
       </c>
       <c r="J155" s="2">
-        <f>SUM(G155:I155)</f>
+        <f t="shared" si="2"/>
         <v>623</v>
       </c>
       <c r="K155" s="2" t="str">
@@ -10883,7 +10952,7 @@
         <v>167</v>
       </c>
       <c r="J156" s="2">
-        <f>SUM(G156:I156)</f>
+        <f t="shared" si="2"/>
         <v>620</v>
       </c>
       <c r="K156" s="2" t="str">
@@ -10927,7 +10996,7 @@
         <v>211</v>
       </c>
       <c r="J157" s="2">
-        <f>SUM(G157:I157)</f>
+        <f t="shared" si="2"/>
         <v>591</v>
       </c>
       <c r="K157" s="2" t="str">
@@ -10971,7 +11040,7 @@
         <v>194</v>
       </c>
       <c r="J158" s="2">
-        <f>SUM(G158:I158)</f>
+        <f t="shared" si="2"/>
         <v>589</v>
       </c>
       <c r="K158" s="2" t="str">
@@ -11015,7 +11084,7 @@
         <v>173</v>
       </c>
       <c r="J159" s="2">
-        <f>SUM(G159:I159)</f>
+        <f t="shared" si="2"/>
         <v>567</v>
       </c>
       <c r="K159" s="2" t="str">
@@ -11059,7 +11128,7 @@
         <v>172</v>
       </c>
       <c r="J160" s="2">
-        <f>SUM(G160:I160)</f>
+        <f t="shared" si="2"/>
         <v>558</v>
       </c>
       <c r="K160" s="2" t="str">
@@ -11103,7 +11172,7 @@
         <v>226</v>
       </c>
       <c r="J161" s="2">
-        <f>SUM(G161:I161)</f>
+        <f t="shared" si="2"/>
         <v>603</v>
       </c>
       <c r="K161" s="2" t="str">
@@ -11147,7 +11216,7 @@
         <v>204</v>
       </c>
       <c r="J162" s="2">
-        <f>SUM(G162:I162)</f>
+        <f t="shared" si="2"/>
         <v>659</v>
       </c>
       <c r="K162" s="2" t="str">
@@ -11191,7 +11260,7 @@
         <v>132</v>
       </c>
       <c r="J163" s="2">
-        <f>SUM(G163:I163)</f>
+        <f t="shared" si="2"/>
         <v>491</v>
       </c>
       <c r="K163" s="2" t="str">
@@ -11235,7 +11304,7 @@
         <v>219</v>
       </c>
       <c r="J164" s="2">
-        <f>SUM(G164:I164)</f>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="K164" s="2" t="str">
@@ -11279,7 +11348,7 @@
         <v>246</v>
       </c>
       <c r="J165" s="2">
-        <f>SUM(G165:I165)</f>
+        <f t="shared" si="2"/>
         <v>712</v>
       </c>
       <c r="K165" s="2" t="str">
@@ -11323,7 +11392,7 @@
         <v>201</v>
       </c>
       <c r="J166" s="2">
-        <f>SUM(G166:I166)</f>
+        <f t="shared" si="2"/>
         <v>501</v>
       </c>
       <c r="K166" s="2" t="str">
@@ -11367,7 +11436,7 @@
         <v>215</v>
       </c>
       <c r="J167" s="2">
-        <f>SUM(G167:I167)</f>
+        <f t="shared" si="2"/>
         <v>666</v>
       </c>
       <c r="K167" s="2" t="str">
@@ -11411,7 +11480,7 @@
         <v>192</v>
       </c>
       <c r="J168" s="2">
-        <f>SUM(G168:I168)</f>
+        <f t="shared" si="2"/>
         <v>378</v>
       </c>
       <c r="K168" s="2" t="str">
@@ -11455,7 +11524,7 @@
         <v>185</v>
       </c>
       <c r="J169" s="2">
-        <f>SUM(G169:I169)</f>
+        <f t="shared" si="2"/>
         <v>597</v>
       </c>
       <c r="K169" s="2" t="str">
@@ -11499,7 +11568,7 @@
         <v>179</v>
       </c>
       <c r="J170" s="2">
-        <f>SUM(G170:I170)</f>
+        <f t="shared" si="2"/>
         <v>632</v>
       </c>
       <c r="K170" s="2" t="str">
@@ -11543,7 +11612,7 @@
         <v>170</v>
       </c>
       <c r="J171" s="2">
-        <f>SUM(G171:I171)</f>
+        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="K171" s="2" t="str">
@@ -11587,7 +11656,7 @@
         <v>206</v>
       </c>
       <c r="J172" s="2">
-        <f>SUM(G172:I172)</f>
+        <f t="shared" si="2"/>
         <v>524</v>
       </c>
       <c r="K172" s="2" t="str">
@@ -11631,7 +11700,7 @@
         <v>152</v>
       </c>
       <c r="J173" s="2">
-        <f>SUM(G173:I173)</f>
+        <f t="shared" si="2"/>
         <v>511</v>
       </c>
       <c r="K173" s="2" t="str">
@@ -11675,7 +11744,7 @@
         <v>186</v>
       </c>
       <c r="J174" s="2">
-        <f>SUM(G174:I174)</f>
+        <f t="shared" si="2"/>
         <v>596</v>
       </c>
       <c r="K174" s="2" t="str">
@@ -11719,7 +11788,7 @@
         <v>201</v>
       </c>
       <c r="J175" s="2">
-        <f>SUM(G175:I175)</f>
+        <f t="shared" si="2"/>
         <v>527</v>
       </c>
       <c r="K175" s="2" t="str">
@@ -11763,7 +11832,7 @@
         <v>161</v>
       </c>
       <c r="J176" s="2">
-        <f>SUM(G176:I176)</f>
+        <f t="shared" si="2"/>
         <v>510</v>
       </c>
       <c r="K176" s="2" t="str">
@@ -11807,7 +11876,7 @@
         <v>187</v>
       </c>
       <c r="J177" s="2">
-        <f>SUM(G177:I177)</f>
+        <f t="shared" si="2"/>
         <v>529</v>
       </c>
       <c r="K177" s="2" t="str">
@@ -11851,7 +11920,7 @@
         <v>190</v>
       </c>
       <c r="J178" s="2">
-        <f>SUM(G178:I178)</f>
+        <f t="shared" si="2"/>
         <v>533</v>
       </c>
       <c r="K178" s="2" t="str">
@@ -11895,7 +11964,7 @@
         <v>184</v>
       </c>
       <c r="J179" s="2">
-        <f>SUM(G179:I179)</f>
+        <f t="shared" si="2"/>
         <v>653</v>
       </c>
       <c r="K179" s="2" t="str">
@@ -11939,7 +12008,7 @@
         <v>173</v>
       </c>
       <c r="J180" s="2">
-        <f>SUM(G180:I180)</f>
+        <f t="shared" si="2"/>
         <v>548</v>
       </c>
       <c r="K180" s="2" t="str">
@@ -11983,7 +12052,7 @@
         <v>216</v>
       </c>
       <c r="J181" s="2">
-        <f>SUM(G181:I181)</f>
+        <f t="shared" si="2"/>
         <v>643</v>
       </c>
       <c r="K181" s="2" t="str">
@@ -12027,7 +12096,7 @@
         <v>194</v>
       </c>
       <c r="J182" s="2">
-        <f>SUM(G182:I182)</f>
+        <f t="shared" si="2"/>
         <v>558</v>
       </c>
       <c r="K182" s="2" t="str">
@@ -12071,7 +12140,7 @@
         <v>163</v>
       </c>
       <c r="J183" s="2">
-        <f>SUM(G183:I183)</f>
+        <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="K183" s="2" t="str">
@@ -12115,7 +12184,7 @@
         <v>180</v>
       </c>
       <c r="J184" s="2">
-        <f>SUM(G184:I184)</f>
+        <f t="shared" si="2"/>
         <v>524</v>
       </c>
       <c r="K184" s="2" t="str">
@@ -12159,7 +12228,7 @@
         <v>169</v>
       </c>
       <c r="J185" s="2">
-        <f>SUM(G185:I185)</f>
+        <f t="shared" si="2"/>
         <v>507</v>
       </c>
       <c r="K185" s="2" t="str">
@@ -12203,7 +12272,7 @@
         <v>196</v>
       </c>
       <c r="J186" s="2">
-        <f>SUM(G186:I186)</f>
+        <f t="shared" si="2"/>
         <v>636</v>
       </c>
       <c r="K186" s="2" t="str">
@@ -12247,7 +12316,7 @@
         <v>240</v>
       </c>
       <c r="J187" s="2">
-        <f>SUM(G187:I187)</f>
+        <f t="shared" si="2"/>
         <v>642</v>
       </c>
       <c r="K187" s="2" t="str">
@@ -12291,7 +12360,7 @@
         <v>243</v>
       </c>
       <c r="J188" s="2">
-        <f>SUM(G188:I188)</f>
+        <f t="shared" si="2"/>
         <v>689</v>
       </c>
       <c r="K188" s="2" t="str">
@@ -12335,7 +12404,7 @@
         <v>164</v>
       </c>
       <c r="J189" s="2">
-        <f>SUM(G189:I189)</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="K189" s="2" t="str">
@@ -12379,7 +12448,7 @@
         <v>218</v>
       </c>
       <c r="J190" s="2">
-        <f>SUM(G190:I190)</f>
+        <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="K190" s="2" t="str">
@@ -12423,7 +12492,7 @@
         <v>186</v>
       </c>
       <c r="J191" s="2">
-        <f>SUM(G191:I191)</f>
+        <f t="shared" si="2"/>
         <v>579</v>
       </c>
       <c r="K191" s="2" t="str">
@@ -12467,7 +12536,7 @@
         <v>179</v>
       </c>
       <c r="J192" s="2">
-        <f>SUM(G192:I192)</f>
+        <f t="shared" si="2"/>
         <v>594</v>
       </c>
       <c r="K192" s="2" t="str">
@@ -12511,7 +12580,7 @@
         <v>158</v>
       </c>
       <c r="J193" s="2">
-        <f>SUM(G193:I193)</f>
+        <f t="shared" si="2"/>
         <v>508</v>
       </c>
       <c r="K193" s="2" t="str">
@@ -12555,7 +12624,7 @@
         <v>170</v>
       </c>
       <c r="J194" s="2">
-        <f>SUM(G194:I194)</f>
+        <f t="shared" si="2"/>
         <v>642</v>
       </c>
       <c r="K194" s="2" t="str">
@@ -12599,7 +12668,7 @@
         <v>195</v>
       </c>
       <c r="J195" s="2">
-        <f>SUM(G195:I195)</f>
+        <f t="shared" ref="J195:J258" si="3">SUM(G195:I195)</f>
         <v>631</v>
       </c>
       <c r="K195" s="2" t="str">
@@ -12643,7 +12712,7 @@
         <v>221</v>
       </c>
       <c r="J196" s="2">
-        <f>SUM(G196:I196)</f>
+        <f t="shared" si="3"/>
         <v>659</v>
       </c>
       <c r="K196" s="2" t="str">
@@ -12687,7 +12756,7 @@
         <v>165</v>
       </c>
       <c r="J197" s="2">
-        <f>SUM(G197:I197)</f>
+        <f t="shared" si="3"/>
         <v>681</v>
       </c>
       <c r="K197" s="2" t="str">
@@ -12731,7 +12800,7 @@
         <v>223</v>
       </c>
       <c r="J198" s="2">
-        <f>SUM(G198:I198)</f>
+        <f t="shared" si="3"/>
         <v>617</v>
       </c>
       <c r="K198" s="2" t="str">
@@ -12775,7 +12844,7 @@
         <v>249</v>
       </c>
       <c r="J199" s="2">
-        <f>SUM(G199:I199)</f>
+        <f t="shared" si="3"/>
         <v>657</v>
       </c>
       <c r="K199" s="2" t="str">
@@ -12819,7 +12888,7 @@
         <v>149</v>
       </c>
       <c r="J200" s="2">
-        <f>SUM(G200:I200)</f>
+        <f t="shared" si="3"/>
         <v>514</v>
       </c>
       <c r="K200" s="2" t="str">
@@ -12863,7 +12932,7 @@
         <v>152</v>
       </c>
       <c r="J201" s="2">
-        <f>SUM(G201:I201)</f>
+        <f t="shared" si="3"/>
         <v>509</v>
       </c>
       <c r="K201" s="2" t="str">
@@ -12907,7 +12976,7 @@
         <v>152</v>
       </c>
       <c r="J202" s="2">
-        <f>SUM(G202:I202)</f>
+        <f t="shared" si="3"/>
         <v>458</v>
       </c>
       <c r="K202" s="2" t="str">
@@ -12951,7 +13020,7 @@
         <v>209</v>
       </c>
       <c r="J203" s="2">
-        <f>SUM(G203:I203)</f>
+        <f t="shared" si="3"/>
         <v>607</v>
       </c>
       <c r="K203" s="2" t="str">
@@ -12995,7 +13064,7 @@
         <v>200</v>
       </c>
       <c r="J204" s="2">
-        <f>SUM(G204:I204)</f>
+        <f t="shared" si="3"/>
         <v>562</v>
       </c>
       <c r="K204" s="2" t="str">
@@ -13039,7 +13108,7 @@
         <v>269</v>
       </c>
       <c r="J205" s="2">
-        <f>SUM(G205:I205)</f>
+        <f t="shared" si="3"/>
         <v>724</v>
       </c>
       <c r="K205" s="2" t="str">
@@ -13083,7 +13152,7 @@
         <v>192</v>
       </c>
       <c r="J206" s="2">
-        <f>SUM(G206:I206)</f>
+        <f t="shared" si="3"/>
         <v>652</v>
       </c>
       <c r="K206" s="2" t="str">
@@ -13127,7 +13196,7 @@
         <v>223</v>
       </c>
       <c r="J207" s="2">
-        <f>SUM(G207:I207)</f>
+        <f t="shared" si="3"/>
         <v>653</v>
       </c>
       <c r="K207" s="2" t="str">
@@ -13171,7 +13240,7 @@
         <v>206</v>
       </c>
       <c r="J208" s="2">
-        <f>SUM(G208:I208)</f>
+        <f t="shared" si="3"/>
         <v>619</v>
       </c>
       <c r="K208" s="2" t="str">
@@ -13215,7 +13284,7 @@
         <v>153</v>
       </c>
       <c r="J209" s="2">
-        <f>SUM(G209:I209)</f>
+        <f t="shared" si="3"/>
         <v>505</v>
       </c>
       <c r="K209" s="2" t="str">
@@ -13259,7 +13328,7 @@
         <v>196</v>
       </c>
       <c r="J210" s="2">
-        <f>SUM(G210:I210)</f>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="K210" s="2" t="str">
@@ -13303,7 +13372,7 @@
         <v>169</v>
       </c>
       <c r="J211" s="2">
-        <f>SUM(G211:I211)</f>
+        <f t="shared" si="3"/>
         <v>496</v>
       </c>
       <c r="K211" s="2" t="str">
@@ -13347,7 +13416,7 @@
         <v>171</v>
       </c>
       <c r="J212" s="2">
-        <f>SUM(G212:I212)</f>
+        <f t="shared" si="3"/>
         <v>590</v>
       </c>
       <c r="K212" s="2" t="str">
@@ -13391,7 +13460,7 @@
         <v>149</v>
       </c>
       <c r="J213" s="2">
-        <f>SUM(G213:I213)</f>
+        <f t="shared" si="3"/>
         <v>439</v>
       </c>
       <c r="K213" s="2" t="str">
@@ -13435,7 +13504,7 @@
         <v>184</v>
       </c>
       <c r="J214" s="2">
-        <f>SUM(G214:I214)</f>
+        <f t="shared" si="3"/>
         <v>563</v>
       </c>
       <c r="K214" s="2" t="str">
@@ -13479,7 +13548,7 @@
         <v>232</v>
       </c>
       <c r="J215" s="2">
-        <f>SUM(G215:I215)</f>
+        <f t="shared" si="3"/>
         <v>608</v>
       </c>
       <c r="K215" s="2" t="str">
@@ -13523,7 +13592,7 @@
         <v>209</v>
       </c>
       <c r="J216" s="2">
-        <f>SUM(G216:I216)</f>
+        <f t="shared" si="3"/>
         <v>591</v>
       </c>
       <c r="K216" s="2" t="str">
@@ -13567,7 +13636,7 @@
         <v>232</v>
       </c>
       <c r="J217" s="2">
-        <f>SUM(G217:I217)</f>
+        <f t="shared" si="3"/>
         <v>605</v>
       </c>
       <c r="K217" s="2" t="str">
@@ -13611,7 +13680,7 @@
         <v>190</v>
       </c>
       <c r="J218" s="2">
-        <f>SUM(G218:I218)</f>
+        <f t="shared" si="3"/>
         <v>680</v>
       </c>
       <c r="K218" s="2" t="str">
@@ -13655,7 +13724,7 @@
         <v>234</v>
       </c>
       <c r="J219" s="2">
-        <f>SUM(G219:I219)</f>
+        <f t="shared" si="3"/>
         <v>662</v>
       </c>
       <c r="K219" s="2" t="str">
@@ -13699,7 +13768,7 @@
         <v>197</v>
       </c>
       <c r="J220" s="2">
-        <f>SUM(G220:I220)</f>
+        <f t="shared" si="3"/>
         <v>604</v>
       </c>
       <c r="K220" s="2" t="str">
@@ -13743,7 +13812,7 @@
         <v>213</v>
       </c>
       <c r="J221" s="2">
-        <f>SUM(G221:I221)</f>
+        <f t="shared" si="3"/>
         <v>632</v>
       </c>
       <c r="K221" s="2" t="str">
@@ -13787,7 +13856,7 @@
         <v>196</v>
       </c>
       <c r="J222" s="2">
-        <f>SUM(G222:I222)</f>
+        <f t="shared" si="3"/>
         <v>586</v>
       </c>
       <c r="K222" s="2" t="str">
@@ -13831,7 +13900,7 @@
         <v>259</v>
       </c>
       <c r="J223" s="2">
-        <f>SUM(G223:I223)</f>
+        <f t="shared" si="3"/>
         <v>647</v>
       </c>
       <c r="K223" s="2" t="str">
@@ -13875,7 +13944,7 @@
         <v>173</v>
       </c>
       <c r="J224" s="2">
-        <f>SUM(G224:I224)</f>
+        <f t="shared" si="3"/>
         <v>605</v>
       </c>
       <c r="K224" s="2" t="str">
@@ -13919,7 +13988,7 @@
         <v>214</v>
       </c>
       <c r="J225" s="2">
-        <f>SUM(G225:I225)</f>
+        <f t="shared" si="3"/>
         <v>541</v>
       </c>
       <c r="K225" s="2" t="str">
@@ -13963,7 +14032,7 @@
         <v>158</v>
       </c>
       <c r="J226" s="2">
-        <f>SUM(G226:I226)</f>
+        <f t="shared" si="3"/>
         <v>576</v>
       </c>
       <c r="K226" s="2" t="str">
@@ -14007,7 +14076,7 @@
         <v>252</v>
       </c>
       <c r="J227" s="2">
-        <f>SUM(G227:I227)</f>
+        <f t="shared" si="3"/>
         <v>653</v>
       </c>
       <c r="K227" s="2" t="str">
@@ -14051,7 +14120,7 @@
         <v>203</v>
       </c>
       <c r="J228" s="2">
-        <f>SUM(G228:I228)</f>
+        <f t="shared" si="3"/>
         <v>636</v>
       </c>
       <c r="K228" s="2" t="str">
@@ -14095,7 +14164,7 @@
         <v>193</v>
       </c>
       <c r="J229" s="2">
-        <f>SUM(G229:I229)</f>
+        <f t="shared" si="3"/>
         <v>581</v>
       </c>
       <c r="K229" s="2" t="str">
@@ -14139,7 +14208,7 @@
         <v>162</v>
       </c>
       <c r="J230" s="2">
-        <f>SUM(G230:I230)</f>
+        <f t="shared" si="3"/>
         <v>513</v>
       </c>
       <c r="K230" s="2" t="str">
@@ -14183,7 +14252,7 @@
         <v>172</v>
       </c>
       <c r="J231" s="2">
-        <f>SUM(G231:I231)</f>
+        <f t="shared" si="3"/>
         <v>557</v>
       </c>
       <c r="K231" s="2" t="str">
@@ -14227,7 +14296,7 @@
         <v>300</v>
       </c>
       <c r="J232" s="2">
-        <f>SUM(G232:I232)</f>
+        <f t="shared" si="3"/>
         <v>776</v>
       </c>
       <c r="K232" s="2" t="str">
@@ -14271,7 +14340,7 @@
         <v>183</v>
       </c>
       <c r="J233" s="2">
-        <f>SUM(G233:I233)</f>
+        <f t="shared" si="3"/>
         <v>554</v>
       </c>
       <c r="K233" s="2" t="str">
@@ -14315,7 +14384,7 @@
         <v>197</v>
       </c>
       <c r="J234" s="2">
-        <f>SUM(G234:I234)</f>
+        <f t="shared" si="3"/>
         <v>592</v>
       </c>
       <c r="K234" s="2" t="str">
@@ -14359,7 +14428,7 @@
         <v>252</v>
       </c>
       <c r="J235" s="2">
-        <f>SUM(G235:I235)</f>
+        <f t="shared" si="3"/>
         <v>656</v>
       </c>
       <c r="K235" s="2" t="str">
@@ -14403,7 +14472,7 @@
         <v>181</v>
       </c>
       <c r="J236" s="2">
-        <f>SUM(G236:I236)</f>
+        <f t="shared" si="3"/>
         <v>509</v>
       </c>
       <c r="K236" s="2" t="str">
@@ -14447,7 +14516,7 @@
         <v>168</v>
       </c>
       <c r="J237" s="2">
-        <f>SUM(G237:I237)</f>
+        <f t="shared" si="3"/>
         <v>562</v>
       </c>
       <c r="K237" s="2" t="str">
@@ -14491,7 +14560,7 @@
         <v>159</v>
       </c>
       <c r="J238" s="2">
-        <f>SUM(G238:I238)</f>
+        <f t="shared" si="3"/>
         <v>572</v>
       </c>
       <c r="K238" s="2" t="str">
@@ -14535,7 +14604,7 @@
         <v>168</v>
       </c>
       <c r="J239" s="2">
-        <f>SUM(G239:I239)</f>
+        <f t="shared" si="3"/>
         <v>577</v>
       </c>
       <c r="K239" s="2" t="str">
@@ -14579,7 +14648,7 @@
         <v>129</v>
       </c>
       <c r="J240" s="2">
-        <f>SUM(G240:I240)</f>
+        <f t="shared" si="3"/>
         <v>586</v>
       </c>
       <c r="K240" s="2" t="str">
@@ -14601,17 +14670,17 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:I240">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J240">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThan">
       <formula>5999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J1048576">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>599</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15714,71 +15783,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="30"/>
-    <col min="2" max="2" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="34">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="48" t="s">
         <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -15793,34 +15862,34 @@
       <c r="F3" s="2">
         <v>170</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <f>SUM(D3:F3)</f>
         <v>647</v>
       </c>
-      <c r="H3" s="36">
-        <v>2</v>
-      </c>
-      <c r="I3" s="36">
+      <c r="H3" s="32">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32">
         <v>1</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="34">
         <v>7000</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="34">
         <v>2333</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
@@ -15833,34 +15902,34 @@
       <c r="F4" s="2">
         <v>181</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <f t="shared" ref="G4:G29" si="0">SUM(D4:F4)</f>
         <v>557</v>
       </c>
-      <c r="H4" s="36">
-        <v>2</v>
-      </c>
-      <c r="I4" s="36">
+      <c r="H4" s="32">
+        <v>2</v>
+      </c>
+      <c r="I4" s="32">
         <v>1</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="34">
         <v>3000</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="34">
         <v>1000</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="2" t="s">
         <v>143</v>
       </c>
@@ -15873,30 +15942,30 @@
       <c r="F5" s="2">
         <v>222</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="32">
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="H5" s="36">
-        <v>2</v>
-      </c>
-      <c r="I5" s="36">
+      <c r="H5" s="32">
+        <v>2</v>
+      </c>
+      <c r="I5" s="32">
         <v>1</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="34">
-        <v>2</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="47">
+        <v>2</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>272</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -15911,31 +15980,31 @@
       <c r="F6" s="2">
         <v>197</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="32">
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="32">
         <v>3</v>
       </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
@@ -15948,31 +16017,31 @@
       <c r="F7" s="2">
         <v>177</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="32">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="32">
         <v>3</v>
       </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="2" t="s">
         <v>146</v>
       </c>
@@ -15985,33 +16054,33 @@
       <c r="F8" s="2">
         <v>202</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="32">
         <f t="shared" si="0"/>
         <v>633</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="32">
         <v>3</v>
       </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="34">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="48" t="s">
         <v>273</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -16026,34 +16095,34 @@
       <c r="F9" s="2">
         <v>257</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
         <v>643</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="32">
         <v>1</v>
       </c>
-      <c r="I9" s="36">
-        <v>2</v>
-      </c>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="32">
+        <v>2</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="2" t="s">
         <v>143</v>
       </c>
@@ -16066,32 +16135,32 @@
       <c r="F10" s="2">
         <v>201</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="32">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="32">
         <v>1</v>
       </c>
-      <c r="I10" s="36">
-        <v>2</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
+      <c r="I10" s="32">
+        <v>2</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="2" t="s">
         <v>146</v>
       </c>
@@ -16104,48 +16173,48 @@
       <c r="F11" s="2">
         <v>240</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="32">
         <f t="shared" si="0"/>
         <v>598</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="32">
         <v>1</v>
       </c>
-      <c r="I11" s="36">
-        <v>2</v>
-      </c>
-      <c r="K11" s="39" t="s">
+      <c r="I11" s="32">
+        <v>2</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="N11" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="34">
+      <c r="A12" s="47">
         <v>4</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="48" t="s">
         <v>274</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -16160,52 +16229,52 @@
       <c r="F12" s="2">
         <v>255</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="32">
         <f t="shared" si="0"/>
         <v>608</v>
       </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
         <v>3</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="36">
         <f>COUNTIF($C$3:$C$29,K12)</f>
         <v>6</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="33">
         <f ca="1">SUMIF($C$3:$I$29,K12,$H$3:$H$29)</f>
         <v>11</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="33">
         <f ca="1">SUMIF($C$3:$I$29,K12,$I$3:$I$29)</f>
         <v>7</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="37">
         <f ca="1">$M$3*M12+$M$4*N12</f>
         <v>32663</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="38">
         <f ca="1">SUMIF($C$3:$I$29,K12,$G$3:$G$29)/L12/3</f>
         <v>200.7777777777778</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="39">
         <f ca="1">SUMIF($C$3:$I$29,K12,$G$3:$G$29)</f>
         <v>3614</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
@@ -16218,52 +16287,52 @@
       <c r="F13" s="2">
         <v>155</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="32">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
         <v>3</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="36">
         <f>COUNTIF($C$3:$C$29,K13)</f>
         <v>9</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="33">
         <f t="shared" ref="M13:M15" ca="1" si="1">SUMIF($C$3:$I$29,K13,$H$3:$H$29)</f>
         <v>16</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="33">
         <f t="shared" ref="N13:N15" ca="1" si="2">SUMIF($C$3:$I$29,K13,$I$3:$I$29)</f>
         <v>11</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="37">
         <f t="shared" ref="O13:O15" ca="1" si="3">$M$3*M13+$M$4*N13</f>
         <v>48328</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="38">
         <f t="shared" ref="P13:P15" ca="1" si="4">SUMIF($C$3:$I$29,K13,$G$3:$G$29)/L13/3</f>
         <v>213.5185185185185</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="39">
         <f t="shared" ref="Q13:Q15" ca="1" si="5">SUMIF($C$3:$I$29,K13,$G$3:$G$29)</f>
         <v>5765</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
@@ -16276,54 +16345,54 @@
       <c r="F14" s="2">
         <v>194</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="32">
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
+      <c r="H14" s="32">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
         <v>3</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="36">
         <f>COUNTIF($C$3:$C$29,K14)</f>
         <v>6</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="33">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="33">
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="37">
         <f t="shared" ca="1" si="3"/>
         <v>32663</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="38">
         <f t="shared" ca="1" si="4"/>
         <v>222.94444444444446</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="39">
         <f t="shared" ca="1" si="5"/>
         <v>4013</v>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="34">
+      <c r="A15" s="47">
         <v>5</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="48" t="s">
         <v>276</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -16338,52 +16407,52 @@
       <c r="F15" s="2">
         <v>232</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="32">
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="32">
         <v>1</v>
       </c>
-      <c r="I15" s="36">
-        <v>2</v>
-      </c>
-      <c r="K15" s="36" t="s">
+      <c r="I15" s="32">
+        <v>2</v>
+      </c>
+      <c r="K15" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="36">
         <f>COUNTIF($C$3:$C$29,K15)</f>
         <v>6</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="33">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="33">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="37">
         <f t="shared" ca="1" si="3"/>
         <v>31330</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="38">
         <f t="shared" ca="1" si="4"/>
         <v>175.94444444444446</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="39">
         <f t="shared" ca="1" si="5"/>
         <v>3167</v>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
@@ -16396,40 +16465,40 @@
       <c r="F16" s="2">
         <v>183</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="32">
         <f t="shared" si="0"/>
         <v>498</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="32">
         <v>1</v>
       </c>
-      <c r="I16" s="36">
-        <v>2</v>
-      </c>
-      <c r="K16" s="44" t="s">
+      <c r="I16" s="32">
+        <v>2</v>
+      </c>
+      <c r="K16" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45">
+      <c r="L16" s="49"/>
+      <c r="M16" s="40">
         <f ca="1">SUM(M12:M15)</f>
         <v>48</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="40">
         <f ca="1">SUM(N12:N15)</f>
         <v>33</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="2" t="s">
         <v>143</v>
       </c>
@@ -16442,33 +16511,33 @@
       <c r="F17" s="2">
         <v>287</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <f t="shared" si="0"/>
         <v>778</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="32">
         <v>1</v>
       </c>
-      <c r="I17" s="36">
-        <v>2</v>
-      </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="I17" s="32">
+        <v>2</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="34">
+      <c r="A18" s="47">
         <v>6</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="48" t="s">
         <v>277</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -16483,31 +16552,31 @@
       <c r="F18" s="2">
         <v>254</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="32">
         <f t="shared" si="0"/>
         <v>705</v>
       </c>
-      <c r="H18" s="36">
-        <v>2</v>
-      </c>
-      <c r="I18" s="36">
+      <c r="H18" s="32">
+        <v>2</v>
+      </c>
+      <c r="I18" s="32">
         <v>1</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
@@ -16520,31 +16589,31 @@
       <c r="F19" s="2">
         <v>201</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="32">
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
-      <c r="H19" s="36">
-        <v>2</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="H19" s="32">
+        <v>2</v>
+      </c>
+      <c r="I19" s="32">
         <v>1</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2" t="s">
         <v>146</v>
       </c>
@@ -16557,31 +16626,31 @@
       <c r="F20" s="2">
         <v>179</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="32">
         <f t="shared" si="0"/>
         <v>556</v>
       </c>
-      <c r="H20" s="36">
-        <v>2</v>
-      </c>
-      <c r="I20" s="36">
+      <c r="H20" s="32">
+        <v>2</v>
+      </c>
+      <c r="I20" s="32">
         <v>1</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="34">
+      <c r="A21" s="47">
         <v>7</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="48" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -16596,28 +16665,28 @@
       <c r="F21" s="2">
         <v>246</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="32">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="H21" s="36">
-        <v>2</v>
-      </c>
-      <c r="I21" s="36">
+      <c r="H21" s="32">
+        <v>2</v>
+      </c>
+      <c r="I21" s="32">
         <v>1</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
@@ -16630,28 +16699,28 @@
       <c r="F22" s="2">
         <v>201</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="32">
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="H22" s="36">
-        <v>2</v>
-      </c>
-      <c r="I22" s="36">
+      <c r="H22" s="32">
+        <v>2</v>
+      </c>
+      <c r="I22" s="32">
         <v>1</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2" t="s">
         <v>143</v>
       </c>
@@ -16664,29 +16733,29 @@
       <c r="F23" s="2">
         <v>215</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="32">
         <f t="shared" si="0"/>
         <v>666</v>
       </c>
-      <c r="H23" s="36">
-        <v>2</v>
-      </c>
-      <c r="I23" s="36">
+      <c r="H23" s="32">
+        <v>2</v>
+      </c>
+      <c r="I23" s="32">
         <v>1</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="34">
+      <c r="A24" s="47">
         <v>8</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="48" t="s">
         <v>278</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -16701,27 +16770,27 @@
       <c r="F24" s="2">
         <v>209</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="32">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="32">
         <v>3</v>
       </c>
-      <c r="I24" s="36">
-        <v>0</v>
-      </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="2" t="s">
         <v>144</v>
       </c>
@@ -16734,31 +16803,31 @@
       <c r="F25" s="2">
         <v>200</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="32">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="32">
         <v>3</v>
       </c>
-      <c r="I25" s="36">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="2" t="s">
         <v>143</v>
       </c>
@@ -16771,34 +16840,34 @@
       <c r="F26" s="2">
         <v>269</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="32">
         <f t="shared" si="0"/>
         <v>724</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="32">
         <v>3</v>
       </c>
-      <c r="I26" s="36">
-        <v>0</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="34">
+      <c r="A27" s="47">
         <v>9</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="48" t="s">
         <v>279</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -16813,32 +16882,32 @@
       <c r="F27" s="2">
         <v>232</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="32">
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
-      <c r="H27" s="36">
-        <v>2</v>
-      </c>
-      <c r="I27" s="36">
+      <c r="H27" s="32">
+        <v>2</v>
+      </c>
+      <c r="I27" s="32">
         <v>1</v>
       </c>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="2" t="s">
         <v>223</v>
       </c>
@@ -16851,32 +16920,32 @@
       <c r="F28" s="2">
         <v>190</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="32">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="H28" s="36">
-        <v>2</v>
-      </c>
-      <c r="I28" s="36">
+      <c r="H28" s="32">
+        <v>2</v>
+      </c>
+      <c r="I28" s="32">
         <v>1</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="2" t="s">
         <v>224</v>
       </c>
@@ -16889,52 +16958,1454 @@
       <c r="F29" s="2">
         <v>234</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="32">
         <f t="shared" si="0"/>
         <v>662</v>
       </c>
-      <c r="H29" s="36">
-        <v>2</v>
-      </c>
-      <c r="I29" s="36">
+      <c r="H29" s="32">
+        <v>2</v>
+      </c>
+      <c r="I29" s="32">
         <v>1</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43">
         <f>SUM(H3:H29)/3</f>
         <v>16</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="44">
         <f>SUM(I3:I29)/3</f>
         <v>11</v>
       </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="K9:Q10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:F29">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="greaterThan">
+      <formula>199.999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G30">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="greaterThan">
+      <formula>599.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:F5">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:F8">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:F11">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:F14">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:F17">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:F20">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:F23">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:F26">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2">
+        <v>233</v>
+      </c>
+      <c r="E3" s="2">
+        <v>181</v>
+      </c>
+      <c r="F3" s="2">
+        <v>182</v>
+      </c>
+      <c r="G3" s="32">
+        <f>SUM(D3:F3)</f>
+        <v>596</v>
+      </c>
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="I3" s="32">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="34">
+        <v>7000</v>
+      </c>
+      <c r="M3" s="34">
+        <v>2333</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="2">
+        <v>187</v>
+      </c>
+      <c r="E4" s="2">
+        <v>144</v>
+      </c>
+      <c r="F4" s="2">
+        <v>198</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:G29" si="0">SUM(D4:F4)</f>
+        <v>529</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="32">
+        <v>2</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="34">
+        <v>3000</v>
+      </c>
+      <c r="M4" s="34">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="2">
+        <v>223</v>
+      </c>
+      <c r="E5" s="2">
+        <v>247</v>
+      </c>
+      <c r="F5" s="2">
+        <v>170</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>2</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="47">
+        <v>2</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="2">
+        <v>222</v>
+      </c>
+      <c r="E6" s="2">
+        <v>168</v>
+      </c>
+      <c r="F6" s="2">
+        <v>215</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>2</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="2">
+        <v>208</v>
+      </c>
+      <c r="E7" s="2">
+        <v>212</v>
+      </c>
+      <c r="F7" s="2">
+        <v>203</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>623</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="I7" s="32">
+        <v>2</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="2">
+        <v>181</v>
+      </c>
+      <c r="E8" s="2">
+        <v>170</v>
+      </c>
+      <c r="F8" s="2">
+        <v>166</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>517</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32">
+        <v>2</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="47">
+        <v>3</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="2">
+        <v>192</v>
+      </c>
+      <c r="E9" s="2">
+        <v>266</v>
+      </c>
+      <c r="F9" s="2">
+        <v>230</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>3</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="2">
+        <v>195</v>
+      </c>
+      <c r="E10" s="2">
+        <v>169</v>
+      </c>
+      <c r="F10" s="2">
+        <v>183</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="0"/>
+        <v>547</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>3</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="2">
+        <v>190</v>
+      </c>
+      <c r="E11" s="2">
+        <v>158</v>
+      </c>
+      <c r="F11" s="2">
+        <v>194</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="0"/>
+        <v>542</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <v>3</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="47">
+        <v>4</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="2">
+        <v>256</v>
+      </c>
+      <c r="E12" s="2">
+        <v>237</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="0"/>
+        <v>693</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="36">
+        <f>COUNTIF($C$3:$C$29,K12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="33">
+        <f ca="1">SUMIF($C$3:$I$29,K12,$H$3:$H$29)</f>
+        <v>3</v>
+      </c>
+      <c r="N12" s="33">
+        <f ca="1">SUMIF($C$3:$I$29,K12,$I$3:$I$29)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="37">
+        <f ca="1">$M$3*M12+$M$4*N12</f>
+        <v>6999</v>
+      </c>
+      <c r="P12" s="38">
+        <f ca="1">SUMIF($C$3:$I$29,K12,$G$3:$G$29)/L12/3</f>
+        <v>238.66666666666666</v>
+      </c>
+      <c r="Q12" s="39">
+        <f ca="1">SUMIF($C$3:$I$29,K12,$G$3:$G$29)</f>
+        <v>716</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="2">
+        <v>210</v>
+      </c>
+      <c r="E13" s="2">
+        <v>164</v>
+      </c>
+      <c r="F13" s="2">
+        <v>165</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" ref="L13:L18" si="1">COUNTIF($C$3:$C$29,K13)</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="33">
+        <f t="shared" ref="M13:M18" ca="1" si="2">SUMIF($C$3:$I$29,K13,$H$3:$H$29)</f>
+        <v>4</v>
+      </c>
+      <c r="N13" s="33">
+        <f t="shared" ref="N13:N18" ca="1" si="3">SUMIF($C$3:$I$29,K13,$I$3:$I$29)</f>
+        <v>2</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" ref="O13:O18" ca="1" si="4">$M$3*M13+$M$4*N13</f>
+        <v>11332</v>
+      </c>
+      <c r="P13" s="38">
+        <f t="shared" ref="P13:P18" ca="1" si="5">SUMIF($C$3:$I$29,K13,$G$3:$G$29)/L13/3</f>
+        <v>194.83333333333334</v>
+      </c>
+      <c r="Q13" s="39">
+        <f t="shared" ref="Q13:Q18" ca="1" si="6">SUMIF($C$3:$I$29,K13,$G$3:$G$29)</f>
+        <v>1169</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="2">
+        <v>226</v>
+      </c>
+      <c r="E14" s="2">
+        <v>236</v>
+      </c>
+      <c r="F14" s="2">
+        <v>224</v>
+      </c>
+      <c r="G14" s="32">
+        <f t="shared" si="0"/>
+        <v>686</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="32">
+        <v>2</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M14" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" ca="1" si="4"/>
+        <v>29997</v>
+      </c>
+      <c r="P14" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>226.2222222222222</v>
+      </c>
+      <c r="Q14" s="39">
+        <f t="shared" ca="1" si="6"/>
+        <v>4072</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="47">
+        <v>5</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="2">
+        <v>232</v>
+      </c>
+      <c r="E15" s="2">
+        <v>249</v>
+      </c>
+      <c r="F15" s="2">
+        <v>235</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="0"/>
+        <v>716</v>
+      </c>
+      <c r="H15" s="32">
+        <v>3</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="37">
+        <f t="shared" ca="1" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="P15" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>180.66666666666666</v>
+      </c>
+      <c r="Q15" s="39">
+        <f t="shared" ca="1" si="6"/>
+        <v>542</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="2">
+        <v>212</v>
+      </c>
+      <c r="E16" s="2">
+        <v>192</v>
+      </c>
+      <c r="F16" s="2">
+        <v>248</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" si="0"/>
+        <v>652</v>
+      </c>
+      <c r="H16" s="32">
+        <v>3</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" ca="1" si="4"/>
+        <v>6999</v>
+      </c>
+      <c r="P16" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>200.66666666666666</v>
+      </c>
+      <c r="Q16" s="39">
+        <f t="shared" ca="1" si="6"/>
+        <v>602</v>
+      </c>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="2">
+        <v>210</v>
+      </c>
+      <c r="E17" s="2">
+        <v>203</v>
+      </c>
+      <c r="F17" s="2">
+        <v>217</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="H17" s="32">
+        <v>3</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M17" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N17" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" ca="1" si="4"/>
+        <v>37330</v>
+      </c>
+      <c r="P17" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>188.625</v>
+      </c>
+      <c r="Q17" s="39">
+        <f t="shared" ca="1" si="6"/>
+        <v>4527</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="47">
+        <v>6</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="2">
+        <v>197</v>
+      </c>
+      <c r="E18" s="2">
+        <v>226</v>
+      </c>
+      <c r="F18" s="2">
+        <v>178</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="H18" s="32">
+        <v>3</v>
+      </c>
+      <c r="I18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M18" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N18" s="33">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="O18" s="37">
+        <f t="shared" ca="1" si="4"/>
+        <v>37330</v>
+      </c>
+      <c r="P18" s="38">
+        <f t="shared" ca="1" si="5"/>
+        <v>207.79166666666666</v>
+      </c>
+      <c r="Q18" s="39">
+        <f t="shared" ca="1" si="6"/>
+        <v>4987</v>
+      </c>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="2">
+        <v>179</v>
+      </c>
+      <c r="E19" s="2">
+        <v>201</v>
+      </c>
+      <c r="F19" s="2">
+        <v>185</v>
+      </c>
+      <c r="G19" s="32">
+        <f t="shared" si="0"/>
+        <v>565</v>
+      </c>
+      <c r="H19" s="32">
+        <v>3</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="40">
+        <f ca="1">SUM(M12:M18)</f>
+        <v>39</v>
+      </c>
+      <c r="N19" s="40">
+        <f ca="1">SUM(N12:N18)</f>
+        <v>42</v>
+      </c>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="2">
+        <v>168</v>
+      </c>
+      <c r="E20" s="2">
+        <v>199</v>
+      </c>
+      <c r="F20" s="2">
+        <v>235</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="H20" s="32">
+        <v>3</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="47">
+        <v>7</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="2">
+        <v>199</v>
+      </c>
+      <c r="E21" s="2">
+        <v>197</v>
+      </c>
+      <c r="F21" s="2">
+        <v>211</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="0"/>
+        <v>607</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="I21" s="32">
+        <v>2</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="2">
+        <v>189</v>
+      </c>
+      <c r="E22" s="2">
+        <v>184</v>
+      </c>
+      <c r="F22" s="2">
+        <v>156</v>
+      </c>
+      <c r="G22" s="32">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32">
+        <v>2</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="2">
+        <v>279</v>
+      </c>
+      <c r="E23" s="2">
+        <v>215</v>
+      </c>
+      <c r="F23" s="2">
+        <v>233</v>
+      </c>
+      <c r="G23" s="32">
+        <f t="shared" si="0"/>
+        <v>727</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32">
+        <v>2</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="47">
+        <v>8</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="2">
+        <v>202</v>
+      </c>
+      <c r="E24" s="2">
+        <v>152</v>
+      </c>
+      <c r="F24" s="2">
+        <v>223</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32">
+        <v>2</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="2">
+        <v>185</v>
+      </c>
+      <c r="E25" s="2">
+        <v>183</v>
+      </c>
+      <c r="F25" s="2">
+        <v>189</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+      <c r="I25" s="32">
+        <v>2</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="2">
+        <v>224</v>
+      </c>
+      <c r="E26" s="2">
+        <v>214</v>
+      </c>
+      <c r="F26" s="2">
+        <v>215</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="0"/>
+        <v>653</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+      <c r="I26" s="32">
+        <v>2</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="47">
+        <v>9</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="2">
+        <v>214</v>
+      </c>
+      <c r="E27" s="2">
+        <v>203</v>
+      </c>
+      <c r="F27" s="2">
+        <v>203</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="H27" s="32">
+        <v>2</v>
+      </c>
+      <c r="I27" s="32">
+        <v>1</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="2">
+        <v>229</v>
+      </c>
+      <c r="E28" s="2">
+        <v>190</v>
+      </c>
+      <c r="F28" s="2">
+        <v>219</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="0"/>
+        <v>638</v>
+      </c>
+      <c r="H28" s="32">
+        <v>2</v>
+      </c>
+      <c r="I28" s="32">
+        <v>1</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="2">
+        <v>279</v>
+      </c>
+      <c r="E29" s="2">
+        <v>214</v>
+      </c>
+      <c r="F29" s="2">
+        <v>243</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="0"/>
+        <v>736</v>
+      </c>
+      <c r="H29" s="32">
+        <v>2</v>
+      </c>
+      <c r="I29" s="32">
+        <v>1</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43">
+        <f>SUM(H3:H29)/3</f>
+        <v>13</v>
+      </c>
+      <c r="I30" s="44">
+        <f>SUM(I3:I29)/3</f>
+        <v>14</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -16951,8 +18422,8 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A6:A8"/>
@@ -16962,58 +18433,63 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:F29">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>199.999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G30">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>599.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:F5">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:F8">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:F11">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F14">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:F17">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:F20">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:F23">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:F26">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F29">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>199</formula>
+      <formula>199.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
